--- a/fondamentaux/data/results_by_arrdmt.xlsx
+++ b/fondamentaux/data/results_by_arrdmt.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L41"/>
+  <dimension ref="A1:M81"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -426,6 +426,11 @@
           <t>other</t>
         </is>
       </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>type</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -466,6 +471,11 @@
       <c r="L2" t="n">
         <v>0</v>
       </c>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>municipale</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -504,13 +514,18 @@
       <c r="L3" t="n">
         <v>153</v>
       </c>
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>municipale</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>39591</v>
+        <v>42848</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -518,31 +533,34 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E4" t="n">
-        <v>6736</v>
+        <v>9026</v>
       </c>
       <c r="F4" t="n">
-        <v>90</v>
+        <v>1231</v>
       </c>
       <c r="G4" t="n">
-        <v>2231</v>
-      </c>
-      <c r="H4" t="n">
-        <v>2016</v>
-      </c>
+        <v>659</v>
+      </c>
+      <c r="H4" t="inlineStr"/>
       <c r="I4" t="n">
-        <v>621</v>
+        <v>3561</v>
       </c>
       <c r="J4" t="n">
-        <v>1543</v>
+        <v>2831</v>
       </c>
       <c r="K4" t="n">
-        <v>167</v>
+        <v>443</v>
       </c>
       <c r="L4" t="n">
-        <v>68</v>
+        <v>301</v>
+      </c>
+      <c r="M4" t="inlineStr">
+        <is>
+          <t>president</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -550,7 +568,7 @@
         <v>3</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>41723</v>
+        <v>42897</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -558,29 +576,36 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E5" t="n">
-        <v>6857</v>
+        <v>6282</v>
       </c>
       <c r="F5" t="n">
-        <v>192</v>
+        <v>434</v>
       </c>
       <c r="G5" t="n">
-        <v>1565</v>
+        <v>418</v>
       </c>
       <c r="H5" t="n">
-        <v>2260</v>
-      </c>
-      <c r="I5" t="inlineStr"/>
+        <v>363</v>
+      </c>
+      <c r="I5" t="n">
+        <v>2958</v>
+      </c>
       <c r="J5" t="n">
-        <v>1663</v>
+        <v>1525</v>
       </c>
       <c r="K5" t="n">
-        <v>272</v>
+        <v>148</v>
       </c>
       <c r="L5" t="n">
-        <v>905</v>
+        <v>436</v>
+      </c>
+      <c r="M5" t="inlineStr">
+        <is>
+          <t>legislative</t>
+        </is>
       </c>
     </row>
     <row r="6">
@@ -596,31 +621,36 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E6" t="n">
-        <v>11974</v>
+        <v>6736</v>
       </c>
       <c r="F6" t="n">
-        <v>225</v>
+        <v>90</v>
       </c>
       <c r="G6" t="n">
-        <v>6685</v>
+        <v>2231</v>
       </c>
       <c r="H6" t="n">
-        <v>1237</v>
+        <v>2016</v>
       </c>
       <c r="I6" t="n">
-        <v>1111</v>
+        <v>621</v>
       </c>
       <c r="J6" t="n">
-        <v>2458</v>
+        <v>1543</v>
       </c>
       <c r="K6" t="n">
-        <v>258</v>
+        <v>167</v>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>68</v>
+      </c>
+      <c r="M6" t="inlineStr">
+        <is>
+          <t>municipale</t>
+        </is>
       </c>
     </row>
     <row r="7">
@@ -636,29 +666,34 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E7" t="n">
-        <v>11615</v>
+        <v>6857</v>
       </c>
       <c r="F7" t="n">
-        <v>464</v>
+        <v>192</v>
       </c>
       <c r="G7" t="n">
-        <v>5493</v>
+        <v>1565</v>
       </c>
       <c r="H7" t="n">
-        <v>1252</v>
+        <v>2260</v>
       </c>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="n">
-        <v>3379</v>
+        <v>1663</v>
       </c>
       <c r="K7" t="n">
-        <v>580</v>
+        <v>272</v>
       </c>
       <c r="L7" t="n">
-        <v>447</v>
+        <v>905</v>
+      </c>
+      <c r="M7" t="inlineStr">
+        <is>
+          <t>municipale</t>
+        </is>
       </c>
     </row>
     <row r="8">
@@ -666,7 +701,7 @@
         <v>6</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>39591</v>
+        <v>42848</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -674,31 +709,34 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E8" t="n">
-        <v>10573</v>
+        <v>11292</v>
       </c>
       <c r="F8" t="n">
-        <v>151</v>
+        <v>1802</v>
       </c>
       <c r="G8" t="n">
-        <v>5127</v>
-      </c>
-      <c r="H8" t="n">
-        <v>834</v>
-      </c>
+        <v>1099</v>
+      </c>
+      <c r="H8" t="inlineStr"/>
       <c r="I8" t="n">
-        <v>863</v>
+        <v>5014</v>
       </c>
       <c r="J8" t="n">
-        <v>3312</v>
+        <v>2640</v>
       </c>
       <c r="K8" t="n">
-        <v>286</v>
+        <v>399</v>
       </c>
       <c r="L8" t="n">
-        <v>0</v>
+        <v>338</v>
+      </c>
+      <c r="M8" t="inlineStr">
+        <is>
+          <t>president</t>
+        </is>
       </c>
     </row>
     <row r="9">
@@ -706,7 +744,7 @@
         <v>7</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>41723</v>
+        <v>42897</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -714,29 +752,36 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E9" t="n">
-        <v>9850</v>
+        <v>7560</v>
       </c>
       <c r="F9" t="n">
-        <v>376</v>
+        <v>601</v>
       </c>
       <c r="G9" t="n">
-        <v>3684</v>
+        <v>563</v>
       </c>
       <c r="H9" t="n">
-        <v>916</v>
-      </c>
-      <c r="I9" t="inlineStr"/>
+        <v>810</v>
+      </c>
+      <c r="I9" t="n">
+        <v>4004</v>
+      </c>
       <c r="J9" t="n">
-        <v>3725</v>
+        <v>843</v>
       </c>
       <c r="K9" t="n">
-        <v>512</v>
+        <v>147</v>
       </c>
       <c r="L9" t="n">
-        <v>637</v>
+        <v>592</v>
+      </c>
+      <c r="M9" t="inlineStr">
+        <is>
+          <t>legislative</t>
+        </is>
       </c>
     </row>
     <row r="10">
@@ -752,31 +797,36 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E10" t="n">
-        <v>23614</v>
+        <v>11974</v>
       </c>
       <c r="F10" t="n">
-        <v>688</v>
+        <v>225</v>
       </c>
       <c r="G10" t="n">
-        <v>8187</v>
+        <v>6685</v>
       </c>
       <c r="H10" t="n">
-        <v>1287</v>
+        <v>1237</v>
       </c>
       <c r="I10" t="n">
-        <v>3385</v>
+        <v>1111</v>
       </c>
       <c r="J10" t="n">
-        <v>8958</v>
+        <v>2458</v>
       </c>
       <c r="K10" t="n">
-        <v>418</v>
+        <v>258</v>
       </c>
       <c r="L10" t="n">
-        <v>691</v>
+        <v>0</v>
+      </c>
+      <c r="M10" t="inlineStr">
+        <is>
+          <t>municipale</t>
+        </is>
       </c>
     </row>
     <row r="11">
@@ -792,29 +842,34 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E11" t="n">
-        <v>22243</v>
+        <v>11615</v>
       </c>
       <c r="F11" t="n">
-        <v>976</v>
+        <v>464</v>
       </c>
       <c r="G11" t="n">
-        <v>7550</v>
+        <v>5493</v>
       </c>
       <c r="H11" t="n">
-        <v>1985</v>
+        <v>1252</v>
       </c>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="n">
-        <v>6336</v>
+        <v>3379</v>
       </c>
       <c r="K11" t="n">
-        <v>805</v>
+        <v>580</v>
       </c>
       <c r="L11" t="n">
-        <v>4591</v>
+        <v>447</v>
+      </c>
+      <c r="M11" t="inlineStr">
+        <is>
+          <t>municipale</t>
+        </is>
       </c>
     </row>
     <row r="12">
@@ -822,7 +877,7 @@
         <v>10</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>39591</v>
+        <v>42848</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
@@ -830,29 +885,34 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="E12" t="n">
-        <v>15488</v>
-      </c>
-      <c r="F12" t="inlineStr"/>
+        <v>18485</v>
+      </c>
+      <c r="F12" t="n">
+        <v>3078</v>
+      </c>
       <c r="G12" t="n">
-        <v>5166</v>
-      </c>
-      <c r="H12" t="n">
-        <v>590</v>
-      </c>
+        <v>1963</v>
+      </c>
+      <c r="H12" t="inlineStr"/>
       <c r="I12" t="n">
-        <v>1530</v>
+        <v>8325</v>
       </c>
       <c r="J12" t="n">
-        <v>7269</v>
+        <v>3994</v>
       </c>
       <c r="K12" t="n">
-        <v>356</v>
+        <v>615</v>
       </c>
       <c r="L12" t="n">
-        <v>577</v>
+        <v>510</v>
+      </c>
+      <c r="M12" t="inlineStr">
+        <is>
+          <t>president</t>
+        </is>
       </c>
     </row>
     <row r="13">
@@ -860,7 +920,7 @@
         <v>11</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>41723</v>
+        <v>42897</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
@@ -868,29 +928,36 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="E13" t="n">
-        <v>14759</v>
+        <v>13014</v>
       </c>
       <c r="F13" t="n">
-        <v>349</v>
+        <v>1035</v>
       </c>
       <c r="G13" t="n">
-        <v>3855</v>
+        <v>1637</v>
       </c>
       <c r="H13" t="n">
-        <v>982</v>
-      </c>
-      <c r="I13" t="inlineStr"/>
+        <v>1299</v>
+      </c>
+      <c r="I13" t="n">
+        <v>6513</v>
+      </c>
       <c r="J13" t="n">
-        <v>7766</v>
+        <v>1231</v>
       </c>
       <c r="K13" t="n">
-        <v>708</v>
+        <v>340</v>
       </c>
       <c r="L13" t="n">
-        <v>1099</v>
+        <v>959</v>
+      </c>
+      <c r="M13" t="inlineStr">
+        <is>
+          <t>legislative</t>
+        </is>
       </c>
     </row>
     <row r="14">
@@ -906,29 +973,36 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="E14" t="n">
-        <v>17967</v>
-      </c>
-      <c r="F14" t="inlineStr"/>
+        <v>10573</v>
+      </c>
+      <c r="F14" t="n">
+        <v>151</v>
+      </c>
       <c r="G14" t="n">
-        <v>4080</v>
+        <v>5127</v>
       </c>
       <c r="H14" t="n">
-        <v>535</v>
+        <v>834</v>
       </c>
       <c r="I14" t="n">
-        <v>2819</v>
+        <v>863</v>
       </c>
       <c r="J14" t="n">
-        <v>8894</v>
+        <v>3312</v>
       </c>
       <c r="K14" t="n">
-        <v>537</v>
+        <v>286</v>
       </c>
       <c r="L14" t="n">
-        <v>1102</v>
+        <v>0</v>
+      </c>
+      <c r="M14" t="inlineStr">
+        <is>
+          <t>municipale</t>
+        </is>
       </c>
     </row>
     <row r="15">
@@ -944,29 +1018,34 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="E15" t="n">
-        <v>17910</v>
+        <v>9850</v>
       </c>
       <c r="F15" t="n">
-        <v>198</v>
+        <v>376</v>
       </c>
       <c r="G15" t="n">
-        <v>3031</v>
+        <v>3684</v>
       </c>
       <c r="H15" t="n">
-        <v>546</v>
+        <v>916</v>
       </c>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="n">
-        <v>7345</v>
+        <v>3725</v>
       </c>
       <c r="K15" t="n">
-        <v>1066</v>
+        <v>512</v>
       </c>
       <c r="L15" t="n">
-        <v>5724</v>
+        <v>637</v>
+      </c>
+      <c r="M15" t="inlineStr">
+        <is>
+          <t>municipale</t>
+        </is>
       </c>
     </row>
     <row r="16">
@@ -974,7 +1053,7 @@
         <v>14</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>39591</v>
+        <v>42848</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
@@ -982,29 +1061,34 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="E16" t="n">
-        <v>12325</v>
-      </c>
-      <c r="F16" t="inlineStr"/>
+        <v>15106</v>
+      </c>
+      <c r="F16" t="n">
+        <v>2329</v>
+      </c>
       <c r="G16" t="n">
-        <v>2302</v>
-      </c>
-      <c r="H16" t="n">
-        <v>318</v>
-      </c>
+        <v>1370</v>
+      </c>
+      <c r="H16" t="inlineStr"/>
       <c r="I16" t="n">
-        <v>808</v>
+        <v>6182</v>
       </c>
       <c r="J16" t="n">
-        <v>4119</v>
+        <v>3956</v>
       </c>
       <c r="K16" t="n">
-        <v>293</v>
+        <v>735</v>
       </c>
       <c r="L16" t="n">
-        <v>4485</v>
+        <v>534</v>
+      </c>
+      <c r="M16" t="inlineStr">
+        <is>
+          <t>president</t>
+        </is>
       </c>
     </row>
     <row r="17">
@@ -1012,7 +1096,7 @@
         <v>15</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>41723</v>
+        <v>42897</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
@@ -1020,29 +1104,36 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="E17" t="n">
-        <v>12622</v>
+        <v>10549</v>
       </c>
       <c r="F17" t="n">
-        <v>178</v>
+        <v>882</v>
       </c>
       <c r="G17" t="n">
-        <v>1944</v>
+        <v>1176</v>
       </c>
       <c r="H17" t="n">
-        <v>442</v>
-      </c>
-      <c r="I17" t="inlineStr"/>
+        <v>563</v>
+      </c>
+      <c r="I17" t="n">
+        <v>4612</v>
+      </c>
       <c r="J17" t="n">
-        <v>5884</v>
+        <v>1779</v>
       </c>
       <c r="K17" t="n">
-        <v>602</v>
+        <v>289</v>
       </c>
       <c r="L17" t="n">
-        <v>3572</v>
+        <v>1248</v>
+      </c>
+      <c r="M17" t="inlineStr">
+        <is>
+          <t>legislative</t>
+        </is>
       </c>
     </row>
     <row r="18">
@@ -1058,31 +1149,36 @@
         </is>
       </c>
       <c r="D18" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="E18" t="n">
-        <v>20643</v>
+        <v>23614</v>
       </c>
       <c r="F18" t="n">
-        <v>602</v>
+        <v>688</v>
       </c>
       <c r="G18" t="n">
-        <v>10163</v>
+        <v>8187</v>
       </c>
       <c r="H18" t="n">
-        <v>1299</v>
+        <v>1287</v>
       </c>
       <c r="I18" t="n">
-        <v>1659</v>
+        <v>3385</v>
       </c>
       <c r="J18" t="n">
-        <v>6353</v>
+        <v>8958</v>
       </c>
       <c r="K18" t="n">
-        <v>567</v>
+        <v>418</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>691</v>
+      </c>
+      <c r="M18" t="inlineStr">
+        <is>
+          <t>municipale</t>
+        </is>
       </c>
     </row>
     <row r="19">
@@ -1098,29 +1194,34 @@
         </is>
       </c>
       <c r="D19" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="E19" t="n">
-        <v>20751</v>
+        <v>22243</v>
       </c>
       <c r="F19" t="n">
-        <v>772</v>
+        <v>976</v>
       </c>
       <c r="G19" t="n">
-        <v>8125</v>
+        <v>7550</v>
       </c>
       <c r="H19" t="n">
-        <v>1663</v>
+        <v>1985</v>
       </c>
       <c r="I19" t="inlineStr"/>
       <c r="J19" t="n">
-        <v>8181</v>
+        <v>6336</v>
       </c>
       <c r="K19" t="n">
-        <v>1010</v>
+        <v>805</v>
       </c>
       <c r="L19" t="n">
-        <v>1000</v>
+        <v>4591</v>
+      </c>
+      <c r="M19" t="inlineStr">
+        <is>
+          <t>municipale</t>
+        </is>
       </c>
     </row>
     <row r="20">
@@ -1128,7 +1229,7 @@
         <v>18</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>39591</v>
+        <v>42848</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
@@ -1136,31 +1237,34 @@
         </is>
       </c>
       <c r="D20" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="E20" t="n">
-        <v>28359</v>
+        <v>31008</v>
       </c>
       <c r="F20" t="n">
-        <v>2158</v>
+        <v>4960</v>
       </c>
       <c r="G20" t="n">
-        <v>13766</v>
-      </c>
-      <c r="H20" t="n">
-        <v>2564</v>
-      </c>
+        <v>3103</v>
+      </c>
+      <c r="H20" t="inlineStr"/>
       <c r="I20" t="n">
-        <v>2348</v>
+        <v>12316</v>
       </c>
       <c r="J20" t="n">
-        <v>4513</v>
+        <v>8273</v>
       </c>
       <c r="K20" t="n">
-        <v>837</v>
+        <v>1225</v>
       </c>
       <c r="L20" t="n">
-        <v>2173</v>
+        <v>1131</v>
+      </c>
+      <c r="M20" t="inlineStr">
+        <is>
+          <t>president</t>
+        </is>
       </c>
     </row>
     <row r="21">
@@ -1168,7 +1272,7 @@
         <v>19</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>41723</v>
+        <v>42897</v>
       </c>
       <c r="C21" t="inlineStr">
         <is>
@@ -1176,29 +1280,36 @@
         </is>
       </c>
       <c r="D21" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="E21" t="n">
-        <v>26993</v>
+        <v>22755</v>
       </c>
       <c r="F21" t="n">
-        <v>1730</v>
+        <v>1947</v>
       </c>
       <c r="G21" t="n">
-        <v>11973</v>
+        <v>1980</v>
       </c>
       <c r="H21" t="n">
-        <v>3102</v>
-      </c>
-      <c r="I21" t="inlineStr"/>
+        <v>1562</v>
+      </c>
+      <c r="I21" t="n">
+        <v>9379</v>
+      </c>
       <c r="J21" t="n">
-        <v>5798</v>
+        <v>3523</v>
       </c>
       <c r="K21" t="n">
-        <v>1460</v>
+        <v>543</v>
       </c>
       <c r="L21" t="n">
-        <v>2930</v>
+        <v>3821</v>
+      </c>
+      <c r="M21" t="inlineStr">
+        <is>
+          <t>legislative</t>
+        </is>
       </c>
     </row>
     <row r="22">
@@ -1214,31 +1325,34 @@
         </is>
       </c>
       <c r="D22" t="n">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="E22" t="n">
-        <v>47031</v>
-      </c>
-      <c r="F22" t="n">
-        <v>2672</v>
-      </c>
+        <v>15488</v>
+      </c>
+      <c r="F22" t="inlineStr"/>
       <c r="G22" t="n">
-        <v>25894</v>
+        <v>5166</v>
       </c>
       <c r="H22" t="n">
-        <v>3726</v>
+        <v>590</v>
       </c>
       <c r="I22" t="n">
-        <v>4067</v>
+        <v>1530</v>
       </c>
       <c r="J22" t="n">
-        <v>9315</v>
+        <v>7269</v>
       </c>
       <c r="K22" t="n">
-        <v>1357</v>
+        <v>356</v>
       </c>
       <c r="L22" t="n">
-        <v>0</v>
+        <v>577</v>
+      </c>
+      <c r="M22" t="inlineStr">
+        <is>
+          <t>municipale</t>
+        </is>
       </c>
     </row>
     <row r="23">
@@ -1254,29 +1368,34 @@
         </is>
       </c>
       <c r="D23" t="n">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="E23" t="n">
-        <v>45861</v>
+        <v>14759</v>
       </c>
       <c r="F23" t="n">
-        <v>2879</v>
+        <v>349</v>
       </c>
       <c r="G23" t="n">
-        <v>20524</v>
+        <v>3855</v>
       </c>
       <c r="H23" t="n">
-        <v>5301</v>
+        <v>982</v>
       </c>
       <c r="I23" t="inlineStr"/>
       <c r="J23" t="n">
-        <v>12304</v>
+        <v>7766</v>
       </c>
       <c r="K23" t="n">
-        <v>2512</v>
+        <v>708</v>
       </c>
       <c r="L23" t="n">
-        <v>2341</v>
+        <v>1099</v>
+      </c>
+      <c r="M23" t="inlineStr">
+        <is>
+          <t>municipale</t>
+        </is>
       </c>
     </row>
     <row r="24">
@@ -1284,7 +1403,7 @@
         <v>22</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>39591</v>
+        <v>42848</v>
       </c>
       <c r="C24" t="inlineStr">
         <is>
@@ -1292,31 +1411,34 @@
         </is>
       </c>
       <c r="D24" t="n">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="E24" t="n">
-        <v>53146</v>
+        <v>22332</v>
       </c>
       <c r="F24" t="n">
-        <v>2324</v>
+        <v>2038</v>
       </c>
       <c r="G24" t="n">
-        <v>24486</v>
-      </c>
-      <c r="H24" t="n">
-        <v>3125</v>
-      </c>
+        <v>1419</v>
+      </c>
+      <c r="H24" t="inlineStr"/>
       <c r="I24" t="n">
-        <v>5287</v>
+        <v>8729</v>
       </c>
       <c r="J24" t="n">
-        <v>12922</v>
+        <v>8769</v>
       </c>
       <c r="K24" t="n">
-        <v>1550</v>
+        <v>719</v>
       </c>
       <c r="L24" t="n">
-        <v>3452</v>
+        <v>658</v>
+      </c>
+      <c r="M24" t="inlineStr">
+        <is>
+          <t>president</t>
+        </is>
       </c>
     </row>
     <row r="25">
@@ -1324,7 +1446,7 @@
         <v>23</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>41723</v>
+        <v>42897</v>
       </c>
       <c r="C25" t="inlineStr">
         <is>
@@ -1332,29 +1454,36 @@
         </is>
       </c>
       <c r="D25" t="n">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="E25" t="n">
-        <v>49695</v>
+        <v>15915</v>
       </c>
       <c r="F25" t="n">
-        <v>2678</v>
+        <v>688</v>
       </c>
       <c r="G25" t="n">
-        <v>18585</v>
+        <v>997</v>
       </c>
       <c r="H25" t="n">
-        <v>5001</v>
-      </c>
-      <c r="I25" t="inlineStr"/>
+        <v>764</v>
+      </c>
+      <c r="I25" t="n">
+        <v>7025</v>
+      </c>
       <c r="J25" t="n">
-        <v>16569</v>
+        <v>3455</v>
       </c>
       <c r="K25" t="n">
-        <v>3362</v>
+        <v>306</v>
       </c>
       <c r="L25" t="n">
-        <v>3500</v>
+        <v>2680</v>
+      </c>
+      <c r="M25" t="inlineStr">
+        <is>
+          <t>legislative</t>
+        </is>
       </c>
     </row>
     <row r="26">
@@ -1370,31 +1499,34 @@
         </is>
       </c>
       <c r="D26" t="n">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="E26" t="n">
-        <v>58837</v>
-      </c>
-      <c r="F26" t="n">
-        <v>4608</v>
-      </c>
+        <v>17967</v>
+      </c>
+      <c r="F26" t="inlineStr"/>
       <c r="G26" t="n">
-        <v>29324</v>
+        <v>4080</v>
       </c>
       <c r="H26" t="n">
-        <v>3808</v>
+        <v>535</v>
       </c>
       <c r="I26" t="n">
-        <v>5320</v>
+        <v>2819</v>
       </c>
       <c r="J26" t="n">
-        <v>12559</v>
+        <v>8894</v>
       </c>
       <c r="K26" t="n">
-        <v>1989</v>
+        <v>537</v>
       </c>
       <c r="L26" t="n">
-        <v>1229</v>
+        <v>1102</v>
+      </c>
+      <c r="M26" t="inlineStr">
+        <is>
+          <t>municipale</t>
+        </is>
       </c>
     </row>
     <row r="27">
@@ -1410,29 +1542,34 @@
         </is>
       </c>
       <c r="D27" t="n">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="E27" t="n">
-        <v>56670</v>
+        <v>17910</v>
       </c>
       <c r="F27" t="n">
-        <v>3326</v>
+        <v>198</v>
       </c>
       <c r="G27" t="n">
-        <v>25193</v>
+        <v>3031</v>
       </c>
       <c r="H27" t="n">
-        <v>5567</v>
+        <v>546</v>
       </c>
       <c r="I27" t="inlineStr"/>
       <c r="J27" t="n">
-        <v>14157</v>
+        <v>7345</v>
       </c>
       <c r="K27" t="n">
-        <v>4229</v>
+        <v>1066</v>
       </c>
       <c r="L27" t="n">
-        <v>4198</v>
+        <v>5724</v>
+      </c>
+      <c r="M27" t="inlineStr">
+        <is>
+          <t>municipale</t>
+        </is>
       </c>
     </row>
     <row r="28">
@@ -1440,7 +1577,7 @@
         <v>26</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>39591</v>
+        <v>42848</v>
       </c>
       <c r="C28" t="inlineStr">
         <is>
@@ -1448,31 +1585,34 @@
         </is>
       </c>
       <c r="D28" t="n">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="E28" t="n">
-        <v>48193</v>
+        <v>27798</v>
       </c>
       <c r="F28" t="n">
-        <v>1806</v>
+        <v>1552</v>
       </c>
       <c r="G28" t="n">
-        <v>21699</v>
-      </c>
-      <c r="H28" t="n">
-        <v>3871</v>
-      </c>
+        <v>1068</v>
+      </c>
+      <c r="H28" t="inlineStr"/>
       <c r="I28" t="n">
-        <v>6711</v>
+        <v>8785</v>
       </c>
       <c r="J28" t="n">
-        <v>11465</v>
+        <v>14650</v>
       </c>
       <c r="K28" t="n">
-        <v>1457</v>
+        <v>1064</v>
       </c>
       <c r="L28" t="n">
-        <v>1184</v>
+        <v>679</v>
+      </c>
+      <c r="M28" t="inlineStr">
+        <is>
+          <t>president</t>
+        </is>
       </c>
     </row>
     <row r="29">
@@ -1480,7 +1620,7 @@
         <v>27</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>41723</v>
+        <v>42897</v>
       </c>
       <c r="C29" t="inlineStr">
         <is>
@@ -1488,29 +1628,36 @@
         </is>
       </c>
       <c r="D29" t="n">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="E29" t="n">
-        <v>47477</v>
+        <v>19353</v>
       </c>
       <c r="F29" t="n">
-        <v>2489</v>
+        <v>471</v>
       </c>
       <c r="G29" t="n">
-        <v>17990</v>
+        <v>547</v>
       </c>
       <c r="H29" t="n">
-        <v>4168</v>
-      </c>
-      <c r="I29" t="inlineStr"/>
+        <v>387</v>
+      </c>
+      <c r="I29" t="n">
+        <v>8441</v>
+      </c>
       <c r="J29" t="n">
-        <v>15717</v>
+        <v>5124</v>
       </c>
       <c r="K29" t="n">
-        <v>2727</v>
+        <v>491</v>
       </c>
       <c r="L29" t="n">
-        <v>4386</v>
+        <v>3892</v>
+      </c>
+      <c r="M29" t="inlineStr">
+        <is>
+          <t>legislative</t>
+        </is>
       </c>
     </row>
     <row r="30">
@@ -1526,31 +1673,34 @@
         </is>
       </c>
       <c r="D30" t="n">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="E30" t="n">
-        <v>78942</v>
-      </c>
-      <c r="F30" t="n">
-        <v>1764</v>
-      </c>
+        <v>12325</v>
+      </c>
+      <c r="F30" t="inlineStr"/>
       <c r="G30" t="n">
-        <v>28313</v>
+        <v>2302</v>
       </c>
       <c r="H30" t="n">
-        <v>3157</v>
+        <v>318</v>
       </c>
       <c r="I30" t="n">
-        <v>5885</v>
+        <v>808</v>
       </c>
       <c r="J30" t="n">
-        <v>26794</v>
+        <v>4119</v>
       </c>
       <c r="K30" t="n">
-        <v>2364</v>
+        <v>293</v>
       </c>
       <c r="L30" t="n">
-        <v>10665</v>
+        <v>4485</v>
+      </c>
+      <c r="M30" t="inlineStr">
+        <is>
+          <t>municipale</t>
+        </is>
       </c>
     </row>
     <row r="31">
@@ -1566,29 +1716,34 @@
         </is>
       </c>
       <c r="D31" t="n">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="E31" t="n">
-        <v>80191</v>
+        <v>12622</v>
       </c>
       <c r="F31" t="n">
-        <v>2150</v>
+        <v>178</v>
       </c>
       <c r="G31" t="n">
-        <v>23336</v>
+        <v>1944</v>
       </c>
       <c r="H31" t="n">
-        <v>3582</v>
+        <v>442</v>
       </c>
       <c r="I31" t="inlineStr"/>
       <c r="J31" t="n">
-        <v>38943</v>
+        <v>5884</v>
       </c>
       <c r="K31" t="n">
-        <v>5060</v>
+        <v>602</v>
       </c>
       <c r="L31" t="n">
-        <v>7120</v>
+        <v>3572</v>
+      </c>
+      <c r="M31" t="inlineStr">
+        <is>
+          <t>municipale</t>
+        </is>
       </c>
     </row>
     <row r="32">
@@ -1596,7 +1751,7 @@
         <v>30</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>39591</v>
+        <v>42848</v>
       </c>
       <c r="C32" t="inlineStr">
         <is>
@@ -1604,29 +1759,34 @@
         </is>
       </c>
       <c r="D32" t="n">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="E32" t="n">
-        <v>45968</v>
-      </c>
-      <c r="F32" t="inlineStr"/>
+        <v>20698</v>
+      </c>
+      <c r="F32" t="n">
+        <v>1392</v>
+      </c>
       <c r="G32" t="n">
-        <v>7851</v>
-      </c>
-      <c r="H32" t="n">
-        <v>1114</v>
-      </c>
+        <v>849</v>
+      </c>
+      <c r="H32" t="inlineStr"/>
       <c r="I32" t="n">
-        <v>3972</v>
+        <v>6568</v>
       </c>
       <c r="J32" t="n">
-        <v>23768</v>
+        <v>10448</v>
       </c>
       <c r="K32" t="n">
-        <v>1678</v>
+        <v>916</v>
       </c>
       <c r="L32" t="n">
-        <v>7585</v>
+        <v>525</v>
+      </c>
+      <c r="M32" t="inlineStr">
+        <is>
+          <t>president</t>
+        </is>
       </c>
     </row>
     <row r="33">
@@ -1634,7 +1794,7 @@
         <v>31</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>41723</v>
+        <v>42897</v>
       </c>
       <c r="C33" t="inlineStr">
         <is>
@@ -1642,29 +1802,36 @@
         </is>
       </c>
       <c r="D33" t="n">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="E33" t="n">
-        <v>47741</v>
+        <v>13666</v>
       </c>
       <c r="F33" t="n">
-        <v>497</v>
+        <v>389</v>
       </c>
       <c r="G33" t="n">
-        <v>6197</v>
+        <v>452</v>
       </c>
       <c r="H33" t="n">
-        <v>1103</v>
-      </c>
-      <c r="I33" t="inlineStr"/>
+        <v>355</v>
+      </c>
+      <c r="I33" t="n">
+        <v>6959</v>
+      </c>
       <c r="J33" t="n">
-        <v>30100</v>
+        <v>3219</v>
       </c>
       <c r="K33" t="n">
-        <v>2865</v>
+        <v>344</v>
       </c>
       <c r="L33" t="n">
-        <v>6979</v>
+        <v>1948</v>
+      </c>
+      <c r="M33" t="inlineStr">
+        <is>
+          <t>legislative</t>
+        </is>
       </c>
     </row>
     <row r="34">
@@ -1680,31 +1847,36 @@
         </is>
       </c>
       <c r="D34" t="n">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="E34" t="n">
-        <v>49965</v>
+        <v>20643</v>
       </c>
       <c r="F34" t="n">
-        <v>568</v>
+        <v>602</v>
       </c>
       <c r="G34" t="n">
-        <v>18089</v>
+        <v>10163</v>
       </c>
       <c r="H34" t="n">
-        <v>2279</v>
+        <v>1299</v>
       </c>
       <c r="I34" t="n">
-        <v>4935</v>
+        <v>1659</v>
       </c>
       <c r="J34" t="n">
-        <v>22002</v>
+        <v>6353</v>
       </c>
       <c r="K34" t="n">
-        <v>2092</v>
+        <v>567</v>
       </c>
       <c r="L34" t="n">
         <v>0</v>
+      </c>
+      <c r="M34" t="inlineStr">
+        <is>
+          <t>municipale</t>
+        </is>
       </c>
     </row>
     <row r="35">
@@ -1720,29 +1892,34 @@
         </is>
       </c>
       <c r="D35" t="n">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="E35" t="n">
-        <v>50128</v>
+        <v>20751</v>
       </c>
       <c r="F35" t="n">
-        <v>1544</v>
+        <v>772</v>
       </c>
       <c r="G35" t="n">
-        <v>12727</v>
+        <v>8125</v>
       </c>
       <c r="H35" t="n">
-        <v>3302</v>
+        <v>1663</v>
       </c>
       <c r="I35" t="inlineStr"/>
       <c r="J35" t="n">
-        <v>26836</v>
+        <v>8181</v>
       </c>
       <c r="K35" t="n">
-        <v>3234</v>
+        <v>1010</v>
       </c>
       <c r="L35" t="n">
-        <v>2485</v>
+        <v>1000</v>
+      </c>
+      <c r="M35" t="inlineStr">
+        <is>
+          <t>municipale</t>
+        </is>
       </c>
     </row>
     <row r="36">
@@ -1750,7 +1927,7 @@
         <v>34</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>39591</v>
+        <v>42848</v>
       </c>
       <c r="C36" t="inlineStr">
         <is>
@@ -1758,31 +1935,34 @@
         </is>
       </c>
       <c r="D36" t="n">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="E36" t="n">
-        <v>52044</v>
+        <v>32940</v>
       </c>
       <c r="F36" t="n">
-        <v>3302</v>
+        <v>4783</v>
       </c>
       <c r="G36" t="n">
-        <v>25791</v>
-      </c>
-      <c r="H36" t="n">
-        <v>5392</v>
-      </c>
+        <v>3163</v>
+      </c>
+      <c r="H36" t="inlineStr"/>
       <c r="I36" t="n">
-        <v>3482</v>
+        <v>14029</v>
       </c>
       <c r="J36" t="n">
-        <v>10018</v>
+        <v>8879</v>
       </c>
       <c r="K36" t="n">
-        <v>1823</v>
+        <v>1092</v>
       </c>
       <c r="L36" t="n">
-        <v>2236</v>
+        <v>994</v>
+      </c>
+      <c r="M36" t="inlineStr">
+        <is>
+          <t>president</t>
+        </is>
       </c>
     </row>
     <row r="37">
@@ -1790,7 +1970,7 @@
         <v>35</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>41723</v>
+        <v>42897</v>
       </c>
       <c r="C37" t="inlineStr">
         <is>
@@ -1798,29 +1978,36 @@
         </is>
       </c>
       <c r="D37" t="n">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="E37" t="n">
-        <v>51029</v>
+        <v>23305</v>
       </c>
       <c r="F37" t="n">
-        <v>3668</v>
+        <v>1834</v>
       </c>
       <c r="G37" t="n">
-        <v>20338</v>
+        <v>3050</v>
       </c>
       <c r="H37" t="n">
-        <v>6457</v>
-      </c>
-      <c r="I37" t="inlineStr"/>
+        <v>1530</v>
+      </c>
+      <c r="I37" t="n">
+        <v>10116</v>
+      </c>
       <c r="J37" t="n">
-        <v>12879</v>
+        <v>4134</v>
       </c>
       <c r="K37" t="n">
-        <v>3460</v>
+        <v>494</v>
       </c>
       <c r="L37" t="n">
-        <v>4227</v>
+        <v>2147</v>
+      </c>
+      <c r="M37" t="inlineStr">
+        <is>
+          <t>legislative</t>
+        </is>
       </c>
     </row>
     <row r="38">
@@ -1836,31 +2023,36 @@
         </is>
       </c>
       <c r="D38" t="n">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="E38" t="n">
-        <v>47460</v>
+        <v>28359</v>
       </c>
       <c r="F38" t="n">
-        <v>2710</v>
+        <v>2158</v>
       </c>
       <c r="G38" t="n">
-        <v>24744</v>
+        <v>13766</v>
       </c>
       <c r="H38" t="n">
-        <v>3963</v>
+        <v>2564</v>
       </c>
       <c r="I38" t="n">
-        <v>3238</v>
+        <v>2348</v>
       </c>
       <c r="J38" t="n">
-        <v>10130</v>
+        <v>4513</v>
       </c>
       <c r="K38" t="n">
-        <v>1725</v>
+        <v>837</v>
       </c>
       <c r="L38" t="n">
-        <v>950</v>
+        <v>2173</v>
+      </c>
+      <c r="M38" t="inlineStr">
+        <is>
+          <t>municipale</t>
+        </is>
       </c>
     </row>
     <row r="39">
@@ -1876,29 +2068,34 @@
         </is>
       </c>
       <c r="D39" t="n">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="E39" t="n">
-        <v>46307</v>
+        <v>26993</v>
       </c>
       <c r="F39" t="n">
-        <v>3295</v>
+        <v>1730</v>
       </c>
       <c r="G39" t="n">
-        <v>19533</v>
+        <v>11973</v>
       </c>
       <c r="H39" t="n">
-        <v>5956</v>
+        <v>3102</v>
       </c>
       <c r="I39" t="inlineStr"/>
       <c r="J39" t="n">
-        <v>11932</v>
+        <v>5798</v>
       </c>
       <c r="K39" t="n">
-        <v>3678</v>
+        <v>1460</v>
       </c>
       <c r="L39" t="n">
-        <v>1913</v>
+        <v>2930</v>
+      </c>
+      <c r="M39" t="inlineStr">
+        <is>
+          <t>municipale</t>
+        </is>
       </c>
     </row>
     <row r="40">
@@ -1906,7 +2103,7 @@
         <v>38</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>39591</v>
+        <v>42848</v>
       </c>
       <c r="C40" t="inlineStr">
         <is>
@@ -1914,31 +2111,34 @@
         </is>
       </c>
       <c r="D40" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="E40" t="n">
-        <v>56285</v>
+        <v>44766</v>
       </c>
       <c r="F40" t="n">
-        <v>4776</v>
+        <v>11396</v>
       </c>
       <c r="G40" t="n">
-        <v>21568</v>
-      </c>
-      <c r="H40" t="n">
-        <v>5329</v>
-      </c>
+        <v>6343</v>
+      </c>
+      <c r="H40" t="inlineStr"/>
       <c r="I40" t="n">
-        <v>4114</v>
+        <v>16880</v>
       </c>
       <c r="J40" t="n">
-        <v>4076</v>
+        <v>6724</v>
       </c>
       <c r="K40" t="n">
-        <v>2033</v>
+        <v>1817</v>
       </c>
       <c r="L40" t="n">
-        <v>14389</v>
+        <v>1606</v>
+      </c>
+      <c r="M40" t="inlineStr">
+        <is>
+          <t>president</t>
+        </is>
       </c>
     </row>
     <row r="41">
@@ -1946,37 +2146,1802 @@
         <v>39</v>
       </c>
       <c r="B41" s="2" t="n">
+        <v>42897</v>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>Paris</t>
+        </is>
+      </c>
+      <c r="D41" t="n">
+        <v>10</v>
+      </c>
+      <c r="E41" t="n">
+        <v>31101</v>
+      </c>
+      <c r="F41" t="n">
+        <v>4202</v>
+      </c>
+      <c r="G41" t="n">
+        <v>3866</v>
+      </c>
+      <c r="H41" t="n">
+        <v>4551</v>
+      </c>
+      <c r="I41" t="n">
+        <v>12734</v>
+      </c>
+      <c r="J41" t="n">
+        <v>2280</v>
+      </c>
+      <c r="K41" t="n">
+        <v>900</v>
+      </c>
+      <c r="L41" t="n">
+        <v>2568</v>
+      </c>
+      <c r="M41" t="inlineStr">
+        <is>
+          <t>legislative</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="1" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" s="2" t="n">
+        <v>39591</v>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>Paris</t>
+        </is>
+      </c>
+      <c r="D42" t="n">
+        <v>11</v>
+      </c>
+      <c r="E42" t="n">
+        <v>47031</v>
+      </c>
+      <c r="F42" t="n">
+        <v>2672</v>
+      </c>
+      <c r="G42" t="n">
+        <v>25894</v>
+      </c>
+      <c r="H42" t="n">
+        <v>3726</v>
+      </c>
+      <c r="I42" t="n">
+        <v>4067</v>
+      </c>
+      <c r="J42" t="n">
+        <v>9315</v>
+      </c>
+      <c r="K42" t="n">
+        <v>1357</v>
+      </c>
+      <c r="L42" t="n">
+        <v>0</v>
+      </c>
+      <c r="M42" t="inlineStr">
+        <is>
+          <t>municipale</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="1" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" s="2" t="n">
         <v>41723</v>
       </c>
-      <c r="C41" t="inlineStr">
-        <is>
-          <t>Paris</t>
-        </is>
-      </c>
-      <c r="D41" t="n">
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>Paris</t>
+        </is>
+      </c>
+      <c r="D43" t="n">
+        <v>11</v>
+      </c>
+      <c r="E43" t="n">
+        <v>45861</v>
+      </c>
+      <c r="F43" t="n">
+        <v>2879</v>
+      </c>
+      <c r="G43" t="n">
+        <v>20524</v>
+      </c>
+      <c r="H43" t="n">
+        <v>5301</v>
+      </c>
+      <c r="I43" t="inlineStr"/>
+      <c r="J43" t="n">
+        <v>12304</v>
+      </c>
+      <c r="K43" t="n">
+        <v>2512</v>
+      </c>
+      <c r="L43" t="n">
+        <v>2341</v>
+      </c>
+      <c r="M43" t="inlineStr">
+        <is>
+          <t>municipale</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="1" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" s="2" t="n">
+        <v>42848</v>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>Paris</t>
+        </is>
+      </c>
+      <c r="D44" t="n">
+        <v>11</v>
+      </c>
+      <c r="E44" t="n">
+        <v>75237</v>
+      </c>
+      <c r="F44" t="n">
+        <v>17877</v>
+      </c>
+      <c r="G44" t="n">
+        <v>10247</v>
+      </c>
+      <c r="H44" t="inlineStr"/>
+      <c r="I44" t="n">
+        <v>29191</v>
+      </c>
+      <c r="J44" t="n">
+        <v>12136</v>
+      </c>
+      <c r="K44" t="n">
+        <v>3035</v>
+      </c>
+      <c r="L44" t="n">
+        <v>2751</v>
+      </c>
+      <c r="M44" t="inlineStr">
+        <is>
+          <t>president</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="1" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" s="2" t="n">
+        <v>42897</v>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>Paris</t>
+        </is>
+      </c>
+      <c r="D45" t="n">
+        <v>11</v>
+      </c>
+      <c r="E45" t="n">
+        <v>52299</v>
+      </c>
+      <c r="F45" t="n">
+        <v>7546</v>
+      </c>
+      <c r="G45" t="n">
+        <v>4521</v>
+      </c>
+      <c r="H45" t="n">
+        <v>6084</v>
+      </c>
+      <c r="I45" t="n">
+        <v>22419</v>
+      </c>
+      <c r="J45" t="n">
+        <v>3530</v>
+      </c>
+      <c r="K45" t="n">
+        <v>1335</v>
+      </c>
+      <c r="L45" t="n">
+        <v>6864</v>
+      </c>
+      <c r="M45" t="inlineStr">
+        <is>
+          <t>legislative</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="1" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" s="2" t="n">
+        <v>39591</v>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>Paris</t>
+        </is>
+      </c>
+      <c r="D46" t="n">
+        <v>12</v>
+      </c>
+      <c r="E46" t="n">
+        <v>53146</v>
+      </c>
+      <c r="F46" t="n">
+        <v>2324</v>
+      </c>
+      <c r="G46" t="n">
+        <v>24486</v>
+      </c>
+      <c r="H46" t="n">
+        <v>3125</v>
+      </c>
+      <c r="I46" t="n">
+        <v>5287</v>
+      </c>
+      <c r="J46" t="n">
+        <v>12922</v>
+      </c>
+      <c r="K46" t="n">
+        <v>1550</v>
+      </c>
+      <c r="L46" t="n">
+        <v>3452</v>
+      </c>
+      <c r="M46" t="inlineStr">
+        <is>
+          <t>municipale</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="1" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" s="2" t="n">
+        <v>41723</v>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>Paris</t>
+        </is>
+      </c>
+      <c r="D47" t="n">
+        <v>12</v>
+      </c>
+      <c r="E47" t="n">
+        <v>49695</v>
+      </c>
+      <c r="F47" t="n">
+        <v>2678</v>
+      </c>
+      <c r="G47" t="n">
+        <v>18585</v>
+      </c>
+      <c r="H47" t="n">
+        <v>5001</v>
+      </c>
+      <c r="I47" t="inlineStr"/>
+      <c r="J47" t="n">
+        <v>16569</v>
+      </c>
+      <c r="K47" t="n">
+        <v>3362</v>
+      </c>
+      <c r="L47" t="n">
+        <v>3500</v>
+      </c>
+      <c r="M47" t="inlineStr">
+        <is>
+          <t>municipale</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="1" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" s="2" t="n">
+        <v>42848</v>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>Paris</t>
+        </is>
+      </c>
+      <c r="D48" t="n">
+        <v>12</v>
+      </c>
+      <c r="E48" t="n">
+        <v>75050</v>
+      </c>
+      <c r="F48" t="n">
+        <v>15613</v>
+      </c>
+      <c r="G48" t="n">
+        <v>8614</v>
+      </c>
+      <c r="H48" t="inlineStr"/>
+      <c r="I48" t="n">
+        <v>26942</v>
+      </c>
+      <c r="J48" t="n">
+        <v>15918</v>
+      </c>
+      <c r="K48" t="n">
+        <v>4385</v>
+      </c>
+      <c r="L48" t="n">
+        <v>3578</v>
+      </c>
+      <c r="M48" t="inlineStr">
+        <is>
+          <t>president</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="1" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" s="2" t="n">
+        <v>42897</v>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>Paris</t>
+        </is>
+      </c>
+      <c r="D49" t="n">
+        <v>12</v>
+      </c>
+      <c r="E49" t="n">
+        <v>52590</v>
+      </c>
+      <c r="F49" t="n">
+        <v>6755</v>
+      </c>
+      <c r="G49" t="n">
+        <v>7945</v>
+      </c>
+      <c r="H49" t="n">
+        <v>3502</v>
+      </c>
+      <c r="I49" t="n">
+        <v>21162</v>
+      </c>
+      <c r="J49" t="n">
+        <v>7782</v>
+      </c>
+      <c r="K49" t="n">
+        <v>1767</v>
+      </c>
+      <c r="L49" t="n">
+        <v>3677</v>
+      </c>
+      <c r="M49" t="inlineStr">
+        <is>
+          <t>legislative</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="1" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" s="2" t="n">
+        <v>39591</v>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>Paris</t>
+        </is>
+      </c>
+      <c r="D50" t="n">
+        <v>13</v>
+      </c>
+      <c r="E50" t="n">
+        <v>58837</v>
+      </c>
+      <c r="F50" t="n">
+        <v>4608</v>
+      </c>
+      <c r="G50" t="n">
+        <v>29324</v>
+      </c>
+      <c r="H50" t="n">
+        <v>3808</v>
+      </c>
+      <c r="I50" t="n">
+        <v>5320</v>
+      </c>
+      <c r="J50" t="n">
+        <v>12559</v>
+      </c>
+      <c r="K50" t="n">
+        <v>1989</v>
+      </c>
+      <c r="L50" t="n">
+        <v>1229</v>
+      </c>
+      <c r="M50" t="inlineStr">
+        <is>
+          <t>municipale</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="1" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" s="2" t="n">
+        <v>41723</v>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>Paris</t>
+        </is>
+      </c>
+      <c r="D51" t="n">
+        <v>13</v>
+      </c>
+      <c r="E51" t="n">
+        <v>56670</v>
+      </c>
+      <c r="F51" t="n">
+        <v>3326</v>
+      </c>
+      <c r="G51" t="n">
+        <v>25193</v>
+      </c>
+      <c r="H51" t="n">
+        <v>5567</v>
+      </c>
+      <c r="I51" t="inlineStr"/>
+      <c r="J51" t="n">
+        <v>14157</v>
+      </c>
+      <c r="K51" t="n">
+        <v>4229</v>
+      </c>
+      <c r="L51" t="n">
+        <v>4198</v>
+      </c>
+      <c r="M51" t="inlineStr">
+        <is>
+          <t>municipale</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="1" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" s="2" t="n">
+        <v>42848</v>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>Paris</t>
+        </is>
+      </c>
+      <c r="D52" t="n">
+        <v>13</v>
+      </c>
+      <c r="E52" t="n">
+        <v>88639</v>
+      </c>
+      <c r="F52" t="n">
+        <v>21681</v>
+      </c>
+      <c r="G52" t="n">
+        <v>10511</v>
+      </c>
+      <c r="H52" t="inlineStr"/>
+      <c r="I52" t="n">
+        <v>30719</v>
+      </c>
+      <c r="J52" t="n">
+        <v>15329</v>
+      </c>
+      <c r="K52" t="n">
+        <v>5745</v>
+      </c>
+      <c r="L52" t="n">
+        <v>4654</v>
+      </c>
+      <c r="M52" t="inlineStr">
+        <is>
+          <t>president</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="1" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" s="2" t="n">
+        <v>42897</v>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>Paris</t>
+        </is>
+      </c>
+      <c r="D53" t="n">
+        <v>13</v>
+      </c>
+      <c r="E53" t="n">
+        <v>59432</v>
+      </c>
+      <c r="F53" t="n">
+        <v>9039</v>
+      </c>
+      <c r="G53" t="n">
+        <v>6487</v>
+      </c>
+      <c r="H53" t="n">
+        <v>5496</v>
+      </c>
+      <c r="I53" t="n">
+        <v>23025</v>
+      </c>
+      <c r="J53" t="n">
+        <v>5933</v>
+      </c>
+      <c r="K53" t="n">
+        <v>2609</v>
+      </c>
+      <c r="L53" t="n">
+        <v>6843</v>
+      </c>
+      <c r="M53" t="inlineStr">
+        <is>
+          <t>legislative</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="1" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" s="2" t="n">
+        <v>39591</v>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>Paris</t>
+        </is>
+      </c>
+      <c r="D54" t="n">
+        <v>14</v>
+      </c>
+      <c r="E54" t="n">
+        <v>48193</v>
+      </c>
+      <c r="F54" t="n">
+        <v>1806</v>
+      </c>
+      <c r="G54" t="n">
+        <v>21699</v>
+      </c>
+      <c r="H54" t="n">
+        <v>3871</v>
+      </c>
+      <c r="I54" t="n">
+        <v>6711</v>
+      </c>
+      <c r="J54" t="n">
+        <v>11465</v>
+      </c>
+      <c r="K54" t="n">
+        <v>1457</v>
+      </c>
+      <c r="L54" t="n">
+        <v>1184</v>
+      </c>
+      <c r="M54" t="inlineStr">
+        <is>
+          <t>municipale</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="1" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" s="2" t="n">
+        <v>41723</v>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>Paris</t>
+        </is>
+      </c>
+      <c r="D55" t="n">
+        <v>14</v>
+      </c>
+      <c r="E55" t="n">
+        <v>47477</v>
+      </c>
+      <c r="F55" t="n">
+        <v>2489</v>
+      </c>
+      <c r="G55" t="n">
+        <v>17990</v>
+      </c>
+      <c r="H55" t="n">
+        <v>4168</v>
+      </c>
+      <c r="I55" t="inlineStr"/>
+      <c r="J55" t="n">
+        <v>15717</v>
+      </c>
+      <c r="K55" t="n">
+        <v>2727</v>
+      </c>
+      <c r="L55" t="n">
+        <v>4386</v>
+      </c>
+      <c r="M55" t="inlineStr">
+        <is>
+          <t>municipale</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="1" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" s="2" t="n">
+        <v>42848</v>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>Paris</t>
+        </is>
+      </c>
+      <c r="D56" t="n">
+        <v>14</v>
+      </c>
+      <c r="E56" t="n">
+        <v>69461</v>
+      </c>
+      <c r="F56" t="n">
+        <v>13382</v>
+      </c>
+      <c r="G56" t="n">
+        <v>8003</v>
+      </c>
+      <c r="H56" t="inlineStr"/>
+      <c r="I56" t="n">
+        <v>25834</v>
+      </c>
+      <c r="J56" t="n">
+        <v>15475</v>
+      </c>
+      <c r="K56" t="n">
+        <v>3711</v>
+      </c>
+      <c r="L56" t="n">
+        <v>3056</v>
+      </c>
+      <c r="M56" t="inlineStr">
+        <is>
+          <t>president</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="1" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" s="2" t="n">
+        <v>42897</v>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>Paris</t>
+        </is>
+      </c>
+      <c r="D57" t="n">
+        <v>14</v>
+      </c>
+      <c r="E57" t="n">
+        <v>49176</v>
+      </c>
+      <c r="F57" t="n">
+        <v>5045</v>
+      </c>
+      <c r="G57" t="n">
+        <v>7195</v>
+      </c>
+      <c r="H57" t="n">
+        <v>3734</v>
+      </c>
+      <c r="I57" t="n">
+        <v>19877</v>
+      </c>
+      <c r="J57" t="n">
+        <v>7193</v>
+      </c>
+      <c r="K57" t="n">
+        <v>1614</v>
+      </c>
+      <c r="L57" t="n">
+        <v>4518</v>
+      </c>
+      <c r="M57" t="inlineStr">
+        <is>
+          <t>legislative</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="1" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" s="2" t="n">
+        <v>39591</v>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>Paris</t>
+        </is>
+      </c>
+      <c r="D58" t="n">
+        <v>15</v>
+      </c>
+      <c r="E58" t="n">
+        <v>78942</v>
+      </c>
+      <c r="F58" t="n">
+        <v>1764</v>
+      </c>
+      <c r="G58" t="n">
+        <v>28313</v>
+      </c>
+      <c r="H58" t="n">
+        <v>3157</v>
+      </c>
+      <c r="I58" t="n">
+        <v>5885</v>
+      </c>
+      <c r="J58" t="n">
+        <v>26794</v>
+      </c>
+      <c r="K58" t="n">
+        <v>2364</v>
+      </c>
+      <c r="L58" t="n">
+        <v>10665</v>
+      </c>
+      <c r="M58" t="inlineStr">
+        <is>
+          <t>municipale</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="1" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" s="2" t="n">
+        <v>41723</v>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>Paris</t>
+        </is>
+      </c>
+      <c r="D59" t="n">
+        <v>15</v>
+      </c>
+      <c r="E59" t="n">
+        <v>80191</v>
+      </c>
+      <c r="F59" t="n">
+        <v>2150</v>
+      </c>
+      <c r="G59" t="n">
+        <v>23336</v>
+      </c>
+      <c r="H59" t="n">
+        <v>3582</v>
+      </c>
+      <c r="I59" t="inlineStr"/>
+      <c r="J59" t="n">
+        <v>38943</v>
+      </c>
+      <c r="K59" t="n">
+        <v>5060</v>
+      </c>
+      <c r="L59" t="n">
+        <v>7120</v>
+      </c>
+      <c r="M59" t="inlineStr">
+        <is>
+          <t>municipale</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="1" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" s="2" t="n">
+        <v>42848</v>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>Paris</t>
+        </is>
+      </c>
+      <c r="D60" t="n">
+        <v>15</v>
+      </c>
+      <c r="E60" t="n">
+        <v>118947</v>
+      </c>
+      <c r="F60" t="n">
+        <v>15608</v>
+      </c>
+      <c r="G60" t="n">
+        <v>9085</v>
+      </c>
+      <c r="H60" t="inlineStr"/>
+      <c r="I60" t="n">
+        <v>42790</v>
+      </c>
+      <c r="J60" t="n">
+        <v>40235</v>
+      </c>
+      <c r="K60" t="n">
+        <v>6257</v>
+      </c>
+      <c r="L60" t="n">
+        <v>4972</v>
+      </c>
+      <c r="M60" t="inlineStr">
+        <is>
+          <t>president</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="1" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" s="2" t="n">
+        <v>42897</v>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>Paris</t>
+        </is>
+      </c>
+      <c r="D61" t="n">
+        <v>15</v>
+      </c>
+      <c r="E61" t="n">
+        <v>85143</v>
+      </c>
+      <c r="F61" t="n">
+        <v>5707</v>
+      </c>
+      <c r="G61" t="n">
+        <v>5669</v>
+      </c>
+      <c r="H61" t="n">
+        <v>3226</v>
+      </c>
+      <c r="I61" t="n">
+        <v>38346</v>
+      </c>
+      <c r="J61" t="n">
+        <v>24396</v>
+      </c>
+      <c r="K61" t="n">
+        <v>2678</v>
+      </c>
+      <c r="L61" t="n">
+        <v>5121</v>
+      </c>
+      <c r="M61" t="inlineStr">
+        <is>
+          <t>legislative</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="1" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" s="2" t="n">
+        <v>39591</v>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>Paris</t>
+        </is>
+      </c>
+      <c r="D62" t="n">
+        <v>16</v>
+      </c>
+      <c r="E62" t="n">
+        <v>45968</v>
+      </c>
+      <c r="F62" t="inlineStr"/>
+      <c r="G62" t="n">
+        <v>7851</v>
+      </c>
+      <c r="H62" t="n">
+        <v>1114</v>
+      </c>
+      <c r="I62" t="n">
+        <v>3972</v>
+      </c>
+      <c r="J62" t="n">
+        <v>23768</v>
+      </c>
+      <c r="K62" t="n">
+        <v>1678</v>
+      </c>
+      <c r="L62" t="n">
+        <v>7585</v>
+      </c>
+      <c r="M62" t="inlineStr">
+        <is>
+          <t>municipale</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="1" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" s="2" t="n">
+        <v>41723</v>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>Paris</t>
+        </is>
+      </c>
+      <c r="D63" t="n">
+        <v>16</v>
+      </c>
+      <c r="E63" t="n">
+        <v>47741</v>
+      </c>
+      <c r="F63" t="n">
+        <v>497</v>
+      </c>
+      <c r="G63" t="n">
+        <v>6197</v>
+      </c>
+      <c r="H63" t="n">
+        <v>1103</v>
+      </c>
+      <c r="I63" t="inlineStr"/>
+      <c r="J63" t="n">
+        <v>30100</v>
+      </c>
+      <c r="K63" t="n">
+        <v>2865</v>
+      </c>
+      <c r="L63" t="n">
+        <v>6979</v>
+      </c>
+      <c r="M63" t="inlineStr">
+        <is>
+          <t>municipale</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="1" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" s="2" t="n">
+        <v>42848</v>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>Paris</t>
+        </is>
+      </c>
+      <c r="D64" t="n">
+        <v>16</v>
+      </c>
+      <c r="E64" t="n">
+        <v>79954</v>
+      </c>
+      <c r="F64" t="n">
+        <v>4315</v>
+      </c>
+      <c r="G64" t="n">
+        <v>2353</v>
+      </c>
+      <c r="H64" t="inlineStr"/>
+      <c r="I64" t="n">
+        <v>21304</v>
+      </c>
+      <c r="J64" t="n">
+        <v>46734</v>
+      </c>
+      <c r="K64" t="n">
+        <v>3273</v>
+      </c>
+      <c r="L64" t="n">
+        <v>1975</v>
+      </c>
+      <c r="M64" t="inlineStr">
+        <is>
+          <t>president</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="1" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" s="2" t="n">
+        <v>42897</v>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>Paris</t>
+        </is>
+      </c>
+      <c r="D65" t="n">
+        <v>16</v>
+      </c>
+      <c r="E65" t="n">
+        <v>51079</v>
+      </c>
+      <c r="F65" t="n">
+        <v>1161</v>
+      </c>
+      <c r="G65" t="n">
+        <v>1157</v>
+      </c>
+      <c r="H65" t="n">
+        <v>803</v>
+      </c>
+      <c r="I65" t="n">
+        <v>22759</v>
+      </c>
+      <c r="J65" t="n">
+        <v>19453</v>
+      </c>
+      <c r="K65" t="n">
+        <v>1675</v>
+      </c>
+      <c r="L65" t="n">
+        <v>4071</v>
+      </c>
+      <c r="M65" t="inlineStr">
+        <is>
+          <t>legislative</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="1" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" s="2" t="n">
+        <v>39591</v>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>Paris</t>
+        </is>
+      </c>
+      <c r="D66" t="n">
+        <v>17</v>
+      </c>
+      <c r="E66" t="n">
+        <v>49965</v>
+      </c>
+      <c r="F66" t="n">
+        <v>568</v>
+      </c>
+      <c r="G66" t="n">
+        <v>18089</v>
+      </c>
+      <c r="H66" t="n">
+        <v>2279</v>
+      </c>
+      <c r="I66" t="n">
+        <v>4935</v>
+      </c>
+      <c r="J66" t="n">
+        <v>22002</v>
+      </c>
+      <c r="K66" t="n">
+        <v>2092</v>
+      </c>
+      <c r="L66" t="n">
+        <v>0</v>
+      </c>
+      <c r="M66" t="inlineStr">
+        <is>
+          <t>municipale</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="1" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" s="2" t="n">
+        <v>41723</v>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>Paris</t>
+        </is>
+      </c>
+      <c r="D67" t="n">
+        <v>17</v>
+      </c>
+      <c r="E67" t="n">
+        <v>50128</v>
+      </c>
+      <c r="F67" t="n">
+        <v>1544</v>
+      </c>
+      <c r="G67" t="n">
+        <v>12727</v>
+      </c>
+      <c r="H67" t="n">
+        <v>3302</v>
+      </c>
+      <c r="I67" t="inlineStr"/>
+      <c r="J67" t="n">
+        <v>26836</v>
+      </c>
+      <c r="K67" t="n">
+        <v>3234</v>
+      </c>
+      <c r="L67" t="n">
+        <v>2485</v>
+      </c>
+      <c r="M67" t="inlineStr">
+        <is>
+          <t>municipale</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="1" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" s="2" t="n">
+        <v>42848</v>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>Paris</t>
+        </is>
+      </c>
+      <c r="D68" t="n">
+        <v>17</v>
+      </c>
+      <c r="E68" t="n">
+        <v>82482</v>
+      </c>
+      <c r="F68" t="n">
+        <v>10677</v>
+      </c>
+      <c r="G68" t="n">
+        <v>5669</v>
+      </c>
+      <c r="H68" t="inlineStr"/>
+      <c r="I68" t="n">
+        <v>28423</v>
+      </c>
+      <c r="J68" t="n">
+        <v>31103</v>
+      </c>
+      <c r="K68" t="n">
+        <v>3786</v>
+      </c>
+      <c r="L68" t="n">
+        <v>2824</v>
+      </c>
+      <c r="M68" t="inlineStr">
+        <is>
+          <t>president</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="1" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" s="2" t="n">
+        <v>42897</v>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>Paris</t>
+        </is>
+      </c>
+      <c r="D69" t="n">
+        <v>17</v>
+      </c>
+      <c r="E69" t="n">
+        <v>56199</v>
+      </c>
+      <c r="F69" t="n">
+        <v>4142</v>
+      </c>
+      <c r="G69" t="n">
+        <v>4227</v>
+      </c>
+      <c r="H69" t="n">
+        <v>2040</v>
+      </c>
+      <c r="I69" t="n">
+        <v>26291</v>
+      </c>
+      <c r="J69" t="n">
+        <v>14701</v>
+      </c>
+      <c r="K69" t="n">
+        <v>1655</v>
+      </c>
+      <c r="L69" t="n">
+        <v>3143</v>
+      </c>
+      <c r="M69" t="inlineStr">
+        <is>
+          <t>legislative</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="1" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" s="2" t="n">
+        <v>39591</v>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>Paris</t>
+        </is>
+      </c>
+      <c r="D70" t="n">
+        <v>18</v>
+      </c>
+      <c r="E70" t="n">
+        <v>52044</v>
+      </c>
+      <c r="F70" t="n">
+        <v>3302</v>
+      </c>
+      <c r="G70" t="n">
+        <v>25791</v>
+      </c>
+      <c r="H70" t="n">
+        <v>5392</v>
+      </c>
+      <c r="I70" t="n">
+        <v>3482</v>
+      </c>
+      <c r="J70" t="n">
+        <v>10018</v>
+      </c>
+      <c r="K70" t="n">
+        <v>1823</v>
+      </c>
+      <c r="L70" t="n">
+        <v>2236</v>
+      </c>
+      <c r="M70" t="inlineStr">
+        <is>
+          <t>municipale</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="1" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" s="2" t="n">
+        <v>41723</v>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>Paris</t>
+        </is>
+      </c>
+      <c r="D71" t="n">
+        <v>18</v>
+      </c>
+      <c r="E71" t="n">
+        <v>51029</v>
+      </c>
+      <c r="F71" t="n">
+        <v>3668</v>
+      </c>
+      <c r="G71" t="n">
+        <v>20338</v>
+      </c>
+      <c r="H71" t="n">
+        <v>6457</v>
+      </c>
+      <c r="I71" t="inlineStr"/>
+      <c r="J71" t="n">
+        <v>12879</v>
+      </c>
+      <c r="K71" t="n">
+        <v>3460</v>
+      </c>
+      <c r="L71" t="n">
+        <v>4227</v>
+      </c>
+      <c r="M71" t="inlineStr">
+        <is>
+          <t>municipale</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="1" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" s="2" t="n">
+        <v>42848</v>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>Paris</t>
+        </is>
+      </c>
+      <c r="D72" t="n">
+        <v>18</v>
+      </c>
+      <c r="E72" t="n">
+        <v>84099</v>
+      </c>
+      <c r="F72" t="n">
+        <v>23867</v>
+      </c>
+      <c r="G72" t="n">
+        <v>11211</v>
+      </c>
+      <c r="H72" t="inlineStr"/>
+      <c r="I72" t="n">
+        <v>28437</v>
+      </c>
+      <c r="J72" t="n">
+        <v>12222</v>
+      </c>
+      <c r="K72" t="n">
+        <v>4595</v>
+      </c>
+      <c r="L72" t="n">
+        <v>3767</v>
+      </c>
+      <c r="M72" t="inlineStr">
+        <is>
+          <t>president</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="1" t="n">
+        <v>71</v>
+      </c>
+      <c r="B73" s="2" t="n">
+        <v>42897</v>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>Paris</t>
+        </is>
+      </c>
+      <c r="D73" t="n">
+        <v>18</v>
+      </c>
+      <c r="E73" t="n">
+        <v>54371</v>
+      </c>
+      <c r="F73" t="n">
+        <v>9339</v>
+      </c>
+      <c r="G73" t="n">
+        <v>8969</v>
+      </c>
+      <c r="H73" t="n">
+        <v>6474</v>
+      </c>
+      <c r="I73" t="n">
+        <v>6828</v>
+      </c>
+      <c r="J73" t="n">
+        <v>12097</v>
+      </c>
+      <c r="K73" t="n">
+        <v>2039</v>
+      </c>
+      <c r="L73" t="n">
+        <v>8625</v>
+      </c>
+      <c r="M73" t="inlineStr">
+        <is>
+          <t>legislative</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="1" t="n">
+        <v>72</v>
+      </c>
+      <c r="B74" s="2" t="n">
+        <v>39591</v>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>Paris</t>
+        </is>
+      </c>
+      <c r="D74" t="n">
+        <v>19</v>
+      </c>
+      <c r="E74" t="n">
+        <v>47460</v>
+      </c>
+      <c r="F74" t="n">
+        <v>2710</v>
+      </c>
+      <c r="G74" t="n">
+        <v>24744</v>
+      </c>
+      <c r="H74" t="n">
+        <v>3963</v>
+      </c>
+      <c r="I74" t="n">
+        <v>3238</v>
+      </c>
+      <c r="J74" t="n">
+        <v>10130</v>
+      </c>
+      <c r="K74" t="n">
+        <v>1725</v>
+      </c>
+      <c r="L74" t="n">
+        <v>950</v>
+      </c>
+      <c r="M74" t="inlineStr">
+        <is>
+          <t>municipale</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="1" t="n">
+        <v>73</v>
+      </c>
+      <c r="B75" s="2" t="n">
+        <v>41723</v>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>Paris</t>
+        </is>
+      </c>
+      <c r="D75" t="n">
+        <v>19</v>
+      </c>
+      <c r="E75" t="n">
+        <v>46307</v>
+      </c>
+      <c r="F75" t="n">
+        <v>3295</v>
+      </c>
+      <c r="G75" t="n">
+        <v>19533</v>
+      </c>
+      <c r="H75" t="n">
+        <v>5956</v>
+      </c>
+      <c r="I75" t="inlineStr"/>
+      <c r="J75" t="n">
+        <v>11932</v>
+      </c>
+      <c r="K75" t="n">
+        <v>3678</v>
+      </c>
+      <c r="L75" t="n">
+        <v>1913</v>
+      </c>
+      <c r="M75" t="inlineStr">
+        <is>
+          <t>municipale</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="1" t="n">
+        <v>74</v>
+      </c>
+      <c r="B76" s="2" t="n">
+        <v>42848</v>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>Paris</t>
+        </is>
+      </c>
+      <c r="D76" t="n">
+        <v>19</v>
+      </c>
+      <c r="E76" t="n">
+        <v>79665</v>
+      </c>
+      <c r="F76" t="n">
+        <v>24455</v>
+      </c>
+      <c r="G76" t="n">
+        <v>10352</v>
+      </c>
+      <c r="H76" t="inlineStr"/>
+      <c r="I76" t="n">
+        <v>23578</v>
+      </c>
+      <c r="J76" t="n">
+        <v>12977</v>
+      </c>
+      <c r="K76" t="n">
+        <v>4602</v>
+      </c>
+      <c r="L76" t="n">
+        <v>3701</v>
+      </c>
+      <c r="M76" t="inlineStr">
+        <is>
+          <t>president</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="1" t="n">
+        <v>75</v>
+      </c>
+      <c r="B77" s="2" t="n">
+        <v>42897</v>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>Paris</t>
+        </is>
+      </c>
+      <c r="D77" t="n">
+        <v>19</v>
+      </c>
+      <c r="E77" t="n">
+        <v>50024</v>
+      </c>
+      <c r="F77" t="n">
+        <v>9798</v>
+      </c>
+      <c r="G77" t="n">
+        <v>4488</v>
+      </c>
+      <c r="H77" t="n">
+        <v>5463</v>
+      </c>
+      <c r="I77" t="n">
+        <v>18429</v>
+      </c>
+      <c r="J77" t="n">
+        <v>3790</v>
+      </c>
+      <c r="K77" t="n">
+        <v>2129</v>
+      </c>
+      <c r="L77" t="n">
+        <v>5927</v>
+      </c>
+      <c r="M77" t="inlineStr">
+        <is>
+          <t>legislative</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="1" t="n">
+        <v>76</v>
+      </c>
+      <c r="B78" s="2" t="n">
+        <v>39591</v>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>Paris</t>
+        </is>
+      </c>
+      <c r="D78" t="n">
         <v>20</v>
       </c>
-      <c r="E41" t="n">
+      <c r="E78" t="n">
+        <v>56285</v>
+      </c>
+      <c r="F78" t="n">
+        <v>4776</v>
+      </c>
+      <c r="G78" t="n">
+        <v>21568</v>
+      </c>
+      <c r="H78" t="n">
+        <v>5329</v>
+      </c>
+      <c r="I78" t="n">
+        <v>4114</v>
+      </c>
+      <c r="J78" t="n">
+        <v>4076</v>
+      </c>
+      <c r="K78" t="n">
+        <v>2033</v>
+      </c>
+      <c r="L78" t="n">
+        <v>14389</v>
+      </c>
+      <c r="M78" t="inlineStr">
+        <is>
+          <t>municipale</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="1" t="n">
+        <v>77</v>
+      </c>
+      <c r="B79" s="2" t="n">
+        <v>41723</v>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>Paris</t>
+        </is>
+      </c>
+      <c r="D79" t="n">
+        <v>20</v>
+      </c>
+      <c r="E79" t="n">
         <v>54966</v>
       </c>
-      <c r="F41" t="n">
+      <c r="F79" t="n">
         <v>5692</v>
       </c>
-      <c r="G41" t="n">
+      <c r="G79" t="n">
         <v>20502</v>
       </c>
-      <c r="H41" t="n">
+      <c r="H79" t="n">
         <v>5990</v>
       </c>
-      <c r="I41" t="inlineStr"/>
-      <c r="J41" t="n">
+      <c r="I79" t="inlineStr"/>
+      <c r="J79" t="n">
         <v>11467</v>
       </c>
-      <c r="K41" t="n">
+      <c r="K79" t="n">
         <v>4112</v>
       </c>
-      <c r="L41" t="n">
+      <c r="L79" t="n">
         <v>7203</v>
+      </c>
+      <c r="M79" t="inlineStr">
+        <is>
+          <t>municipale</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="1" t="n">
+        <v>78</v>
+      </c>
+      <c r="B80" s="2" t="n">
+        <v>42848</v>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>Paris</t>
+        </is>
+      </c>
+      <c r="D80" t="n">
+        <v>20</v>
+      </c>
+      <c r="E80" t="n">
+        <v>89574</v>
+      </c>
+      <c r="F80" t="n">
+        <v>28512</v>
+      </c>
+      <c r="G80" t="n">
+        <v>12469</v>
+      </c>
+      <c r="H80" t="inlineStr"/>
+      <c r="I80" t="n">
+        <v>27399</v>
+      </c>
+      <c r="J80" t="n">
+        <v>11451</v>
+      </c>
+      <c r="K80" t="n">
+        <v>5305</v>
+      </c>
+      <c r="L80" t="n">
+        <v>4438</v>
+      </c>
+      <c r="M80" t="inlineStr">
+        <is>
+          <t>president</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="1" t="n">
+        <v>79</v>
+      </c>
+      <c r="B81" s="2" t="n">
+        <v>42897</v>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>Paris</t>
+        </is>
+      </c>
+      <c r="D81" t="n">
+        <v>20</v>
+      </c>
+      <c r="E81" t="n">
+        <v>57413</v>
+      </c>
+      <c r="F81" t="n">
+        <v>11546</v>
+      </c>
+      <c r="G81" t="n">
+        <v>10700</v>
+      </c>
+      <c r="H81" t="n">
+        <v>7766</v>
+      </c>
+      <c r="I81" t="n">
+        <v>6505</v>
+      </c>
+      <c r="J81" t="n">
+        <v>4300</v>
+      </c>
+      <c r="K81" t="n">
+        <v>2446</v>
+      </c>
+      <c r="L81" t="n">
+        <v>14150</v>
+      </c>
+      <c r="M81" t="inlineStr">
+        <is>
+          <t>legislative</t>
+        </is>
       </c>
     </row>
   </sheetData>

--- a/fondamentaux/data/results_by_arrdmt.xlsx
+++ b/fondamentaux/data/results_by_arrdmt.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M81"/>
+  <dimension ref="A1:M161"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -482,7 +482,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>41723</v>
+        <v>40251</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -493,30 +493,32 @@
         <v>1</v>
       </c>
       <c r="E3" t="n">
-        <v>6079</v>
+        <v>4843</v>
       </c>
       <c r="F3" t="n">
-        <v>154</v>
+        <v>295</v>
       </c>
       <c r="G3" t="n">
-        <v>1663</v>
+        <v>1077</v>
       </c>
       <c r="H3" t="n">
-        <v>659</v>
-      </c>
-      <c r="I3" t="inlineStr"/>
+        <v>1038</v>
+      </c>
+      <c r="I3" t="n">
+        <v>177</v>
+      </c>
       <c r="J3" t="n">
-        <v>3144</v>
+        <v>1758</v>
       </c>
       <c r="K3" t="n">
-        <v>306</v>
+        <v>261</v>
       </c>
       <c r="L3" t="n">
-        <v>153</v>
+        <v>237</v>
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>municipale</t>
+          <t>regional</t>
         </is>
       </c>
     </row>
@@ -525,7 +527,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>42848</v>
+        <v>41070</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -536,30 +538,32 @@
         <v>1</v>
       </c>
       <c r="E4" t="n">
-        <v>9026</v>
+        <v>6256</v>
       </c>
       <c r="F4" t="n">
-        <v>1231</v>
+        <v>219</v>
       </c>
       <c r="G4" t="n">
-        <v>659</v>
-      </c>
-      <c r="H4" t="inlineStr"/>
+        <v>2252</v>
+      </c>
+      <c r="H4" t="n">
+        <v>418</v>
+      </c>
       <c r="I4" t="n">
-        <v>3561</v>
+        <v>188</v>
       </c>
       <c r="J4" t="n">
-        <v>2831</v>
+        <v>2577</v>
       </c>
       <c r="K4" t="n">
-        <v>443</v>
+        <v>297</v>
       </c>
       <c r="L4" t="n">
-        <v>301</v>
+        <v>305</v>
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>president</t>
+          <t>legislative</t>
         </is>
       </c>
     </row>
@@ -568,7 +572,7 @@
         <v>3</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>42897</v>
+        <v>41723</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -579,32 +583,30 @@
         <v>1</v>
       </c>
       <c r="E5" t="n">
-        <v>6282</v>
+        <v>6079</v>
       </c>
       <c r="F5" t="n">
-        <v>434</v>
+        <v>154</v>
       </c>
       <c r="G5" t="n">
-        <v>418</v>
+        <v>1663</v>
       </c>
       <c r="H5" t="n">
-        <v>363</v>
-      </c>
-      <c r="I5" t="n">
-        <v>2958</v>
-      </c>
+        <v>659</v>
+      </c>
+      <c r="I5" t="inlineStr"/>
       <c r="J5" t="n">
-        <v>1525</v>
+        <v>3144</v>
       </c>
       <c r="K5" t="n">
-        <v>148</v>
+        <v>306</v>
       </c>
       <c r="L5" t="n">
-        <v>436</v>
+        <v>153</v>
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>legislative</t>
+          <t>municipale</t>
         </is>
       </c>
     </row>
@@ -613,7 +615,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>39591</v>
+        <v>41784</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -621,35 +623,35 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E6" t="n">
-        <v>6736</v>
+        <v>5430</v>
       </c>
       <c r="F6" t="n">
-        <v>90</v>
+        <v>186</v>
       </c>
       <c r="G6" t="n">
-        <v>2231</v>
+        <v>956</v>
       </c>
       <c r="H6" t="n">
-        <v>2016</v>
+        <v>623</v>
       </c>
       <c r="I6" t="n">
-        <v>621</v>
+        <v>753</v>
       </c>
       <c r="J6" t="n">
-        <v>1543</v>
+        <v>1434</v>
       </c>
       <c r="K6" t="n">
-        <v>167</v>
+        <v>530</v>
       </c>
       <c r="L6" t="n">
-        <v>68</v>
+        <v>948</v>
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>municipale</t>
+          <t>european</t>
         </is>
       </c>
     </row>
@@ -658,7 +660,7 @@
         <v>5</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>41723</v>
+        <v>42344</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -666,33 +668,33 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E7" t="n">
-        <v>6857</v>
+        <v>5196</v>
       </c>
       <c r="F7" t="n">
-        <v>192</v>
+        <v>214</v>
       </c>
       <c r="G7" t="n">
-        <v>1565</v>
+        <v>1524</v>
       </c>
       <c r="H7" t="n">
-        <v>2260</v>
+        <v>512</v>
       </c>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="n">
-        <v>1663</v>
+        <v>2033</v>
       </c>
       <c r="K7" t="n">
-        <v>272</v>
+        <v>521</v>
       </c>
       <c r="L7" t="n">
-        <v>905</v>
+        <v>392</v>
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>municipale</t>
+          <t>regional</t>
         </is>
       </c>
     </row>
@@ -709,29 +711,29 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E8" t="n">
-        <v>11292</v>
+        <v>9026</v>
       </c>
       <c r="F8" t="n">
-        <v>1802</v>
+        <v>1231</v>
       </c>
       <c r="G8" t="n">
-        <v>1099</v>
+        <v>659</v>
       </c>
       <c r="H8" t="inlineStr"/>
       <c r="I8" t="n">
-        <v>5014</v>
+        <v>3561</v>
       </c>
       <c r="J8" t="n">
-        <v>2640</v>
+        <v>2831</v>
       </c>
       <c r="K8" t="n">
-        <v>399</v>
+        <v>443</v>
       </c>
       <c r="L8" t="n">
-        <v>338</v>
+        <v>301</v>
       </c>
       <c r="M8" t="inlineStr">
         <is>
@@ -752,31 +754,31 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E9" t="n">
-        <v>7560</v>
+        <v>6282</v>
       </c>
       <c r="F9" t="n">
-        <v>601</v>
+        <v>434</v>
       </c>
       <c r="G9" t="n">
-        <v>563</v>
+        <v>418</v>
       </c>
       <c r="H9" t="n">
-        <v>810</v>
+        <v>363</v>
       </c>
       <c r="I9" t="n">
-        <v>4004</v>
+        <v>2958</v>
       </c>
       <c r="J9" t="n">
-        <v>843</v>
+        <v>1525</v>
       </c>
       <c r="K9" t="n">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="L9" t="n">
-        <v>592</v>
+        <v>436</v>
       </c>
       <c r="M9" t="inlineStr">
         <is>
@@ -797,31 +799,31 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E10" t="n">
-        <v>11974</v>
+        <v>6736</v>
       </c>
       <c r="F10" t="n">
-        <v>225</v>
+        <v>90</v>
       </c>
       <c r="G10" t="n">
-        <v>6685</v>
+        <v>2231</v>
       </c>
       <c r="H10" t="n">
-        <v>1237</v>
+        <v>2016</v>
       </c>
       <c r="I10" t="n">
-        <v>1111</v>
+        <v>621</v>
       </c>
       <c r="J10" t="n">
-        <v>2458</v>
+        <v>1543</v>
       </c>
       <c r="K10" t="n">
-        <v>258</v>
+        <v>167</v>
       </c>
       <c r="L10" t="n">
-        <v>0</v>
+        <v>68</v>
       </c>
       <c r="M10" t="inlineStr">
         <is>
@@ -834,7 +836,7 @@
         <v>9</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>41723</v>
+        <v>40251</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
@@ -842,33 +844,35 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E11" t="n">
-        <v>11615</v>
+        <v>5236</v>
       </c>
       <c r="F11" t="n">
-        <v>464</v>
+        <v>390</v>
       </c>
       <c r="G11" t="n">
-        <v>5493</v>
+        <v>1336</v>
       </c>
       <c r="H11" t="n">
-        <v>1252</v>
-      </c>
-      <c r="I11" t="inlineStr"/>
+        <v>1516</v>
+      </c>
+      <c r="I11" t="n">
+        <v>251</v>
+      </c>
       <c r="J11" t="n">
-        <v>3379</v>
+        <v>1266</v>
       </c>
       <c r="K11" t="n">
-        <v>580</v>
+        <v>233</v>
       </c>
       <c r="L11" t="n">
-        <v>447</v>
+        <v>244</v>
       </c>
       <c r="M11" t="inlineStr">
         <is>
-          <t>municipale</t>
+          <t>regional</t>
         </is>
       </c>
     </row>
@@ -877,7 +881,7 @@
         <v>10</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>42848</v>
+        <v>41070</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
@@ -885,33 +889,35 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E12" t="n">
-        <v>18485</v>
+        <v>7245</v>
       </c>
       <c r="F12" t="n">
-        <v>3078</v>
+        <v>362</v>
       </c>
       <c r="G12" t="n">
-        <v>1963</v>
-      </c>
-      <c r="H12" t="inlineStr"/>
+        <v>2806</v>
+      </c>
+      <c r="H12" t="n">
+        <v>1097</v>
+      </c>
       <c r="I12" t="n">
-        <v>8325</v>
+        <v>246</v>
       </c>
       <c r="J12" t="n">
-        <v>3994</v>
+        <v>2130</v>
       </c>
       <c r="K12" t="n">
-        <v>615</v>
+        <v>275</v>
       </c>
       <c r="L12" t="n">
-        <v>510</v>
+        <v>329</v>
       </c>
       <c r="M12" t="inlineStr">
         <is>
-          <t>president</t>
+          <t>legislative</t>
         </is>
       </c>
     </row>
@@ -920,7 +926,7 @@
         <v>11</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>42897</v>
+        <v>41723</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
@@ -928,35 +934,33 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E13" t="n">
-        <v>13014</v>
+        <v>6857</v>
       </c>
       <c r="F13" t="n">
-        <v>1035</v>
+        <v>192</v>
       </c>
       <c r="G13" t="n">
-        <v>1637</v>
+        <v>1565</v>
       </c>
       <c r="H13" t="n">
-        <v>1299</v>
-      </c>
-      <c r="I13" t="n">
-        <v>6513</v>
-      </c>
+        <v>2260</v>
+      </c>
+      <c r="I13" t="inlineStr"/>
       <c r="J13" t="n">
-        <v>1231</v>
+        <v>1663</v>
       </c>
       <c r="K13" t="n">
-        <v>340</v>
+        <v>272</v>
       </c>
       <c r="L13" t="n">
-        <v>959</v>
+        <v>905</v>
       </c>
       <c r="M13" t="inlineStr">
         <is>
-          <t>legislative</t>
+          <t>municipale</t>
         </is>
       </c>
     </row>
@@ -965,7 +969,7 @@
         <v>12</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>39591</v>
+        <v>41784</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
@@ -973,35 +977,35 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E14" t="n">
-        <v>10573</v>
+        <v>6173</v>
       </c>
       <c r="F14" t="n">
-        <v>151</v>
+        <v>284</v>
       </c>
       <c r="G14" t="n">
-        <v>5127</v>
+        <v>1222</v>
       </c>
       <c r="H14" t="n">
-        <v>834</v>
+        <v>1139</v>
       </c>
       <c r="I14" t="n">
-        <v>863</v>
+        <v>897</v>
       </c>
       <c r="J14" t="n">
-        <v>3312</v>
+        <v>1236</v>
       </c>
       <c r="K14" t="n">
-        <v>286</v>
+        <v>420</v>
       </c>
       <c r="L14" t="n">
-        <v>0</v>
+        <v>975</v>
       </c>
       <c r="M14" t="inlineStr">
         <is>
-          <t>municipale</t>
+          <t>european</t>
         </is>
       </c>
     </row>
@@ -1010,7 +1014,7 @@
         <v>13</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>41723</v>
+        <v>42344</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
@@ -1018,33 +1022,33 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E15" t="n">
-        <v>9850</v>
+        <v>5898</v>
       </c>
       <c r="F15" t="n">
-        <v>376</v>
+        <v>318</v>
       </c>
       <c r="G15" t="n">
-        <v>3684</v>
+        <v>2050</v>
       </c>
       <c r="H15" t="n">
-        <v>916</v>
+        <v>890</v>
       </c>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="n">
-        <v>3725</v>
+        <v>1716</v>
       </c>
       <c r="K15" t="n">
-        <v>512</v>
+        <v>443</v>
       </c>
       <c r="L15" t="n">
-        <v>637</v>
+        <v>481</v>
       </c>
       <c r="M15" t="inlineStr">
         <is>
-          <t>municipale</t>
+          <t>regional</t>
         </is>
       </c>
     </row>
@@ -1061,29 +1065,29 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E16" t="n">
-        <v>15106</v>
+        <v>11292</v>
       </c>
       <c r="F16" t="n">
-        <v>2329</v>
+        <v>1802</v>
       </c>
       <c r="G16" t="n">
-        <v>1370</v>
+        <v>1099</v>
       </c>
       <c r="H16" t="inlineStr"/>
       <c r="I16" t="n">
-        <v>6182</v>
+        <v>5014</v>
       </c>
       <c r="J16" t="n">
-        <v>3956</v>
+        <v>2640</v>
       </c>
       <c r="K16" t="n">
-        <v>735</v>
+        <v>399</v>
       </c>
       <c r="L16" t="n">
-        <v>534</v>
+        <v>338</v>
       </c>
       <c r="M16" t="inlineStr">
         <is>
@@ -1104,31 +1108,31 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E17" t="n">
-        <v>10549</v>
+        <v>7560</v>
       </c>
       <c r="F17" t="n">
-        <v>882</v>
+        <v>601</v>
       </c>
       <c r="G17" t="n">
-        <v>1176</v>
+        <v>563</v>
       </c>
       <c r="H17" t="n">
-        <v>563</v>
+        <v>810</v>
       </c>
       <c r="I17" t="n">
-        <v>4612</v>
+        <v>4004</v>
       </c>
       <c r="J17" t="n">
-        <v>1779</v>
+        <v>843</v>
       </c>
       <c r="K17" t="n">
-        <v>289</v>
+        <v>147</v>
       </c>
       <c r="L17" t="n">
-        <v>1248</v>
+        <v>592</v>
       </c>
       <c r="M17" t="inlineStr">
         <is>
@@ -1149,31 +1153,31 @@
         </is>
       </c>
       <c r="D18" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E18" t="n">
-        <v>23614</v>
+        <v>11974</v>
       </c>
       <c r="F18" t="n">
-        <v>688</v>
+        <v>225</v>
       </c>
       <c r="G18" t="n">
-        <v>8187</v>
+        <v>6685</v>
       </c>
       <c r="H18" t="n">
-        <v>1287</v>
+        <v>1237</v>
       </c>
       <c r="I18" t="n">
-        <v>3385</v>
+        <v>1111</v>
       </c>
       <c r="J18" t="n">
-        <v>8958</v>
+        <v>2458</v>
       </c>
       <c r="K18" t="n">
-        <v>418</v>
+        <v>258</v>
       </c>
       <c r="L18" t="n">
-        <v>691</v>
+        <v>0</v>
       </c>
       <c r="M18" t="inlineStr">
         <is>
@@ -1186,7 +1190,7 @@
         <v>17</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>41723</v>
+        <v>40251</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
@@ -1194,33 +1198,35 @@
         </is>
       </c>
       <c r="D19" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E19" t="n">
-        <v>22243</v>
+        <v>9595</v>
       </c>
       <c r="F19" t="n">
-        <v>976</v>
+        <v>842</v>
       </c>
       <c r="G19" t="n">
-        <v>7550</v>
+        <v>2918</v>
       </c>
       <c r="H19" t="n">
-        <v>1985</v>
-      </c>
-      <c r="I19" t="inlineStr"/>
+        <v>2679</v>
+      </c>
+      <c r="I19" t="n">
+        <v>365</v>
+      </c>
       <c r="J19" t="n">
-        <v>6336</v>
+        <v>2100</v>
       </c>
       <c r="K19" t="n">
-        <v>805</v>
+        <v>354</v>
       </c>
       <c r="L19" t="n">
-        <v>4591</v>
+        <v>337</v>
       </c>
       <c r="M19" t="inlineStr">
         <is>
-          <t>municipale</t>
+          <t>regional</t>
         </is>
       </c>
     </row>
@@ -1229,7 +1235,7 @@
         <v>18</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>42848</v>
+        <v>41070</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
@@ -1237,33 +1243,35 @@
         </is>
       </c>
       <c r="D20" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E20" t="n">
-        <v>31008</v>
+        <v>12712</v>
       </c>
       <c r="F20" t="n">
-        <v>4960</v>
+        <v>1406</v>
       </c>
       <c r="G20" t="n">
-        <v>3103</v>
-      </c>
-      <c r="H20" t="inlineStr"/>
+        <v>5432</v>
+      </c>
+      <c r="H20" t="n">
+        <v>1012</v>
+      </c>
       <c r="I20" t="n">
-        <v>12316</v>
+        <v>679</v>
       </c>
       <c r="J20" t="n">
-        <v>8273</v>
+        <v>3303</v>
       </c>
       <c r="K20" t="n">
-        <v>1225</v>
+        <v>544</v>
       </c>
       <c r="L20" t="n">
-        <v>1131</v>
+        <v>336</v>
       </c>
       <c r="M20" t="inlineStr">
         <is>
-          <t>president</t>
+          <t>legislative</t>
         </is>
       </c>
     </row>
@@ -1272,7 +1280,7 @@
         <v>19</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>42897</v>
+        <v>41723</v>
       </c>
       <c r="C21" t="inlineStr">
         <is>
@@ -1280,35 +1288,33 @@
         </is>
       </c>
       <c r="D21" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E21" t="n">
-        <v>22755</v>
+        <v>11615</v>
       </c>
       <c r="F21" t="n">
-        <v>1947</v>
+        <v>464</v>
       </c>
       <c r="G21" t="n">
-        <v>1980</v>
+        <v>5493</v>
       </c>
       <c r="H21" t="n">
-        <v>1562</v>
-      </c>
-      <c r="I21" t="n">
-        <v>9379</v>
-      </c>
+        <v>1252</v>
+      </c>
+      <c r="I21" t="inlineStr"/>
       <c r="J21" t="n">
-        <v>3523</v>
+        <v>3379</v>
       </c>
       <c r="K21" t="n">
-        <v>543</v>
+        <v>580</v>
       </c>
       <c r="L21" t="n">
-        <v>3821</v>
+        <v>447</v>
       </c>
       <c r="M21" t="inlineStr">
         <is>
-          <t>legislative</t>
+          <t>municipale</t>
         </is>
       </c>
     </row>
@@ -1317,7 +1323,7 @@
         <v>20</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>39591</v>
+        <v>41784</v>
       </c>
       <c r="C22" t="inlineStr">
         <is>
@@ -1325,33 +1331,35 @@
         </is>
       </c>
       <c r="D22" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="E22" t="n">
-        <v>15488</v>
-      </c>
-      <c r="F22" t="inlineStr"/>
+        <v>10877</v>
+      </c>
+      <c r="F22" t="n">
+        <v>586</v>
+      </c>
       <c r="G22" t="n">
-        <v>5166</v>
+        <v>2717</v>
       </c>
       <c r="H22" t="n">
-        <v>590</v>
+        <v>1832</v>
       </c>
       <c r="I22" t="n">
-        <v>1530</v>
+        <v>1380</v>
       </c>
       <c r="J22" t="n">
-        <v>7269</v>
+        <v>1979</v>
       </c>
       <c r="K22" t="n">
-        <v>356</v>
+        <v>666</v>
       </c>
       <c r="L22" t="n">
-        <v>577</v>
+        <v>1717</v>
       </c>
       <c r="M22" t="inlineStr">
         <is>
-          <t>municipale</t>
+          <t>european</t>
         </is>
       </c>
     </row>
@@ -1360,7 +1368,7 @@
         <v>21</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>41723</v>
+        <v>42344</v>
       </c>
       <c r="C23" t="inlineStr">
         <is>
@@ -1368,33 +1376,33 @@
         </is>
       </c>
       <c r="D23" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="E23" t="n">
-        <v>14759</v>
+        <v>10578</v>
       </c>
       <c r="F23" t="n">
-        <v>349</v>
+        <v>702</v>
       </c>
       <c r="G23" t="n">
-        <v>3855</v>
+        <v>4249</v>
       </c>
       <c r="H23" t="n">
-        <v>982</v>
+        <v>1332</v>
       </c>
       <c r="I23" t="inlineStr"/>
       <c r="J23" t="n">
-        <v>7766</v>
+        <v>2835</v>
       </c>
       <c r="K23" t="n">
-        <v>708</v>
+        <v>783</v>
       </c>
       <c r="L23" t="n">
-        <v>1099</v>
+        <v>677</v>
       </c>
       <c r="M23" t="inlineStr">
         <is>
-          <t>municipale</t>
+          <t>regional</t>
         </is>
       </c>
     </row>
@@ -1411,29 +1419,29 @@
         </is>
       </c>
       <c r="D24" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="E24" t="n">
-        <v>22332</v>
+        <v>18485</v>
       </c>
       <c r="F24" t="n">
-        <v>2038</v>
+        <v>3078</v>
       </c>
       <c r="G24" t="n">
-        <v>1419</v>
+        <v>1963</v>
       </c>
       <c r="H24" t="inlineStr"/>
       <c r="I24" t="n">
-        <v>8729</v>
+        <v>8325</v>
       </c>
       <c r="J24" t="n">
-        <v>8769</v>
+        <v>3994</v>
       </c>
       <c r="K24" t="n">
-        <v>719</v>
+        <v>615</v>
       </c>
       <c r="L24" t="n">
-        <v>658</v>
+        <v>510</v>
       </c>
       <c r="M24" t="inlineStr">
         <is>
@@ -1454,31 +1462,31 @@
         </is>
       </c>
       <c r="D25" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="E25" t="n">
-        <v>15915</v>
+        <v>13014</v>
       </c>
       <c r="F25" t="n">
-        <v>688</v>
+        <v>1035</v>
       </c>
       <c r="G25" t="n">
-        <v>997</v>
+        <v>1637</v>
       </c>
       <c r="H25" t="n">
-        <v>764</v>
+        <v>1299</v>
       </c>
       <c r="I25" t="n">
-        <v>7025</v>
+        <v>6513</v>
       </c>
       <c r="J25" t="n">
-        <v>3455</v>
+        <v>1231</v>
       </c>
       <c r="K25" t="n">
-        <v>306</v>
+        <v>340</v>
       </c>
       <c r="L25" t="n">
-        <v>2680</v>
+        <v>959</v>
       </c>
       <c r="M25" t="inlineStr">
         <is>
@@ -1499,29 +1507,31 @@
         </is>
       </c>
       <c r="D26" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="E26" t="n">
-        <v>17967</v>
-      </c>
-      <c r="F26" t="inlineStr"/>
+        <v>10573</v>
+      </c>
+      <c r="F26" t="n">
+        <v>151</v>
+      </c>
       <c r="G26" t="n">
-        <v>4080</v>
+        <v>5127</v>
       </c>
       <c r="H26" t="n">
-        <v>535</v>
+        <v>834</v>
       </c>
       <c r="I26" t="n">
-        <v>2819</v>
+        <v>863</v>
       </c>
       <c r="J26" t="n">
-        <v>8894</v>
+        <v>3312</v>
       </c>
       <c r="K26" t="n">
-        <v>537</v>
+        <v>286</v>
       </c>
       <c r="L26" t="n">
-        <v>1102</v>
+        <v>0</v>
       </c>
       <c r="M26" t="inlineStr">
         <is>
@@ -1534,7 +1544,7 @@
         <v>25</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>41723</v>
+        <v>40251</v>
       </c>
       <c r="C27" t="inlineStr">
         <is>
@@ -1542,33 +1552,35 @@
         </is>
       </c>
       <c r="D27" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="E27" t="n">
-        <v>17910</v>
+        <v>8217</v>
       </c>
       <c r="F27" t="n">
-        <v>198</v>
+        <v>645</v>
       </c>
       <c r="G27" t="n">
-        <v>3031</v>
+        <v>2267</v>
       </c>
       <c r="H27" t="n">
-        <v>546</v>
-      </c>
-      <c r="I27" t="inlineStr"/>
+        <v>1931</v>
+      </c>
+      <c r="I27" t="n">
+        <v>324</v>
+      </c>
       <c r="J27" t="n">
-        <v>7345</v>
+        <v>2218</v>
       </c>
       <c r="K27" t="n">
-        <v>1066</v>
+        <v>414</v>
       </c>
       <c r="L27" t="n">
-        <v>5724</v>
+        <v>418</v>
       </c>
       <c r="M27" t="inlineStr">
         <is>
-          <t>municipale</t>
+          <t>regional</t>
         </is>
       </c>
     </row>
@@ -1577,7 +1589,7 @@
         <v>26</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>42848</v>
+        <v>41070</v>
       </c>
       <c r="C28" t="inlineStr">
         <is>
@@ -1585,33 +1597,35 @@
         </is>
       </c>
       <c r="D28" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="E28" t="n">
-        <v>27798</v>
+        <v>10571</v>
       </c>
       <c r="F28" t="n">
-        <v>1552</v>
+        <v>622</v>
       </c>
       <c r="G28" t="n">
-        <v>1068</v>
-      </c>
-      <c r="H28" t="inlineStr"/>
+        <v>4179</v>
+      </c>
+      <c r="H28" t="n">
+        <v>877</v>
+      </c>
       <c r="I28" t="n">
-        <v>8785</v>
+        <v>373</v>
       </c>
       <c r="J28" t="n">
-        <v>14650</v>
+        <v>3345</v>
       </c>
       <c r="K28" t="n">
-        <v>1064</v>
+        <v>523</v>
       </c>
       <c r="L28" t="n">
-        <v>679</v>
+        <v>652</v>
       </c>
       <c r="M28" t="inlineStr">
         <is>
-          <t>president</t>
+          <t>legislative</t>
         </is>
       </c>
     </row>
@@ -1620,7 +1634,7 @@
         <v>27</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>42897</v>
+        <v>41723</v>
       </c>
       <c r="C29" t="inlineStr">
         <is>
@@ -1628,35 +1642,33 @@
         </is>
       </c>
       <c r="D29" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="E29" t="n">
-        <v>19353</v>
+        <v>9850</v>
       </c>
       <c r="F29" t="n">
-        <v>471</v>
+        <v>376</v>
       </c>
       <c r="G29" t="n">
-        <v>547</v>
+        <v>3684</v>
       </c>
       <c r="H29" t="n">
-        <v>387</v>
-      </c>
-      <c r="I29" t="n">
-        <v>8441</v>
-      </c>
+        <v>916</v>
+      </c>
+      <c r="I29" t="inlineStr"/>
       <c r="J29" t="n">
-        <v>5124</v>
+        <v>3725</v>
       </c>
       <c r="K29" t="n">
-        <v>491</v>
+        <v>512</v>
       </c>
       <c r="L29" t="n">
-        <v>3892</v>
+        <v>637</v>
       </c>
       <c r="M29" t="inlineStr">
         <is>
-          <t>legislative</t>
+          <t>municipale</t>
         </is>
       </c>
     </row>
@@ -1665,7 +1677,7 @@
         <v>28</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>39591</v>
+        <v>41784</v>
       </c>
       <c r="C30" t="inlineStr">
         <is>
@@ -1673,33 +1685,35 @@
         </is>
       </c>
       <c r="D30" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="E30" t="n">
-        <v>12325</v>
-      </c>
-      <c r="F30" t="inlineStr"/>
+        <v>9221</v>
+      </c>
+      <c r="F30" t="n">
+        <v>418</v>
+      </c>
       <c r="G30" t="n">
-        <v>2302</v>
+        <v>2076</v>
       </c>
       <c r="H30" t="n">
-        <v>318</v>
+        <v>1305</v>
       </c>
       <c r="I30" t="n">
-        <v>808</v>
+        <v>1211</v>
       </c>
       <c r="J30" t="n">
-        <v>4119</v>
+        <v>2027</v>
       </c>
       <c r="K30" t="n">
-        <v>293</v>
+        <v>769</v>
       </c>
       <c r="L30" t="n">
-        <v>4485</v>
+        <v>1415</v>
       </c>
       <c r="M30" t="inlineStr">
         <is>
-          <t>municipale</t>
+          <t>european</t>
         </is>
       </c>
     </row>
@@ -1708,7 +1722,7 @@
         <v>29</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>41723</v>
+        <v>42344</v>
       </c>
       <c r="C31" t="inlineStr">
         <is>
@@ -1716,33 +1730,33 @@
         </is>
       </c>
       <c r="D31" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="E31" t="n">
-        <v>12622</v>
+        <v>8840</v>
       </c>
       <c r="F31" t="n">
-        <v>178</v>
+        <v>501</v>
       </c>
       <c r="G31" t="n">
-        <v>1944</v>
+        <v>3099</v>
       </c>
       <c r="H31" t="n">
-        <v>442</v>
+        <v>932</v>
       </c>
       <c r="I31" t="inlineStr"/>
       <c r="J31" t="n">
-        <v>5884</v>
+        <v>2840</v>
       </c>
       <c r="K31" t="n">
-        <v>602</v>
+        <v>773</v>
       </c>
       <c r="L31" t="n">
-        <v>3572</v>
+        <v>695</v>
       </c>
       <c r="M31" t="inlineStr">
         <is>
-          <t>municipale</t>
+          <t>regional</t>
         </is>
       </c>
     </row>
@@ -1759,29 +1773,29 @@
         </is>
       </c>
       <c r="D32" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="E32" t="n">
-        <v>20698</v>
+        <v>15106</v>
       </c>
       <c r="F32" t="n">
-        <v>1392</v>
+        <v>2329</v>
       </c>
       <c r="G32" t="n">
-        <v>849</v>
+        <v>1370</v>
       </c>
       <c r="H32" t="inlineStr"/>
       <c r="I32" t="n">
-        <v>6568</v>
+        <v>6182</v>
       </c>
       <c r="J32" t="n">
-        <v>10448</v>
+        <v>3956</v>
       </c>
       <c r="K32" t="n">
-        <v>916</v>
+        <v>735</v>
       </c>
       <c r="L32" t="n">
-        <v>525</v>
+        <v>534</v>
       </c>
       <c r="M32" t="inlineStr">
         <is>
@@ -1802,31 +1816,31 @@
         </is>
       </c>
       <c r="D33" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="E33" t="n">
-        <v>13666</v>
+        <v>10549</v>
       </c>
       <c r="F33" t="n">
-        <v>389</v>
+        <v>882</v>
       </c>
       <c r="G33" t="n">
-        <v>452</v>
+        <v>1176</v>
       </c>
       <c r="H33" t="n">
-        <v>355</v>
+        <v>563</v>
       </c>
       <c r="I33" t="n">
-        <v>6959</v>
+        <v>4612</v>
       </c>
       <c r="J33" t="n">
-        <v>3219</v>
+        <v>1779</v>
       </c>
       <c r="K33" t="n">
-        <v>344</v>
+        <v>289</v>
       </c>
       <c r="L33" t="n">
-        <v>1948</v>
+        <v>1248</v>
       </c>
       <c r="M33" t="inlineStr">
         <is>
@@ -1847,31 +1861,31 @@
         </is>
       </c>
       <c r="D34" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="E34" t="n">
-        <v>20643</v>
+        <v>23614</v>
       </c>
       <c r="F34" t="n">
-        <v>602</v>
+        <v>688</v>
       </c>
       <c r="G34" t="n">
-        <v>10163</v>
+        <v>8187</v>
       </c>
       <c r="H34" t="n">
-        <v>1299</v>
+        <v>1287</v>
       </c>
       <c r="I34" t="n">
-        <v>1659</v>
+        <v>3385</v>
       </c>
       <c r="J34" t="n">
-        <v>6353</v>
+        <v>8958</v>
       </c>
       <c r="K34" t="n">
-        <v>567</v>
+        <v>418</v>
       </c>
       <c r="L34" t="n">
-        <v>0</v>
+        <v>691</v>
       </c>
       <c r="M34" t="inlineStr">
         <is>
@@ -1884,7 +1898,7 @@
         <v>33</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>41723</v>
+        <v>40251</v>
       </c>
       <c r="C35" t="inlineStr">
         <is>
@@ -1892,33 +1906,35 @@
         </is>
       </c>
       <c r="D35" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="E35" t="n">
-        <v>20751</v>
+        <v>18640</v>
       </c>
       <c r="F35" t="n">
-        <v>772</v>
+        <v>1544</v>
       </c>
       <c r="G35" t="n">
-        <v>8125</v>
+        <v>4845</v>
       </c>
       <c r="H35" t="n">
-        <v>1663</v>
-      </c>
-      <c r="I35" t="inlineStr"/>
+        <v>4113</v>
+      </c>
+      <c r="I35" t="n">
+        <v>830</v>
+      </c>
       <c r="J35" t="n">
-        <v>8181</v>
+        <v>5498</v>
       </c>
       <c r="K35" t="n">
-        <v>1010</v>
+        <v>913</v>
       </c>
       <c r="L35" t="n">
-        <v>1000</v>
+        <v>897</v>
       </c>
       <c r="M35" t="inlineStr">
         <is>
-          <t>municipale</t>
+          <t>regional</t>
         </is>
       </c>
     </row>
@@ -1927,7 +1943,7 @@
         <v>34</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>42848</v>
+        <v>41070</v>
       </c>
       <c r="C36" t="inlineStr">
         <is>
@@ -1935,33 +1951,35 @@
         </is>
       </c>
       <c r="D36" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="E36" t="n">
-        <v>32940</v>
+        <v>23844</v>
       </c>
       <c r="F36" t="n">
-        <v>4783</v>
+        <v>1230</v>
       </c>
       <c r="G36" t="n">
-        <v>3163</v>
-      </c>
-      <c r="H36" t="inlineStr"/>
+        <v>9986</v>
+      </c>
+      <c r="H36" t="n">
+        <v>1284</v>
+      </c>
       <c r="I36" t="n">
-        <v>14029</v>
+        <v>649</v>
       </c>
       <c r="J36" t="n">
-        <v>8879</v>
+        <v>9066</v>
       </c>
       <c r="K36" t="n">
-        <v>1092</v>
+        <v>855</v>
       </c>
       <c r="L36" t="n">
-        <v>994</v>
+        <v>774</v>
       </c>
       <c r="M36" t="inlineStr">
         <is>
-          <t>president</t>
+          <t>legislative</t>
         </is>
       </c>
     </row>
@@ -1970,7 +1988,7 @@
         <v>35</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>42897</v>
+        <v>41723</v>
       </c>
       <c r="C37" t="inlineStr">
         <is>
@@ -1978,35 +1996,33 @@
         </is>
       </c>
       <c r="D37" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="E37" t="n">
-        <v>23305</v>
+        <v>22243</v>
       </c>
       <c r="F37" t="n">
-        <v>1834</v>
+        <v>976</v>
       </c>
       <c r="G37" t="n">
-        <v>3050</v>
+        <v>7550</v>
       </c>
       <c r="H37" t="n">
-        <v>1530</v>
-      </c>
-      <c r="I37" t="n">
-        <v>10116</v>
-      </c>
+        <v>1985</v>
+      </c>
+      <c r="I37" t="inlineStr"/>
       <c r="J37" t="n">
-        <v>4134</v>
+        <v>6336</v>
       </c>
       <c r="K37" t="n">
-        <v>494</v>
+        <v>805</v>
       </c>
       <c r="L37" t="n">
-        <v>2147</v>
+        <v>4591</v>
       </c>
       <c r="M37" t="inlineStr">
         <is>
-          <t>legislative</t>
+          <t>municipale</t>
         </is>
       </c>
     </row>
@@ -2015,7 +2031,7 @@
         <v>36</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>39591</v>
+        <v>41784</v>
       </c>
       <c r="C38" t="inlineStr">
         <is>
@@ -2023,35 +2039,35 @@
         </is>
       </c>
       <c r="D38" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="E38" t="n">
-        <v>28359</v>
+        <v>20500</v>
       </c>
       <c r="F38" t="n">
-        <v>2158</v>
+        <v>1086</v>
       </c>
       <c r="G38" t="n">
-        <v>13766</v>
+        <v>4281</v>
       </c>
       <c r="H38" t="n">
-        <v>2564</v>
+        <v>2850</v>
       </c>
       <c r="I38" t="n">
-        <v>2348</v>
+        <v>2875</v>
       </c>
       <c r="J38" t="n">
-        <v>4513</v>
+        <v>4341</v>
       </c>
       <c r="K38" t="n">
-        <v>837</v>
+        <v>1663</v>
       </c>
       <c r="L38" t="n">
-        <v>2173</v>
+        <v>3404</v>
       </c>
       <c r="M38" t="inlineStr">
         <is>
-          <t>municipale</t>
+          <t>european</t>
         </is>
       </c>
     </row>
@@ -2060,7 +2076,7 @@
         <v>37</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>41723</v>
+        <v>42344</v>
       </c>
       <c r="C39" t="inlineStr">
         <is>
@@ -2068,33 +2084,33 @@
         </is>
       </c>
       <c r="D39" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="E39" t="n">
-        <v>26993</v>
+        <v>19620</v>
       </c>
       <c r="F39" t="n">
-        <v>1730</v>
+        <v>1291</v>
       </c>
       <c r="G39" t="n">
-        <v>11973</v>
+        <v>6491</v>
       </c>
       <c r="H39" t="n">
-        <v>3102</v>
+        <v>2155</v>
       </c>
       <c r="I39" t="inlineStr"/>
       <c r="J39" t="n">
-        <v>5798</v>
+        <v>6604</v>
       </c>
       <c r="K39" t="n">
-        <v>1460</v>
+        <v>1515</v>
       </c>
       <c r="L39" t="n">
-        <v>2930</v>
+        <v>1564</v>
       </c>
       <c r="M39" t="inlineStr">
         <is>
-          <t>municipale</t>
+          <t>regional</t>
         </is>
       </c>
     </row>
@@ -2111,29 +2127,29 @@
         </is>
       </c>
       <c r="D40" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="E40" t="n">
-        <v>44766</v>
+        <v>31008</v>
       </c>
       <c r="F40" t="n">
-        <v>11396</v>
+        <v>4960</v>
       </c>
       <c r="G40" t="n">
-        <v>6343</v>
+        <v>3103</v>
       </c>
       <c r="H40" t="inlineStr"/>
       <c r="I40" t="n">
-        <v>16880</v>
+        <v>12316</v>
       </c>
       <c r="J40" t="n">
-        <v>6724</v>
+        <v>8273</v>
       </c>
       <c r="K40" t="n">
-        <v>1817</v>
+        <v>1225</v>
       </c>
       <c r="L40" t="n">
-        <v>1606</v>
+        <v>1131</v>
       </c>
       <c r="M40" t="inlineStr">
         <is>
@@ -2154,31 +2170,31 @@
         </is>
       </c>
       <c r="D41" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="E41" t="n">
-        <v>31101</v>
+        <v>22755</v>
       </c>
       <c r="F41" t="n">
-        <v>4202</v>
+        <v>1947</v>
       </c>
       <c r="G41" t="n">
-        <v>3866</v>
+        <v>1980</v>
       </c>
       <c r="H41" t="n">
-        <v>4551</v>
+        <v>1562</v>
       </c>
       <c r="I41" t="n">
-        <v>12734</v>
+        <v>9379</v>
       </c>
       <c r="J41" t="n">
-        <v>2280</v>
+        <v>3523</v>
       </c>
       <c r="K41" t="n">
-        <v>900</v>
+        <v>543</v>
       </c>
       <c r="L41" t="n">
-        <v>2568</v>
+        <v>3821</v>
       </c>
       <c r="M41" t="inlineStr">
         <is>
@@ -2199,31 +2215,29 @@
         </is>
       </c>
       <c r="D42" t="n">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="E42" t="n">
-        <v>47031</v>
-      </c>
-      <c r="F42" t="n">
-        <v>2672</v>
-      </c>
+        <v>15488</v>
+      </c>
+      <c r="F42" t="inlineStr"/>
       <c r="G42" t="n">
-        <v>25894</v>
+        <v>5166</v>
       </c>
       <c r="H42" t="n">
-        <v>3726</v>
+        <v>590</v>
       </c>
       <c r="I42" t="n">
-        <v>4067</v>
+        <v>1530</v>
       </c>
       <c r="J42" t="n">
-        <v>9315</v>
+        <v>7269</v>
       </c>
       <c r="K42" t="n">
-        <v>1357</v>
+        <v>356</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>577</v>
       </c>
       <c r="M42" t="inlineStr">
         <is>
@@ -2236,7 +2250,7 @@
         <v>41</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>41723</v>
+        <v>40251</v>
       </c>
       <c r="C43" t="inlineStr">
         <is>
@@ -2244,33 +2258,35 @@
         </is>
       </c>
       <c r="D43" t="n">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="E43" t="n">
-        <v>45861</v>
+        <v>12957</v>
       </c>
       <c r="F43" t="n">
-        <v>2879</v>
+        <v>541</v>
       </c>
       <c r="G43" t="n">
-        <v>20524</v>
+        <v>2809</v>
       </c>
       <c r="H43" t="n">
-        <v>5301</v>
-      </c>
-      <c r="I43" t="inlineStr"/>
+        <v>2393</v>
+      </c>
+      <c r="I43" t="n">
+        <v>571</v>
+      </c>
       <c r="J43" t="n">
-        <v>12304</v>
+        <v>5256</v>
       </c>
       <c r="K43" t="n">
-        <v>2512</v>
+        <v>641</v>
       </c>
       <c r="L43" t="n">
-        <v>2341</v>
+        <v>746</v>
       </c>
       <c r="M43" t="inlineStr">
         <is>
-          <t>municipale</t>
+          <t>regional</t>
         </is>
       </c>
     </row>
@@ -2279,7 +2295,7 @@
         <v>42</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>42848</v>
+        <v>41070</v>
       </c>
       <c r="C44" t="inlineStr">
         <is>
@@ -2287,33 +2303,35 @@
         </is>
       </c>
       <c r="D44" t="n">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="E44" t="n">
-        <v>75237</v>
+        <v>16341</v>
       </c>
       <c r="F44" t="n">
-        <v>17877</v>
+        <v>432</v>
       </c>
       <c r="G44" t="n">
-        <v>10247</v>
-      </c>
-      <c r="H44" t="inlineStr"/>
+        <v>5080</v>
+      </c>
+      <c r="H44" t="n">
+        <v>724</v>
+      </c>
       <c r="I44" t="n">
-        <v>29191</v>
+        <v>555</v>
       </c>
       <c r="J44" t="n">
-        <v>12136</v>
+        <v>8380</v>
       </c>
       <c r="K44" t="n">
-        <v>3035</v>
+        <v>580</v>
       </c>
       <c r="L44" t="n">
-        <v>2751</v>
+        <v>590</v>
       </c>
       <c r="M44" t="inlineStr">
         <is>
-          <t>president</t>
+          <t>legislative</t>
         </is>
       </c>
     </row>
@@ -2322,7 +2340,7 @@
         <v>43</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>42897</v>
+        <v>41723</v>
       </c>
       <c r="C45" t="inlineStr">
         <is>
@@ -2330,35 +2348,33 @@
         </is>
       </c>
       <c r="D45" t="n">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="E45" t="n">
-        <v>52299</v>
+        <v>14759</v>
       </c>
       <c r="F45" t="n">
-        <v>7546</v>
+        <v>349</v>
       </c>
       <c r="G45" t="n">
-        <v>4521</v>
+        <v>3855</v>
       </c>
       <c r="H45" t="n">
-        <v>6084</v>
-      </c>
-      <c r="I45" t="n">
-        <v>22419</v>
-      </c>
+        <v>982</v>
+      </c>
+      <c r="I45" t="inlineStr"/>
       <c r="J45" t="n">
-        <v>3530</v>
+        <v>7766</v>
       </c>
       <c r="K45" t="n">
-        <v>1335</v>
+        <v>708</v>
       </c>
       <c r="L45" t="n">
-        <v>6864</v>
+        <v>1099</v>
       </c>
       <c r="M45" t="inlineStr">
         <is>
-          <t>legislative</t>
+          <t>municipale</t>
         </is>
       </c>
     </row>
@@ -2367,7 +2383,7 @@
         <v>44</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>39591</v>
+        <v>41784</v>
       </c>
       <c r="C46" t="inlineStr">
         <is>
@@ -2375,35 +2391,35 @@
         </is>
       </c>
       <c r="D46" t="n">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="E46" t="n">
-        <v>53146</v>
+        <v>14242</v>
       </c>
       <c r="F46" t="n">
-        <v>2324</v>
+        <v>380</v>
       </c>
       <c r="G46" t="n">
-        <v>24486</v>
+        <v>2498</v>
       </c>
       <c r="H46" t="n">
-        <v>3125</v>
+        <v>1339</v>
       </c>
       <c r="I46" t="n">
-        <v>5287</v>
+        <v>2427</v>
       </c>
       <c r="J46" t="n">
-        <v>12922</v>
+        <v>4328</v>
       </c>
       <c r="K46" t="n">
-        <v>1550</v>
+        <v>1053</v>
       </c>
       <c r="L46" t="n">
-        <v>3452</v>
+        <v>2217</v>
       </c>
       <c r="M46" t="inlineStr">
         <is>
-          <t>municipale</t>
+          <t>european</t>
         </is>
       </c>
     </row>
@@ -2412,7 +2428,7 @@
         <v>45</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>41723</v>
+        <v>42344</v>
       </c>
       <c r="C47" t="inlineStr">
         <is>
@@ -2420,33 +2436,33 @@
         </is>
       </c>
       <c r="D47" t="n">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="E47" t="n">
-        <v>49695</v>
+        <v>13540</v>
       </c>
       <c r="F47" t="n">
-        <v>2678</v>
+        <v>379</v>
       </c>
       <c r="G47" t="n">
-        <v>18585</v>
+        <v>3791</v>
       </c>
       <c r="H47" t="n">
-        <v>5001</v>
+        <v>963</v>
       </c>
       <c r="I47" t="inlineStr"/>
       <c r="J47" t="n">
-        <v>16569</v>
+        <v>6328</v>
       </c>
       <c r="K47" t="n">
-        <v>3362</v>
+        <v>999</v>
       </c>
       <c r="L47" t="n">
-        <v>3500</v>
+        <v>1080</v>
       </c>
       <c r="M47" t="inlineStr">
         <is>
-          <t>municipale</t>
+          <t>regional</t>
         </is>
       </c>
     </row>
@@ -2463,29 +2479,29 @@
         </is>
       </c>
       <c r="D48" t="n">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="E48" t="n">
-        <v>75050</v>
+        <v>22332</v>
       </c>
       <c r="F48" t="n">
-        <v>15613</v>
+        <v>2038</v>
       </c>
       <c r="G48" t="n">
-        <v>8614</v>
+        <v>1419</v>
       </c>
       <c r="H48" t="inlineStr"/>
       <c r="I48" t="n">
-        <v>26942</v>
+        <v>8729</v>
       </c>
       <c r="J48" t="n">
-        <v>15918</v>
+        <v>8769</v>
       </c>
       <c r="K48" t="n">
-        <v>4385</v>
+        <v>719</v>
       </c>
       <c r="L48" t="n">
-        <v>3578</v>
+        <v>658</v>
       </c>
       <c r="M48" t="inlineStr">
         <is>
@@ -2506,31 +2522,31 @@
         </is>
       </c>
       <c r="D49" t="n">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="E49" t="n">
-        <v>52590</v>
+        <v>15915</v>
       </c>
       <c r="F49" t="n">
-        <v>6755</v>
+        <v>688</v>
       </c>
       <c r="G49" t="n">
-        <v>7945</v>
+        <v>997</v>
       </c>
       <c r="H49" t="n">
-        <v>3502</v>
+        <v>764</v>
       </c>
       <c r="I49" t="n">
-        <v>21162</v>
+        <v>7025</v>
       </c>
       <c r="J49" t="n">
-        <v>7782</v>
+        <v>3455</v>
       </c>
       <c r="K49" t="n">
-        <v>1767</v>
+        <v>306</v>
       </c>
       <c r="L49" t="n">
-        <v>3677</v>
+        <v>2680</v>
       </c>
       <c r="M49" t="inlineStr">
         <is>
@@ -2551,31 +2567,29 @@
         </is>
       </c>
       <c r="D50" t="n">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="E50" t="n">
-        <v>58837</v>
-      </c>
-      <c r="F50" t="n">
-        <v>4608</v>
-      </c>
+        <v>17967</v>
+      </c>
+      <c r="F50" t="inlineStr"/>
       <c r="G50" t="n">
-        <v>29324</v>
+        <v>4080</v>
       </c>
       <c r="H50" t="n">
-        <v>3808</v>
+        <v>535</v>
       </c>
       <c r="I50" t="n">
-        <v>5320</v>
+        <v>2819</v>
       </c>
       <c r="J50" t="n">
-        <v>12559</v>
+        <v>8894</v>
       </c>
       <c r="K50" t="n">
-        <v>1989</v>
+        <v>537</v>
       </c>
       <c r="L50" t="n">
-        <v>1229</v>
+        <v>1102</v>
       </c>
       <c r="M50" t="inlineStr">
         <is>
@@ -2588,7 +2602,7 @@
         <v>49</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>41723</v>
+        <v>40251</v>
       </c>
       <c r="C51" t="inlineStr">
         <is>
@@ -2596,33 +2610,35 @@
         </is>
       </c>
       <c r="D51" t="n">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="E51" t="n">
-        <v>56670</v>
+        <v>15114</v>
       </c>
       <c r="F51" t="n">
-        <v>3326</v>
+        <v>353</v>
       </c>
       <c r="G51" t="n">
-        <v>25193</v>
+        <v>2230</v>
       </c>
       <c r="H51" t="n">
-        <v>5567</v>
-      </c>
-      <c r="I51" t="inlineStr"/>
+        <v>1864</v>
+      </c>
+      <c r="I51" t="n">
+        <v>572</v>
+      </c>
       <c r="J51" t="n">
-        <v>14157</v>
+        <v>8130</v>
       </c>
       <c r="K51" t="n">
-        <v>4229</v>
+        <v>925</v>
       </c>
       <c r="L51" t="n">
-        <v>4198</v>
+        <v>1040</v>
       </c>
       <c r="M51" t="inlineStr">
         <is>
-          <t>municipale</t>
+          <t>regional</t>
         </is>
       </c>
     </row>
@@ -2631,7 +2647,7 @@
         <v>50</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>42848</v>
+        <v>41070</v>
       </c>
       <c r="C52" t="inlineStr">
         <is>
@@ -2639,33 +2655,35 @@
         </is>
       </c>
       <c r="D52" t="n">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="E52" t="n">
-        <v>88639</v>
+        <v>19077</v>
       </c>
       <c r="F52" t="n">
-        <v>21681</v>
+        <v>235</v>
       </c>
       <c r="G52" t="n">
-        <v>10511</v>
-      </c>
-      <c r="H52" t="inlineStr"/>
+        <v>3992</v>
+      </c>
+      <c r="H52" t="n">
+        <v>385</v>
+      </c>
       <c r="I52" t="n">
-        <v>30719</v>
+        <v>565</v>
       </c>
       <c r="J52" t="n">
-        <v>15329</v>
+        <v>12334</v>
       </c>
       <c r="K52" t="n">
-        <v>5745</v>
+        <v>930</v>
       </c>
       <c r="L52" t="n">
-        <v>4654</v>
+        <v>636</v>
       </c>
       <c r="M52" t="inlineStr">
         <is>
-          <t>president</t>
+          <t>legislative</t>
         </is>
       </c>
     </row>
@@ -2674,7 +2692,7 @@
         <v>51</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>42897</v>
+        <v>41723</v>
       </c>
       <c r="C53" t="inlineStr">
         <is>
@@ -2682,35 +2700,33 @@
         </is>
       </c>
       <c r="D53" t="n">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="E53" t="n">
-        <v>59432</v>
+        <v>17910</v>
       </c>
       <c r="F53" t="n">
-        <v>9039</v>
+        <v>198</v>
       </c>
       <c r="G53" t="n">
-        <v>6487</v>
+        <v>3031</v>
       </c>
       <c r="H53" t="n">
-        <v>5496</v>
-      </c>
-      <c r="I53" t="n">
-        <v>23025</v>
-      </c>
+        <v>546</v>
+      </c>
+      <c r="I53" t="inlineStr"/>
       <c r="J53" t="n">
-        <v>5933</v>
+        <v>7345</v>
       </c>
       <c r="K53" t="n">
-        <v>2609</v>
+        <v>1066</v>
       </c>
       <c r="L53" t="n">
-        <v>6843</v>
+        <v>5724</v>
       </c>
       <c r="M53" t="inlineStr">
         <is>
-          <t>legislative</t>
+          <t>municipale</t>
         </is>
       </c>
     </row>
@@ -2719,7 +2735,7 @@
         <v>52</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>39591</v>
+        <v>41784</v>
       </c>
       <c r="C54" t="inlineStr">
         <is>
@@ -2727,35 +2743,35 @@
         </is>
       </c>
       <c r="D54" t="n">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="E54" t="n">
-        <v>48193</v>
+        <v>17187</v>
       </c>
       <c r="F54" t="n">
-        <v>1806</v>
+        <v>216</v>
       </c>
       <c r="G54" t="n">
-        <v>21699</v>
+        <v>1838</v>
       </c>
       <c r="H54" t="n">
-        <v>3871</v>
+        <v>938</v>
       </c>
       <c r="I54" t="n">
-        <v>6711</v>
+        <v>2784</v>
       </c>
       <c r="J54" t="n">
-        <v>11465</v>
+        <v>6793</v>
       </c>
       <c r="K54" t="n">
-        <v>1457</v>
+        <v>1722</v>
       </c>
       <c r="L54" t="n">
-        <v>1184</v>
+        <v>2896</v>
       </c>
       <c r="M54" t="inlineStr">
         <is>
-          <t>municipale</t>
+          <t>european</t>
         </is>
       </c>
     </row>
@@ -2764,7 +2780,7 @@
         <v>53</v>
       </c>
       <c r="B55" s="2" t="n">
-        <v>41723</v>
+        <v>42344</v>
       </c>
       <c r="C55" t="inlineStr">
         <is>
@@ -2772,33 +2788,33 @@
         </is>
       </c>
       <c r="D55" t="n">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="E55" t="n">
-        <v>47477</v>
+        <v>16549</v>
       </c>
       <c r="F55" t="n">
-        <v>2489</v>
+        <v>263</v>
       </c>
       <c r="G55" t="n">
-        <v>17990</v>
+        <v>2769</v>
       </c>
       <c r="H55" t="n">
-        <v>4168</v>
+        <v>784</v>
       </c>
       <c r="I55" t="inlineStr"/>
       <c r="J55" t="n">
-        <v>15717</v>
+        <v>9699</v>
       </c>
       <c r="K55" t="n">
-        <v>2727</v>
+        <v>1654</v>
       </c>
       <c r="L55" t="n">
-        <v>4386</v>
+        <v>1380</v>
       </c>
       <c r="M55" t="inlineStr">
         <is>
-          <t>municipale</t>
+          <t>regional</t>
         </is>
       </c>
     </row>
@@ -2815,29 +2831,29 @@
         </is>
       </c>
       <c r="D56" t="n">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="E56" t="n">
-        <v>69461</v>
+        <v>27798</v>
       </c>
       <c r="F56" t="n">
-        <v>13382</v>
+        <v>1552</v>
       </c>
       <c r="G56" t="n">
-        <v>8003</v>
+        <v>1068</v>
       </c>
       <c r="H56" t="inlineStr"/>
       <c r="I56" t="n">
-        <v>25834</v>
+        <v>8785</v>
       </c>
       <c r="J56" t="n">
-        <v>15475</v>
+        <v>14650</v>
       </c>
       <c r="K56" t="n">
-        <v>3711</v>
+        <v>1064</v>
       </c>
       <c r="L56" t="n">
-        <v>3056</v>
+        <v>679</v>
       </c>
       <c r="M56" t="inlineStr">
         <is>
@@ -2858,31 +2874,31 @@
         </is>
       </c>
       <c r="D57" t="n">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="E57" t="n">
-        <v>49176</v>
+        <v>19353</v>
       </c>
       <c r="F57" t="n">
-        <v>5045</v>
+        <v>471</v>
       </c>
       <c r="G57" t="n">
-        <v>7195</v>
+        <v>547</v>
       </c>
       <c r="H57" t="n">
-        <v>3734</v>
+        <v>387</v>
       </c>
       <c r="I57" t="n">
-        <v>19877</v>
+        <v>8441</v>
       </c>
       <c r="J57" t="n">
-        <v>7193</v>
+        <v>5124</v>
       </c>
       <c r="K57" t="n">
-        <v>1614</v>
+        <v>491</v>
       </c>
       <c r="L57" t="n">
-        <v>4518</v>
+        <v>3892</v>
       </c>
       <c r="M57" t="inlineStr">
         <is>
@@ -2903,31 +2919,29 @@
         </is>
       </c>
       <c r="D58" t="n">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="E58" t="n">
-        <v>78942</v>
-      </c>
-      <c r="F58" t="n">
-        <v>1764</v>
-      </c>
+        <v>12325</v>
+      </c>
+      <c r="F58" t="inlineStr"/>
       <c r="G58" t="n">
-        <v>28313</v>
+        <v>2302</v>
       </c>
       <c r="H58" t="n">
-        <v>3157</v>
+        <v>318</v>
       </c>
       <c r="I58" t="n">
-        <v>5885</v>
+        <v>808</v>
       </c>
       <c r="J58" t="n">
-        <v>26794</v>
+        <v>4119</v>
       </c>
       <c r="K58" t="n">
-        <v>2364</v>
+        <v>293</v>
       </c>
       <c r="L58" t="n">
-        <v>10665</v>
+        <v>4485</v>
       </c>
       <c r="M58" t="inlineStr">
         <is>
@@ -2940,7 +2954,7 @@
         <v>57</v>
       </c>
       <c r="B59" s="2" t="n">
-        <v>41723</v>
+        <v>40251</v>
       </c>
       <c r="C59" t="inlineStr">
         <is>
@@ -2948,33 +2962,35 @@
         </is>
       </c>
       <c r="D59" t="n">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="E59" t="n">
-        <v>80191</v>
+        <v>10147</v>
       </c>
       <c r="F59" t="n">
-        <v>2150</v>
+        <v>226</v>
       </c>
       <c r="G59" t="n">
-        <v>23336</v>
+        <v>1351</v>
       </c>
       <c r="H59" t="n">
-        <v>3582</v>
-      </c>
-      <c r="I59" t="inlineStr"/>
+        <v>1304</v>
+      </c>
+      <c r="I59" t="n">
+        <v>413</v>
+      </c>
       <c r="J59" t="n">
-        <v>38943</v>
+        <v>5436</v>
       </c>
       <c r="K59" t="n">
-        <v>5060</v>
+        <v>676</v>
       </c>
       <c r="L59" t="n">
-        <v>7120</v>
+        <v>741</v>
       </c>
       <c r="M59" t="inlineStr">
         <is>
-          <t>municipale</t>
+          <t>regional</t>
         </is>
       </c>
     </row>
@@ -2983,7 +2999,7 @@
         <v>58</v>
       </c>
       <c r="B60" s="2" t="n">
-        <v>42848</v>
+        <v>41070</v>
       </c>
       <c r="C60" t="inlineStr">
         <is>
@@ -2991,33 +3007,35 @@
         </is>
       </c>
       <c r="D60" t="n">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="E60" t="n">
-        <v>118947</v>
+        <v>13548</v>
       </c>
       <c r="F60" t="n">
-        <v>15608</v>
+        <v>167</v>
       </c>
       <c r="G60" t="n">
-        <v>9085</v>
-      </c>
-      <c r="H60" t="inlineStr"/>
+        <v>2744</v>
+      </c>
+      <c r="H60" t="n">
+        <v>379</v>
+      </c>
       <c r="I60" t="n">
-        <v>42790</v>
+        <v>393</v>
       </c>
       <c r="J60" t="n">
-        <v>40235</v>
+        <v>7678</v>
       </c>
       <c r="K60" t="n">
-        <v>6257</v>
+        <v>722</v>
       </c>
       <c r="L60" t="n">
-        <v>4972</v>
+        <v>1465</v>
       </c>
       <c r="M60" t="inlineStr">
         <is>
-          <t>president</t>
+          <t>legislative</t>
         </is>
       </c>
     </row>
@@ -3026,7 +3044,7 @@
         <v>59</v>
       </c>
       <c r="B61" s="2" t="n">
-        <v>42897</v>
+        <v>41723</v>
       </c>
       <c r="C61" t="inlineStr">
         <is>
@@ -3034,35 +3052,33 @@
         </is>
       </c>
       <c r="D61" t="n">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="E61" t="n">
-        <v>85143</v>
+        <v>12622</v>
       </c>
       <c r="F61" t="n">
-        <v>5707</v>
+        <v>178</v>
       </c>
       <c r="G61" t="n">
-        <v>5669</v>
+        <v>1944</v>
       </c>
       <c r="H61" t="n">
-        <v>3226</v>
-      </c>
-      <c r="I61" t="n">
-        <v>38346</v>
-      </c>
+        <v>442</v>
+      </c>
+      <c r="I61" t="inlineStr"/>
       <c r="J61" t="n">
-        <v>24396</v>
+        <v>5884</v>
       </c>
       <c r="K61" t="n">
-        <v>2678</v>
+        <v>602</v>
       </c>
       <c r="L61" t="n">
-        <v>5121</v>
+        <v>3572</v>
       </c>
       <c r="M61" t="inlineStr">
         <is>
-          <t>legislative</t>
+          <t>municipale</t>
         </is>
       </c>
     </row>
@@ -3071,7 +3087,7 @@
         <v>60</v>
       </c>
       <c r="B62" s="2" t="n">
-        <v>39591</v>
+        <v>41784</v>
       </c>
       <c r="C62" t="inlineStr">
         <is>
@@ -3079,33 +3095,35 @@
         </is>
       </c>
       <c r="D62" t="n">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="E62" t="n">
-        <v>45968</v>
-      </c>
-      <c r="F62" t="inlineStr"/>
+        <v>11741</v>
+      </c>
+      <c r="F62" t="n">
+        <v>154</v>
+      </c>
       <c r="G62" t="n">
-        <v>7851</v>
+        <v>1208</v>
       </c>
       <c r="H62" t="n">
-        <v>1114</v>
+        <v>616</v>
       </c>
       <c r="I62" t="n">
-        <v>3972</v>
+        <v>1885</v>
       </c>
       <c r="J62" t="n">
-        <v>23768</v>
+        <v>4671</v>
       </c>
       <c r="K62" t="n">
-        <v>1678</v>
+        <v>1168</v>
       </c>
       <c r="L62" t="n">
-        <v>7585</v>
+        <v>2039</v>
       </c>
       <c r="M62" t="inlineStr">
         <is>
-          <t>municipale</t>
+          <t>european</t>
         </is>
       </c>
     </row>
@@ -3114,7 +3132,7 @@
         <v>61</v>
       </c>
       <c r="B63" s="2" t="n">
-        <v>41723</v>
+        <v>42344</v>
       </c>
       <c r="C63" t="inlineStr">
         <is>
@@ -3122,33 +3140,33 @@
         </is>
       </c>
       <c r="D63" t="n">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="E63" t="n">
-        <v>47741</v>
+        <v>11568</v>
       </c>
       <c r="F63" t="n">
-        <v>497</v>
+        <v>176</v>
       </c>
       <c r="G63" t="n">
-        <v>6197</v>
+        <v>1961</v>
       </c>
       <c r="H63" t="n">
-        <v>1103</v>
+        <v>589</v>
       </c>
       <c r="I63" t="inlineStr"/>
       <c r="J63" t="n">
-        <v>30100</v>
+        <v>6611</v>
       </c>
       <c r="K63" t="n">
-        <v>2865</v>
+        <v>1215</v>
       </c>
       <c r="L63" t="n">
-        <v>6979</v>
+        <v>1016</v>
       </c>
       <c r="M63" t="inlineStr">
         <is>
-          <t>municipale</t>
+          <t>regional</t>
         </is>
       </c>
     </row>
@@ -3165,29 +3183,29 @@
         </is>
       </c>
       <c r="D64" t="n">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="E64" t="n">
-        <v>79954</v>
+        <v>20698</v>
       </c>
       <c r="F64" t="n">
-        <v>4315</v>
+        <v>1392</v>
       </c>
       <c r="G64" t="n">
-        <v>2353</v>
+        <v>849</v>
       </c>
       <c r="H64" t="inlineStr"/>
       <c r="I64" t="n">
-        <v>21304</v>
+        <v>6568</v>
       </c>
       <c r="J64" t="n">
-        <v>46734</v>
+        <v>10448</v>
       </c>
       <c r="K64" t="n">
-        <v>3273</v>
+        <v>916</v>
       </c>
       <c r="L64" t="n">
-        <v>1975</v>
+        <v>525</v>
       </c>
       <c r="M64" t="inlineStr">
         <is>
@@ -3208,31 +3226,31 @@
         </is>
       </c>
       <c r="D65" t="n">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="E65" t="n">
-        <v>51079</v>
+        <v>13666</v>
       </c>
       <c r="F65" t="n">
-        <v>1161</v>
+        <v>389</v>
       </c>
       <c r="G65" t="n">
-        <v>1157</v>
+        <v>452</v>
       </c>
       <c r="H65" t="n">
-        <v>803</v>
+        <v>355</v>
       </c>
       <c r="I65" t="n">
-        <v>22759</v>
+        <v>6959</v>
       </c>
       <c r="J65" t="n">
-        <v>19453</v>
+        <v>3219</v>
       </c>
       <c r="K65" t="n">
-        <v>1675</v>
+        <v>344</v>
       </c>
       <c r="L65" t="n">
-        <v>4071</v>
+        <v>1948</v>
       </c>
       <c r="M65" t="inlineStr">
         <is>
@@ -3253,28 +3271,28 @@
         </is>
       </c>
       <c r="D66" t="n">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="E66" t="n">
-        <v>49965</v>
+        <v>20643</v>
       </c>
       <c r="F66" t="n">
-        <v>568</v>
+        <v>602</v>
       </c>
       <c r="G66" t="n">
-        <v>18089</v>
+        <v>10163</v>
       </c>
       <c r="H66" t="n">
-        <v>2279</v>
+        <v>1299</v>
       </c>
       <c r="I66" t="n">
-        <v>4935</v>
+        <v>1659</v>
       </c>
       <c r="J66" t="n">
-        <v>22002</v>
+        <v>6353</v>
       </c>
       <c r="K66" t="n">
-        <v>2092</v>
+        <v>567</v>
       </c>
       <c r="L66" t="n">
         <v>0</v>
@@ -3290,7 +3308,7 @@
         <v>65</v>
       </c>
       <c r="B67" s="2" t="n">
-        <v>41723</v>
+        <v>40251</v>
       </c>
       <c r="C67" t="inlineStr">
         <is>
@@ -3298,33 +3316,35 @@
         </is>
       </c>
       <c r="D67" t="n">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="E67" t="n">
-        <v>50128</v>
+        <v>16487</v>
       </c>
       <c r="F67" t="n">
-        <v>1544</v>
+        <v>1135</v>
       </c>
       <c r="G67" t="n">
-        <v>12727</v>
+        <v>4274</v>
       </c>
       <c r="H67" t="n">
-        <v>3302</v>
-      </c>
-      <c r="I67" t="inlineStr"/>
+        <v>4002</v>
+      </c>
+      <c r="I67" t="n">
+        <v>687</v>
+      </c>
       <c r="J67" t="n">
-        <v>26836</v>
+        <v>4752</v>
       </c>
       <c r="K67" t="n">
-        <v>3234</v>
+        <v>834</v>
       </c>
       <c r="L67" t="n">
-        <v>2485</v>
+        <v>803</v>
       </c>
       <c r="M67" t="inlineStr">
         <is>
-          <t>municipale</t>
+          <t>regional</t>
         </is>
       </c>
     </row>
@@ -3333,7 +3353,7 @@
         <v>66</v>
       </c>
       <c r="B68" s="2" t="n">
-        <v>42848</v>
+        <v>41070</v>
       </c>
       <c r="C68" t="inlineStr">
         <is>
@@ -3341,33 +3361,35 @@
         </is>
       </c>
       <c r="D68" t="n">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="E68" t="n">
-        <v>82482</v>
+        <v>21936</v>
       </c>
       <c r="F68" t="n">
-        <v>10677</v>
+        <v>1027</v>
       </c>
       <c r="G68" t="n">
-        <v>5669</v>
-      </c>
-      <c r="H68" t="inlineStr"/>
+        <v>9225</v>
+      </c>
+      <c r="H68" t="n">
+        <v>1408</v>
+      </c>
       <c r="I68" t="n">
-        <v>28423</v>
+        <v>787</v>
       </c>
       <c r="J68" t="n">
-        <v>31103</v>
+        <v>7410</v>
       </c>
       <c r="K68" t="n">
-        <v>3786</v>
+        <v>940</v>
       </c>
       <c r="L68" t="n">
-        <v>2824</v>
+        <v>1139</v>
       </c>
       <c r="M68" t="inlineStr">
         <is>
-          <t>president</t>
+          <t>legislative</t>
         </is>
       </c>
     </row>
@@ -3376,7 +3398,7 @@
         <v>67</v>
       </c>
       <c r="B69" s="2" t="n">
-        <v>42897</v>
+        <v>41723</v>
       </c>
       <c r="C69" t="inlineStr">
         <is>
@@ -3384,35 +3406,33 @@
         </is>
       </c>
       <c r="D69" t="n">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="E69" t="n">
-        <v>56199</v>
+        <v>20751</v>
       </c>
       <c r="F69" t="n">
-        <v>4142</v>
+        <v>772</v>
       </c>
       <c r="G69" t="n">
-        <v>4227</v>
+        <v>8125</v>
       </c>
       <c r="H69" t="n">
-        <v>2040</v>
-      </c>
-      <c r="I69" t="n">
-        <v>26291</v>
-      </c>
+        <v>1663</v>
+      </c>
+      <c r="I69" t="inlineStr"/>
       <c r="J69" t="n">
-        <v>14701</v>
+        <v>8181</v>
       </c>
       <c r="K69" t="n">
-        <v>1655</v>
+        <v>1010</v>
       </c>
       <c r="L69" t="n">
-        <v>3143</v>
+        <v>1000</v>
       </c>
       <c r="M69" t="inlineStr">
         <is>
-          <t>legislative</t>
+          <t>municipale</t>
         </is>
       </c>
     </row>
@@ -3421,7 +3441,7 @@
         <v>68</v>
       </c>
       <c r="B70" s="2" t="n">
-        <v>39591</v>
+        <v>41784</v>
       </c>
       <c r="C70" t="inlineStr">
         <is>
@@ -3429,35 +3449,35 @@
         </is>
       </c>
       <c r="D70" t="n">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="E70" t="n">
-        <v>52044</v>
+        <v>19454</v>
       </c>
       <c r="F70" t="n">
-        <v>3302</v>
+        <v>767</v>
       </c>
       <c r="G70" t="n">
-        <v>25791</v>
+        <v>3938</v>
       </c>
       <c r="H70" t="n">
-        <v>5392</v>
+        <v>2813</v>
       </c>
       <c r="I70" t="n">
-        <v>3482</v>
+        <v>2858</v>
       </c>
       <c r="J70" t="n">
-        <v>10018</v>
+        <v>4388</v>
       </c>
       <c r="K70" t="n">
-        <v>1823</v>
+        <v>1474</v>
       </c>
       <c r="L70" t="n">
-        <v>2236</v>
+        <v>3216</v>
       </c>
       <c r="M70" t="inlineStr">
         <is>
-          <t>municipale</t>
+          <t>european</t>
         </is>
       </c>
     </row>
@@ -3466,7 +3486,7 @@
         <v>69</v>
       </c>
       <c r="B71" s="2" t="n">
-        <v>41723</v>
+        <v>42344</v>
       </c>
       <c r="C71" t="inlineStr">
         <is>
@@ -3474,33 +3494,33 @@
         </is>
       </c>
       <c r="D71" t="n">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="E71" t="n">
-        <v>51029</v>
+        <v>18823</v>
       </c>
       <c r="F71" t="n">
-        <v>3668</v>
+        <v>951</v>
       </c>
       <c r="G71" t="n">
-        <v>20338</v>
+        <v>6361</v>
       </c>
       <c r="H71" t="n">
-        <v>6457</v>
+        <v>2187</v>
       </c>
       <c r="I71" t="inlineStr"/>
       <c r="J71" t="n">
-        <v>12879</v>
+        <v>6594</v>
       </c>
       <c r="K71" t="n">
-        <v>3460</v>
+        <v>1385</v>
       </c>
       <c r="L71" t="n">
-        <v>4227</v>
+        <v>1345</v>
       </c>
       <c r="M71" t="inlineStr">
         <is>
-          <t>municipale</t>
+          <t>regional</t>
         </is>
       </c>
     </row>
@@ -3517,29 +3537,29 @@
         </is>
       </c>
       <c r="D72" t="n">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="E72" t="n">
-        <v>84099</v>
+        <v>32940</v>
       </c>
       <c r="F72" t="n">
-        <v>23867</v>
+        <v>4783</v>
       </c>
       <c r="G72" t="n">
-        <v>11211</v>
+        <v>3163</v>
       </c>
       <c r="H72" t="inlineStr"/>
       <c r="I72" t="n">
-        <v>28437</v>
+        <v>14029</v>
       </c>
       <c r="J72" t="n">
-        <v>12222</v>
+        <v>8879</v>
       </c>
       <c r="K72" t="n">
-        <v>4595</v>
+        <v>1092</v>
       </c>
       <c r="L72" t="n">
-        <v>3767</v>
+        <v>994</v>
       </c>
       <c r="M72" t="inlineStr">
         <is>
@@ -3560,31 +3580,31 @@
         </is>
       </c>
       <c r="D73" t="n">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="E73" t="n">
-        <v>54371</v>
+        <v>23305</v>
       </c>
       <c r="F73" t="n">
-        <v>9339</v>
+        <v>1834</v>
       </c>
       <c r="G73" t="n">
-        <v>8969</v>
+        <v>3050</v>
       </c>
       <c r="H73" t="n">
-        <v>6474</v>
+        <v>1530</v>
       </c>
       <c r="I73" t="n">
-        <v>6828</v>
+        <v>10116</v>
       </c>
       <c r="J73" t="n">
-        <v>12097</v>
+        <v>4134</v>
       </c>
       <c r="K73" t="n">
-        <v>2039</v>
+        <v>494</v>
       </c>
       <c r="L73" t="n">
-        <v>8625</v>
+        <v>2147</v>
       </c>
       <c r="M73" t="inlineStr">
         <is>
@@ -3605,31 +3625,31 @@
         </is>
       </c>
       <c r="D74" t="n">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="E74" t="n">
-        <v>47460</v>
+        <v>28359</v>
       </c>
       <c r="F74" t="n">
-        <v>2710</v>
+        <v>2158</v>
       </c>
       <c r="G74" t="n">
-        <v>24744</v>
+        <v>13766</v>
       </c>
       <c r="H74" t="n">
-        <v>3963</v>
+        <v>2564</v>
       </c>
       <c r="I74" t="n">
-        <v>3238</v>
+        <v>2348</v>
       </c>
       <c r="J74" t="n">
-        <v>10130</v>
+        <v>4513</v>
       </c>
       <c r="K74" t="n">
-        <v>1725</v>
+        <v>837</v>
       </c>
       <c r="L74" t="n">
-        <v>950</v>
+        <v>2173</v>
       </c>
       <c r="M74" t="inlineStr">
         <is>
@@ -3642,7 +3662,7 @@
         <v>73</v>
       </c>
       <c r="B75" s="2" t="n">
-        <v>41723</v>
+        <v>40251</v>
       </c>
       <c r="C75" t="inlineStr">
         <is>
@@ -3650,33 +3670,35 @@
         </is>
       </c>
       <c r="D75" t="n">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="E75" t="n">
-        <v>46307</v>
+        <v>21841</v>
       </c>
       <c r="F75" t="n">
-        <v>3295</v>
+        <v>2628</v>
       </c>
       <c r="G75" t="n">
-        <v>19533</v>
+        <v>6495</v>
       </c>
       <c r="H75" t="n">
-        <v>5956</v>
-      </c>
-      <c r="I75" t="inlineStr"/>
+        <v>6188</v>
+      </c>
+      <c r="I75" t="n">
+        <v>791</v>
+      </c>
       <c r="J75" t="n">
-        <v>11932</v>
+        <v>3747</v>
       </c>
       <c r="K75" t="n">
-        <v>3678</v>
+        <v>1074</v>
       </c>
       <c r="L75" t="n">
-        <v>1913</v>
+        <v>918</v>
       </c>
       <c r="M75" t="inlineStr">
         <is>
-          <t>municipale</t>
+          <t>regional</t>
         </is>
       </c>
     </row>
@@ -3685,7 +3707,7 @@
         <v>74</v>
       </c>
       <c r="B76" s="2" t="n">
-        <v>42848</v>
+        <v>41070</v>
       </c>
       <c r="C76" t="inlineStr">
         <is>
@@ -3693,33 +3715,35 @@
         </is>
       </c>
       <c r="D76" t="n">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="E76" t="n">
-        <v>79665</v>
+        <v>29565</v>
       </c>
       <c r="F76" t="n">
-        <v>24455</v>
+        <v>4093</v>
       </c>
       <c r="G76" t="n">
-        <v>10352</v>
-      </c>
-      <c r="H76" t="inlineStr"/>
+        <v>13001</v>
+      </c>
+      <c r="H76" t="n">
+        <v>2910</v>
+      </c>
       <c r="I76" t="n">
-        <v>23578</v>
+        <v>1377</v>
       </c>
       <c r="J76" t="n">
-        <v>12977</v>
+        <v>5704</v>
       </c>
       <c r="K76" t="n">
-        <v>4602</v>
+        <v>1485</v>
       </c>
       <c r="L76" t="n">
-        <v>3701</v>
+        <v>995</v>
       </c>
       <c r="M76" t="inlineStr">
         <is>
-          <t>president</t>
+          <t>legislative</t>
         </is>
       </c>
     </row>
@@ -3728,7 +3752,7 @@
         <v>75</v>
       </c>
       <c r="B77" s="2" t="n">
-        <v>42897</v>
+        <v>41723</v>
       </c>
       <c r="C77" t="inlineStr">
         <is>
@@ -3736,35 +3760,33 @@
         </is>
       </c>
       <c r="D77" t="n">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="E77" t="n">
-        <v>50024</v>
+        <v>26993</v>
       </c>
       <c r="F77" t="n">
-        <v>9798</v>
+        <v>1730</v>
       </c>
       <c r="G77" t="n">
-        <v>4488</v>
+        <v>11973</v>
       </c>
       <c r="H77" t="n">
-        <v>5463</v>
-      </c>
-      <c r="I77" t="n">
-        <v>18429</v>
-      </c>
+        <v>3102</v>
+      </c>
+      <c r="I77" t="inlineStr"/>
       <c r="J77" t="n">
-        <v>3790</v>
+        <v>5798</v>
       </c>
       <c r="K77" t="n">
-        <v>2129</v>
+        <v>1460</v>
       </c>
       <c r="L77" t="n">
-        <v>5927</v>
+        <v>2930</v>
       </c>
       <c r="M77" t="inlineStr">
         <is>
-          <t>legislative</t>
+          <t>municipale</t>
         </is>
       </c>
     </row>
@@ -3773,7 +3795,7 @@
         <v>76</v>
       </c>
       <c r="B78" s="2" t="n">
-        <v>39591</v>
+        <v>41784</v>
       </c>
       <c r="C78" t="inlineStr">
         <is>
@@ -3781,35 +3803,35 @@
         </is>
       </c>
       <c r="D78" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="E78" t="n">
-        <v>56285</v>
+        <v>25376</v>
       </c>
       <c r="F78" t="n">
-        <v>4776</v>
+        <v>2098</v>
       </c>
       <c r="G78" t="n">
-        <v>21568</v>
+        <v>5889</v>
       </c>
       <c r="H78" t="n">
-        <v>5329</v>
+        <v>5343</v>
       </c>
       <c r="I78" t="n">
-        <v>4114</v>
+        <v>2776</v>
       </c>
       <c r="J78" t="n">
-        <v>4076</v>
+        <v>3244</v>
       </c>
       <c r="K78" t="n">
-        <v>2033</v>
+        <v>1680</v>
       </c>
       <c r="L78" t="n">
-        <v>14389</v>
+        <v>4346</v>
       </c>
       <c r="M78" t="inlineStr">
         <is>
-          <t>municipale</t>
+          <t>european</t>
         </is>
       </c>
     </row>
@@ -3818,7 +3840,7 @@
         <v>77</v>
       </c>
       <c r="B79" s="2" t="n">
-        <v>41723</v>
+        <v>42344</v>
       </c>
       <c r="C79" t="inlineStr">
         <is>
@@ -3826,33 +3848,33 @@
         </is>
       </c>
       <c r="D79" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="E79" t="n">
-        <v>54966</v>
+        <v>24800</v>
       </c>
       <c r="F79" t="n">
-        <v>5692</v>
+        <v>2513</v>
       </c>
       <c r="G79" t="n">
-        <v>20502</v>
+        <v>9789</v>
       </c>
       <c r="H79" t="n">
-        <v>5990</v>
+        <v>3946</v>
       </c>
       <c r="I79" t="inlineStr"/>
       <c r="J79" t="n">
-        <v>11467</v>
+        <v>4921</v>
       </c>
       <c r="K79" t="n">
-        <v>4112</v>
+        <v>1811</v>
       </c>
       <c r="L79" t="n">
-        <v>7203</v>
+        <v>1820</v>
       </c>
       <c r="M79" t="inlineStr">
         <is>
-          <t>municipale</t>
+          <t>regional</t>
         </is>
       </c>
     </row>
@@ -3869,29 +3891,29 @@
         </is>
       </c>
       <c r="D80" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="E80" t="n">
-        <v>89574</v>
+        <v>44766</v>
       </c>
       <c r="F80" t="n">
-        <v>28512</v>
+        <v>11396</v>
       </c>
       <c r="G80" t="n">
-        <v>12469</v>
+        <v>6343</v>
       </c>
       <c r="H80" t="inlineStr"/>
       <c r="I80" t="n">
-        <v>27399</v>
+        <v>16880</v>
       </c>
       <c r="J80" t="n">
-        <v>11451</v>
+        <v>6724</v>
       </c>
       <c r="K80" t="n">
-        <v>5305</v>
+        <v>1817</v>
       </c>
       <c r="L80" t="n">
-        <v>4438</v>
+        <v>1606</v>
       </c>
       <c r="M80" t="inlineStr">
         <is>
@@ -3912,33 +3934,3571 @@
         </is>
       </c>
       <c r="D81" t="n">
+        <v>10</v>
+      </c>
+      <c r="E81" t="n">
+        <v>31101</v>
+      </c>
+      <c r="F81" t="n">
+        <v>4202</v>
+      </c>
+      <c r="G81" t="n">
+        <v>3866</v>
+      </c>
+      <c r="H81" t="n">
+        <v>4551</v>
+      </c>
+      <c r="I81" t="n">
+        <v>12734</v>
+      </c>
+      <c r="J81" t="n">
+        <v>2280</v>
+      </c>
+      <c r="K81" t="n">
+        <v>900</v>
+      </c>
+      <c r="L81" t="n">
+        <v>2568</v>
+      </c>
+      <c r="M81" t="inlineStr">
+        <is>
+          <t>legislative</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="1" t="n">
+        <v>80</v>
+      </c>
+      <c r="B82" s="2" t="n">
+        <v>39591</v>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>Paris</t>
+        </is>
+      </c>
+      <c r="D82" t="n">
+        <v>11</v>
+      </c>
+      <c r="E82" t="n">
+        <v>47031</v>
+      </c>
+      <c r="F82" t="n">
+        <v>2672</v>
+      </c>
+      <c r="G82" t="n">
+        <v>25894</v>
+      </c>
+      <c r="H82" t="n">
+        <v>3726</v>
+      </c>
+      <c r="I82" t="n">
+        <v>4067</v>
+      </c>
+      <c r="J82" t="n">
+        <v>9315</v>
+      </c>
+      <c r="K82" t="n">
+        <v>1357</v>
+      </c>
+      <c r="L82" t="n">
+        <v>0</v>
+      </c>
+      <c r="M82" t="inlineStr">
+        <is>
+          <t>municipale</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="1" t="n">
+        <v>81</v>
+      </c>
+      <c r="B83" s="2" t="n">
+        <v>40251</v>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>Paris</t>
+        </is>
+      </c>
+      <c r="D83" t="n">
+        <v>11</v>
+      </c>
+      <c r="E83" t="n">
+        <v>38646</v>
+      </c>
+      <c r="F83" t="n">
+        <v>4234</v>
+      </c>
+      <c r="G83" t="n">
+        <v>12195</v>
+      </c>
+      <c r="H83" t="n">
+        <v>10142</v>
+      </c>
+      <c r="I83" t="n">
+        <v>1476</v>
+      </c>
+      <c r="J83" t="n">
+        <v>7160</v>
+      </c>
+      <c r="K83" t="n">
+        <v>1865</v>
+      </c>
+      <c r="L83" t="n">
+        <v>1574</v>
+      </c>
+      <c r="M83" t="inlineStr">
+        <is>
+          <t>regional</t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="1" t="n">
+        <v>82</v>
+      </c>
+      <c r="B84" s="2" t="n">
+        <v>41070</v>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>Paris</t>
+        </is>
+      </c>
+      <c r="D84" t="n">
+        <v>11</v>
+      </c>
+      <c r="E84" t="n">
+        <v>51486</v>
+      </c>
+      <c r="F84" t="n">
+        <v>5684</v>
+      </c>
+      <c r="G84" t="n">
+        <v>11880</v>
+      </c>
+      <c r="H84" t="n">
+        <v>15989</v>
+      </c>
+      <c r="I84" t="n">
+        <v>1646</v>
+      </c>
+      <c r="J84" t="n">
+        <v>10783</v>
+      </c>
+      <c r="K84" t="n">
+        <v>2319</v>
+      </c>
+      <c r="L84" t="n">
+        <v>3185</v>
+      </c>
+      <c r="M84" t="inlineStr">
+        <is>
+          <t>legislative</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="1" t="n">
+        <v>83</v>
+      </c>
+      <c r="B85" s="2" t="n">
+        <v>41723</v>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>Paris</t>
+        </is>
+      </c>
+      <c r="D85" t="n">
+        <v>11</v>
+      </c>
+      <c r="E85" t="n">
+        <v>45861</v>
+      </c>
+      <c r="F85" t="n">
+        <v>2879</v>
+      </c>
+      <c r="G85" t="n">
+        <v>20524</v>
+      </c>
+      <c r="H85" t="n">
+        <v>5301</v>
+      </c>
+      <c r="I85" t="inlineStr"/>
+      <c r="J85" t="n">
+        <v>12304</v>
+      </c>
+      <c r="K85" t="n">
+        <v>2512</v>
+      </c>
+      <c r="L85" t="n">
+        <v>2341</v>
+      </c>
+      <c r="M85" t="inlineStr">
+        <is>
+          <t>municipale</t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="1" t="n">
+        <v>84</v>
+      </c>
+      <c r="B86" s="2" t="n">
+        <v>41784</v>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>Paris</t>
+        </is>
+      </c>
+      <c r="D86" t="n">
+        <v>11</v>
+      </c>
+      <c r="E86" t="n">
+        <v>42936</v>
+      </c>
+      <c r="F86" t="n">
+        <v>3193</v>
+      </c>
+      <c r="G86" t="n">
+        <v>10260</v>
+      </c>
+      <c r="H86" t="n">
+        <v>8033</v>
+      </c>
+      <c r="I86" t="n">
+        <v>4701</v>
+      </c>
+      <c r="J86" t="n">
+        <v>6442</v>
+      </c>
+      <c r="K86" t="n">
+        <v>2978</v>
+      </c>
+      <c r="L86" t="n">
+        <v>7329</v>
+      </c>
+      <c r="M86" t="inlineStr">
+        <is>
+          <t>european</t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="1" t="n">
+        <v>85</v>
+      </c>
+      <c r="B87" s="2" t="n">
+        <v>42344</v>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>Paris</t>
+        </is>
+      </c>
+      <c r="D87" t="n">
+        <v>11</v>
+      </c>
+      <c r="E87" t="n">
+        <v>42247</v>
+      </c>
+      <c r="F87" t="n">
+        <v>3843</v>
+      </c>
+      <c r="G87" t="n">
+        <v>16918</v>
+      </c>
+      <c r="H87" t="n">
+        <v>6214</v>
+      </c>
+      <c r="I87" t="inlineStr"/>
+      <c r="J87" t="n">
+        <v>8984</v>
+      </c>
+      <c r="K87" t="n">
+        <v>3165</v>
+      </c>
+      <c r="L87" t="n">
+        <v>3123</v>
+      </c>
+      <c r="M87" t="inlineStr">
+        <is>
+          <t>regional</t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="1" t="n">
+        <v>86</v>
+      </c>
+      <c r="B88" s="2" t="n">
+        <v>42848</v>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>Paris</t>
+        </is>
+      </c>
+      <c r="D88" t="n">
+        <v>11</v>
+      </c>
+      <c r="E88" t="n">
+        <v>75237</v>
+      </c>
+      <c r="F88" t="n">
+        <v>17877</v>
+      </c>
+      <c r="G88" t="n">
+        <v>10247</v>
+      </c>
+      <c r="H88" t="inlineStr"/>
+      <c r="I88" t="n">
+        <v>29191</v>
+      </c>
+      <c r="J88" t="n">
+        <v>12136</v>
+      </c>
+      <c r="K88" t="n">
+        <v>3035</v>
+      </c>
+      <c r="L88" t="n">
+        <v>2751</v>
+      </c>
+      <c r="M88" t="inlineStr">
+        <is>
+          <t>president</t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="1" t="n">
+        <v>87</v>
+      </c>
+      <c r="B89" s="2" t="n">
+        <v>42897</v>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>Paris</t>
+        </is>
+      </c>
+      <c r="D89" t="n">
+        <v>11</v>
+      </c>
+      <c r="E89" t="n">
+        <v>52299</v>
+      </c>
+      <c r="F89" t="n">
+        <v>7546</v>
+      </c>
+      <c r="G89" t="n">
+        <v>4521</v>
+      </c>
+      <c r="H89" t="n">
+        <v>6084</v>
+      </c>
+      <c r="I89" t="n">
+        <v>22419</v>
+      </c>
+      <c r="J89" t="n">
+        <v>3530</v>
+      </c>
+      <c r="K89" t="n">
+        <v>1335</v>
+      </c>
+      <c r="L89" t="n">
+        <v>6864</v>
+      </c>
+      <c r="M89" t="inlineStr">
+        <is>
+          <t>legislative</t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="1" t="n">
+        <v>88</v>
+      </c>
+      <c r="B90" s="2" t="n">
+        <v>39591</v>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>Paris</t>
+        </is>
+      </c>
+      <c r="D90" t="n">
+        <v>12</v>
+      </c>
+      <c r="E90" t="n">
+        <v>53146</v>
+      </c>
+      <c r="F90" t="n">
+        <v>2324</v>
+      </c>
+      <c r="G90" t="n">
+        <v>24486</v>
+      </c>
+      <c r="H90" t="n">
+        <v>3125</v>
+      </c>
+      <c r="I90" t="n">
+        <v>5287</v>
+      </c>
+      <c r="J90" t="n">
+        <v>12922</v>
+      </c>
+      <c r="K90" t="n">
+        <v>1550</v>
+      </c>
+      <c r="L90" t="n">
+        <v>3452</v>
+      </c>
+      <c r="M90" t="inlineStr">
+        <is>
+          <t>municipale</t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="1" t="n">
+        <v>89</v>
+      </c>
+      <c r="B91" s="2" t="n">
+        <v>40251</v>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>Paris</t>
+        </is>
+      </c>
+      <c r="D91" t="n">
+        <v>12</v>
+      </c>
+      <c r="E91" t="n">
+        <v>41118</v>
+      </c>
+      <c r="F91" t="n">
+        <v>3844</v>
+      </c>
+      <c r="G91" t="n">
+        <v>11887</v>
+      </c>
+      <c r="H91" t="n">
+        <v>8690</v>
+      </c>
+      <c r="I91" t="n">
+        <v>1784</v>
+      </c>
+      <c r="J91" t="n">
+        <v>10076</v>
+      </c>
+      <c r="K91" t="n">
+        <v>2659</v>
+      </c>
+      <c r="L91" t="n">
+        <v>2178</v>
+      </c>
+      <c r="M91" t="inlineStr">
+        <is>
+          <t>regional</t>
+        </is>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="1" t="n">
+        <v>90</v>
+      </c>
+      <c r="B92" s="2" t="n">
+        <v>41070</v>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>Paris</t>
+        </is>
+      </c>
+      <c r="D92" t="n">
+        <v>12</v>
+      </c>
+      <c r="E92" t="n">
+        <v>53697</v>
+      </c>
+      <c r="F92" t="n">
+        <v>4030</v>
+      </c>
+      <c r="G92" t="n">
+        <v>23036</v>
+      </c>
+      <c r="H92" t="n">
+        <v>3499</v>
+      </c>
+      <c r="I92" t="n">
+        <v>1780</v>
+      </c>
+      <c r="J92" t="n">
+        <v>13879</v>
+      </c>
+      <c r="K92" t="n">
+        <v>3180</v>
+      </c>
+      <c r="L92" t="n">
+        <v>4293</v>
+      </c>
+      <c r="M92" t="inlineStr">
+        <is>
+          <t>legislative</t>
+        </is>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="1" t="n">
+        <v>91</v>
+      </c>
+      <c r="B93" s="2" t="n">
+        <v>41723</v>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>Paris</t>
+        </is>
+      </c>
+      <c r="D93" t="n">
+        <v>12</v>
+      </c>
+      <c r="E93" t="n">
+        <v>49695</v>
+      </c>
+      <c r="F93" t="n">
+        <v>2678</v>
+      </c>
+      <c r="G93" t="n">
+        <v>18585</v>
+      </c>
+      <c r="H93" t="n">
+        <v>5001</v>
+      </c>
+      <c r="I93" t="inlineStr"/>
+      <c r="J93" t="n">
+        <v>16569</v>
+      </c>
+      <c r="K93" t="n">
+        <v>3362</v>
+      </c>
+      <c r="L93" t="n">
+        <v>3500</v>
+      </c>
+      <c r="M93" t="inlineStr">
+        <is>
+          <t>municipale</t>
+        </is>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="1" t="n">
+        <v>92</v>
+      </c>
+      <c r="B94" s="2" t="n">
+        <v>41784</v>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>Paris</t>
+        </is>
+      </c>
+      <c r="D94" t="n">
+        <v>12</v>
+      </c>
+      <c r="E94" t="n">
+        <v>45042</v>
+      </c>
+      <c r="F94" t="n">
+        <v>2911</v>
+      </c>
+      <c r="G94" t="n">
+        <v>9418</v>
+      </c>
+      <c r="H94" t="n">
+        <v>6369</v>
+      </c>
+      <c r="I94" t="n">
+        <v>5688</v>
+      </c>
+      <c r="J94" t="n">
+        <v>8619</v>
+      </c>
+      <c r="K94" t="n">
+        <v>4471</v>
+      </c>
+      <c r="L94" t="n">
+        <v>7566</v>
+      </c>
+      <c r="M94" t="inlineStr">
+        <is>
+          <t>european</t>
+        </is>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="1" t="n">
+        <v>93</v>
+      </c>
+      <c r="B95" s="2" t="n">
+        <v>42344</v>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>Paris</t>
+        </is>
+      </c>
+      <c r="D95" t="n">
+        <v>12</v>
+      </c>
+      <c r="E95" t="n">
+        <v>44269</v>
+      </c>
+      <c r="F95" t="n">
+        <v>3142</v>
+      </c>
+      <c r="G95" t="n">
+        <v>15069</v>
+      </c>
+      <c r="H95" t="n">
+        <v>5077</v>
+      </c>
+      <c r="I95" t="inlineStr"/>
+      <c r="J95" t="n">
+        <v>12624</v>
+      </c>
+      <c r="K95" t="n">
+        <v>4564</v>
+      </c>
+      <c r="L95" t="n">
+        <v>3793</v>
+      </c>
+      <c r="M95" t="inlineStr">
+        <is>
+          <t>regional</t>
+        </is>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="1" t="n">
+        <v>94</v>
+      </c>
+      <c r="B96" s="2" t="n">
+        <v>42848</v>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>Paris</t>
+        </is>
+      </c>
+      <c r="D96" t="n">
+        <v>12</v>
+      </c>
+      <c r="E96" t="n">
+        <v>75050</v>
+      </c>
+      <c r="F96" t="n">
+        <v>15613</v>
+      </c>
+      <c r="G96" t="n">
+        <v>8614</v>
+      </c>
+      <c r="H96" t="inlineStr"/>
+      <c r="I96" t="n">
+        <v>26942</v>
+      </c>
+      <c r="J96" t="n">
+        <v>15918</v>
+      </c>
+      <c r="K96" t="n">
+        <v>4385</v>
+      </c>
+      <c r="L96" t="n">
+        <v>3578</v>
+      </c>
+      <c r="M96" t="inlineStr">
+        <is>
+          <t>president</t>
+        </is>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="1" t="n">
+        <v>95</v>
+      </c>
+      <c r="B97" s="2" t="n">
+        <v>42897</v>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>Paris</t>
+        </is>
+      </c>
+      <c r="D97" t="n">
+        <v>12</v>
+      </c>
+      <c r="E97" t="n">
+        <v>52590</v>
+      </c>
+      <c r="F97" t="n">
+        <v>6755</v>
+      </c>
+      <c r="G97" t="n">
+        <v>7945</v>
+      </c>
+      <c r="H97" t="n">
+        <v>3502</v>
+      </c>
+      <c r="I97" t="n">
+        <v>21162</v>
+      </c>
+      <c r="J97" t="n">
+        <v>7782</v>
+      </c>
+      <c r="K97" t="n">
+        <v>1767</v>
+      </c>
+      <c r="L97" t="n">
+        <v>3677</v>
+      </c>
+      <c r="M97" t="inlineStr">
+        <is>
+          <t>legislative</t>
+        </is>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="1" t="n">
+        <v>96</v>
+      </c>
+      <c r="B98" s="2" t="n">
+        <v>39591</v>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>Paris</t>
+        </is>
+      </c>
+      <c r="D98" t="n">
+        <v>13</v>
+      </c>
+      <c r="E98" t="n">
+        <v>58837</v>
+      </c>
+      <c r="F98" t="n">
+        <v>4608</v>
+      </c>
+      <c r="G98" t="n">
+        <v>29324</v>
+      </c>
+      <c r="H98" t="n">
+        <v>3808</v>
+      </c>
+      <c r="I98" t="n">
+        <v>5320</v>
+      </c>
+      <c r="J98" t="n">
+        <v>12559</v>
+      </c>
+      <c r="K98" t="n">
+        <v>1989</v>
+      </c>
+      <c r="L98" t="n">
+        <v>1229</v>
+      </c>
+      <c r="M98" t="inlineStr">
+        <is>
+          <t>municipale</t>
+        </is>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="1" t="n">
+        <v>97</v>
+      </c>
+      <c r="B99" s="2" t="n">
+        <v>40251</v>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>Paris</t>
+        </is>
+      </c>
+      <c r="D99" t="n">
+        <v>13</v>
+      </c>
+      <c r="E99" t="n">
+        <v>48936</v>
+      </c>
+      <c r="F99" t="n">
+        <v>5644</v>
+      </c>
+      <c r="G99" t="n">
+        <v>16172</v>
+      </c>
+      <c r="H99" t="n">
+        <v>10187</v>
+      </c>
+      <c r="I99" t="n">
+        <v>2124</v>
+      </c>
+      <c r="J99" t="n">
+        <v>9312</v>
+      </c>
+      <c r="K99" t="n">
+        <v>3079</v>
+      </c>
+      <c r="L99" t="n">
+        <v>2418</v>
+      </c>
+      <c r="M99" t="inlineStr">
+        <is>
+          <t>regional</t>
+        </is>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="1" t="n">
+        <v>98</v>
+      </c>
+      <c r="B100" s="2" t="n">
+        <v>41070</v>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>Paris</t>
+        </is>
+      </c>
+      <c r="D100" t="n">
+        <v>13</v>
+      </c>
+      <c r="E100" t="n">
+        <v>62581</v>
+      </c>
+      <c r="F100" t="n">
+        <v>6910</v>
+      </c>
+      <c r="G100" t="n">
+        <v>18372</v>
+      </c>
+      <c r="H100" t="n">
+        <v>13526</v>
+      </c>
+      <c r="I100" t="n">
+        <v>2259</v>
+      </c>
+      <c r="J100" t="n">
+        <v>13828</v>
+      </c>
+      <c r="K100" t="n">
+        <v>4314</v>
+      </c>
+      <c r="L100" t="n">
+        <v>3372</v>
+      </c>
+      <c r="M100" t="inlineStr">
+        <is>
+          <t>legislative</t>
+        </is>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="1" t="n">
+        <v>99</v>
+      </c>
+      <c r="B101" s="2" t="n">
+        <v>41723</v>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>Paris</t>
+        </is>
+      </c>
+      <c r="D101" t="n">
+        <v>13</v>
+      </c>
+      <c r="E101" t="n">
+        <v>56670</v>
+      </c>
+      <c r="F101" t="n">
+        <v>3326</v>
+      </c>
+      <c r="G101" t="n">
+        <v>25193</v>
+      </c>
+      <c r="H101" t="n">
+        <v>5567</v>
+      </c>
+      <c r="I101" t="inlineStr"/>
+      <c r="J101" t="n">
+        <v>14157</v>
+      </c>
+      <c r="K101" t="n">
+        <v>4229</v>
+      </c>
+      <c r="L101" t="n">
+        <v>4198</v>
+      </c>
+      <c r="M101" t="inlineStr">
+        <is>
+          <t>municipale</t>
+        </is>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="1" t="n">
+        <v>100</v>
+      </c>
+      <c r="B102" s="2" t="n">
+        <v>41784</v>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>Paris</t>
+        </is>
+      </c>
+      <c r="D102" t="n">
+        <v>13</v>
+      </c>
+      <c r="E102" t="n">
+        <v>51436</v>
+      </c>
+      <c r="F102" t="n">
+        <v>4089</v>
+      </c>
+      <c r="G102" t="n">
+        <v>11951</v>
+      </c>
+      <c r="H102" t="n">
+        <v>7636</v>
+      </c>
+      <c r="I102" t="n">
+        <v>5868</v>
+      </c>
+      <c r="J102" t="n">
+        <v>7991</v>
+      </c>
+      <c r="K102" t="n">
+        <v>5334</v>
+      </c>
+      <c r="L102" t="n">
+        <v>8567</v>
+      </c>
+      <c r="M102" t="inlineStr">
+        <is>
+          <t>european</t>
+        </is>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="1" t="n">
+        <v>101</v>
+      </c>
+      <c r="B103" s="2" t="n">
+        <v>42344</v>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>Paris</t>
+        </is>
+      </c>
+      <c r="D103" t="n">
+        <v>13</v>
+      </c>
+      <c r="E103" t="n">
+        <v>51064</v>
+      </c>
+      <c r="F103" t="n">
+        <v>4551</v>
+      </c>
+      <c r="G103" t="n">
+        <v>18713</v>
+      </c>
+      <c r="H103" t="n">
+        <v>6151</v>
+      </c>
+      <c r="I103" t="inlineStr"/>
+      <c r="J103" t="n">
+        <v>11546</v>
+      </c>
+      <c r="K103" t="n">
+        <v>5545</v>
+      </c>
+      <c r="L103" t="n">
+        <v>4558</v>
+      </c>
+      <c r="M103" t="inlineStr">
+        <is>
+          <t>regional</t>
+        </is>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="1" t="n">
+        <v>102</v>
+      </c>
+      <c r="B104" s="2" t="n">
+        <v>42848</v>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>Paris</t>
+        </is>
+      </c>
+      <c r="D104" t="n">
+        <v>13</v>
+      </c>
+      <c r="E104" t="n">
+        <v>88639</v>
+      </c>
+      <c r="F104" t="n">
+        <v>21681</v>
+      </c>
+      <c r="G104" t="n">
+        <v>10511</v>
+      </c>
+      <c r="H104" t="inlineStr"/>
+      <c r="I104" t="n">
+        <v>30719</v>
+      </c>
+      <c r="J104" t="n">
+        <v>15329</v>
+      </c>
+      <c r="K104" t="n">
+        <v>5745</v>
+      </c>
+      <c r="L104" t="n">
+        <v>4654</v>
+      </c>
+      <c r="M104" t="inlineStr">
+        <is>
+          <t>president</t>
+        </is>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="1" t="n">
+        <v>103</v>
+      </c>
+      <c r="B105" s="2" t="n">
+        <v>42897</v>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>Paris</t>
+        </is>
+      </c>
+      <c r="D105" t="n">
+        <v>13</v>
+      </c>
+      <c r="E105" t="n">
+        <v>59432</v>
+      </c>
+      <c r="F105" t="n">
+        <v>9039</v>
+      </c>
+      <c r="G105" t="n">
+        <v>6487</v>
+      </c>
+      <c r="H105" t="n">
+        <v>5496</v>
+      </c>
+      <c r="I105" t="n">
+        <v>23025</v>
+      </c>
+      <c r="J105" t="n">
+        <v>5933</v>
+      </c>
+      <c r="K105" t="n">
+        <v>2609</v>
+      </c>
+      <c r="L105" t="n">
+        <v>6843</v>
+      </c>
+      <c r="M105" t="inlineStr">
+        <is>
+          <t>legislative</t>
+        </is>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="1" t="n">
+        <v>104</v>
+      </c>
+      <c r="B106" s="2" t="n">
+        <v>39591</v>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>Paris</t>
+        </is>
+      </c>
+      <c r="D106" t="n">
+        <v>14</v>
+      </c>
+      <c r="E106" t="n">
+        <v>48193</v>
+      </c>
+      <c r="F106" t="n">
+        <v>1806</v>
+      </c>
+      <c r="G106" t="n">
+        <v>21699</v>
+      </c>
+      <c r="H106" t="n">
+        <v>3871</v>
+      </c>
+      <c r="I106" t="n">
+        <v>6711</v>
+      </c>
+      <c r="J106" t="n">
+        <v>11465</v>
+      </c>
+      <c r="K106" t="n">
+        <v>1457</v>
+      </c>
+      <c r="L106" t="n">
+        <v>1184</v>
+      </c>
+      <c r="M106" t="inlineStr">
+        <is>
+          <t>municipale</t>
+        </is>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="1" t="n">
+        <v>105</v>
+      </c>
+      <c r="B107" s="2" t="n">
+        <v>40251</v>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>Paris</t>
+        </is>
+      </c>
+      <c r="D107" t="n">
+        <v>14</v>
+      </c>
+      <c r="E107" t="n">
+        <v>39863</v>
+      </c>
+      <c r="F107" t="n">
+        <v>3551</v>
+      </c>
+      <c r="G107" t="n">
+        <v>12010</v>
+      </c>
+      <c r="H107" t="n">
+        <v>8294</v>
+      </c>
+      <c r="I107" t="n">
+        <v>1826</v>
+      </c>
+      <c r="J107" t="n">
+        <v>9809</v>
+      </c>
+      <c r="K107" t="n">
+        <v>2274</v>
+      </c>
+      <c r="L107" t="n">
+        <v>2099</v>
+      </c>
+      <c r="M107" t="inlineStr">
+        <is>
+          <t>regional</t>
+        </is>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="1" t="n">
+        <v>106</v>
+      </c>
+      <c r="B108" s="2" t="n">
+        <v>41070</v>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>Paris</t>
+        </is>
+      </c>
+      <c r="D108" t="n">
+        <v>14</v>
+      </c>
+      <c r="E108" t="n">
+        <v>50112</v>
+      </c>
+      <c r="F108" t="n">
+        <v>4042</v>
+      </c>
+      <c r="G108" t="n">
+        <v>15045</v>
+      </c>
+      <c r="H108" t="n">
+        <v>9236</v>
+      </c>
+      <c r="I108" t="n">
+        <v>2419</v>
+      </c>
+      <c r="J108" t="n">
+        <v>13529</v>
+      </c>
+      <c r="K108" t="n">
+        <v>2879</v>
+      </c>
+      <c r="L108" t="n">
+        <v>2962</v>
+      </c>
+      <c r="M108" t="inlineStr">
+        <is>
+          <t>legislative</t>
+        </is>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="1" t="n">
+        <v>107</v>
+      </c>
+      <c r="B109" s="2" t="n">
+        <v>41723</v>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>Paris</t>
+        </is>
+      </c>
+      <c r="D109" t="n">
+        <v>14</v>
+      </c>
+      <c r="E109" t="n">
+        <v>47477</v>
+      </c>
+      <c r="F109" t="n">
+        <v>2489</v>
+      </c>
+      <c r="G109" t="n">
+        <v>17990</v>
+      </c>
+      <c r="H109" t="n">
+        <v>4168</v>
+      </c>
+      <c r="I109" t="inlineStr"/>
+      <c r="J109" t="n">
+        <v>15717</v>
+      </c>
+      <c r="K109" t="n">
+        <v>2727</v>
+      </c>
+      <c r="L109" t="n">
+        <v>4386</v>
+      </c>
+      <c r="M109" t="inlineStr">
+        <is>
+          <t>municipale</t>
+        </is>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="1" t="n">
+        <v>108</v>
+      </c>
+      <c r="B110" s="2" t="n">
+        <v>41784</v>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>Paris</t>
+        </is>
+      </c>
+      <c r="D110" t="n">
+        <v>14</v>
+      </c>
+      <c r="E110" t="n">
+        <v>43286</v>
+      </c>
+      <c r="F110" t="n">
+        <v>2589</v>
+      </c>
+      <c r="G110" t="n">
+        <v>9376</v>
+      </c>
+      <c r="H110" t="n">
+        <v>6031</v>
+      </c>
+      <c r="I110" t="n">
+        <v>5874</v>
+      </c>
+      <c r="J110" t="n">
+        <v>8273</v>
+      </c>
+      <c r="K110" t="n">
+        <v>3920</v>
+      </c>
+      <c r="L110" t="n">
+        <v>7223</v>
+      </c>
+      <c r="M110" t="inlineStr">
+        <is>
+          <t>european</t>
+        </is>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="1" t="n">
+        <v>109</v>
+      </c>
+      <c r="B111" s="2" t="n">
+        <v>42344</v>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>Paris</t>
+        </is>
+      </c>
+      <c r="D111" t="n">
+        <v>14</v>
+      </c>
+      <c r="E111" t="n">
+        <v>41759</v>
+      </c>
+      <c r="F111" t="n">
+        <v>2790</v>
+      </c>
+      <c r="G111" t="n">
+        <v>14490</v>
+      </c>
+      <c r="H111" t="n">
+        <v>4792</v>
+      </c>
+      <c r="I111" t="inlineStr"/>
+      <c r="J111" t="n">
+        <v>12291</v>
+      </c>
+      <c r="K111" t="n">
+        <v>3923</v>
+      </c>
+      <c r="L111" t="n">
+        <v>3473</v>
+      </c>
+      <c r="M111" t="inlineStr">
+        <is>
+          <t>regional</t>
+        </is>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="1" t="n">
+        <v>110</v>
+      </c>
+      <c r="B112" s="2" t="n">
+        <v>42848</v>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>Paris</t>
+        </is>
+      </c>
+      <c r="D112" t="n">
+        <v>14</v>
+      </c>
+      <c r="E112" t="n">
+        <v>69461</v>
+      </c>
+      <c r="F112" t="n">
+        <v>13382</v>
+      </c>
+      <c r="G112" t="n">
+        <v>8003</v>
+      </c>
+      <c r="H112" t="inlineStr"/>
+      <c r="I112" t="n">
+        <v>25834</v>
+      </c>
+      <c r="J112" t="n">
+        <v>15475</v>
+      </c>
+      <c r="K112" t="n">
+        <v>3711</v>
+      </c>
+      <c r="L112" t="n">
+        <v>3056</v>
+      </c>
+      <c r="M112" t="inlineStr">
+        <is>
+          <t>president</t>
+        </is>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" s="1" t="n">
+        <v>111</v>
+      </c>
+      <c r="B113" s="2" t="n">
+        <v>42897</v>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>Paris</t>
+        </is>
+      </c>
+      <c r="D113" t="n">
+        <v>14</v>
+      </c>
+      <c r="E113" t="n">
+        <v>49176</v>
+      </c>
+      <c r="F113" t="n">
+        <v>5045</v>
+      </c>
+      <c r="G113" t="n">
+        <v>7195</v>
+      </c>
+      <c r="H113" t="n">
+        <v>3734</v>
+      </c>
+      <c r="I113" t="n">
+        <v>19877</v>
+      </c>
+      <c r="J113" t="n">
+        <v>7193</v>
+      </c>
+      <c r="K113" t="n">
+        <v>1614</v>
+      </c>
+      <c r="L113" t="n">
+        <v>4518</v>
+      </c>
+      <c r="M113" t="inlineStr">
+        <is>
+          <t>legislative</t>
+        </is>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" s="1" t="n">
+        <v>112</v>
+      </c>
+      <c r="B114" s="2" t="n">
+        <v>39591</v>
+      </c>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>Paris</t>
+        </is>
+      </c>
+      <c r="D114" t="n">
+        <v>15</v>
+      </c>
+      <c r="E114" t="n">
+        <v>78942</v>
+      </c>
+      <c r="F114" t="n">
+        <v>1764</v>
+      </c>
+      <c r="G114" t="n">
+        <v>28313</v>
+      </c>
+      <c r="H114" t="n">
+        <v>3157</v>
+      </c>
+      <c r="I114" t="n">
+        <v>5885</v>
+      </c>
+      <c r="J114" t="n">
+        <v>26794</v>
+      </c>
+      <c r="K114" t="n">
+        <v>2364</v>
+      </c>
+      <c r="L114" t="n">
+        <v>10665</v>
+      </c>
+      <c r="M114" t="inlineStr">
+        <is>
+          <t>municipale</t>
+        </is>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" s="1" t="n">
+        <v>113</v>
+      </c>
+      <c r="B115" s="2" t="n">
+        <v>40251</v>
+      </c>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>Paris</t>
+        </is>
+      </c>
+      <c r="D115" t="n">
+        <v>15</v>
+      </c>
+      <c r="E115" t="n">
+        <v>65983</v>
+      </c>
+      <c r="F115" t="n">
+        <v>3500</v>
+      </c>
+      <c r="G115" t="n">
+        <v>15643</v>
+      </c>
+      <c r="H115" t="n">
+        <v>10451</v>
+      </c>
+      <c r="I115" t="n">
+        <v>2851</v>
+      </c>
+      <c r="J115" t="n">
+        <v>24923</v>
+      </c>
+      <c r="K115" t="n">
+        <v>4271</v>
+      </c>
+      <c r="L115" t="n">
+        <v>4344</v>
+      </c>
+      <c r="M115" t="inlineStr">
+        <is>
+          <t>regional</t>
+        </is>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" s="1" t="n">
+        <v>114</v>
+      </c>
+      <c r="B116" s="2" t="n">
+        <v>41070</v>
+      </c>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t>Paris</t>
+        </is>
+      </c>
+      <c r="D116" t="n">
+        <v>15</v>
+      </c>
+      <c r="E116" t="n">
+        <v>85680</v>
+      </c>
+      <c r="F116" t="n">
+        <v>2933</v>
+      </c>
+      <c r="G116" t="n">
+        <v>28960</v>
+      </c>
+      <c r="H116" t="n">
+        <v>2447</v>
+      </c>
+      <c r="I116" t="n">
+        <v>3513</v>
+      </c>
+      <c r="J116" t="n">
+        <v>39458</v>
+      </c>
+      <c r="K116" t="n">
+        <v>4450</v>
+      </c>
+      <c r="L116" t="n">
+        <v>3919</v>
+      </c>
+      <c r="M116" t="inlineStr">
+        <is>
+          <t>legislative</t>
+        </is>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" s="1" t="n">
+        <v>115</v>
+      </c>
+      <c r="B117" s="2" t="n">
+        <v>41723</v>
+      </c>
+      <c r="C117" t="inlineStr">
+        <is>
+          <t>Paris</t>
+        </is>
+      </c>
+      <c r="D117" t="n">
+        <v>15</v>
+      </c>
+      <c r="E117" t="n">
+        <v>80191</v>
+      </c>
+      <c r="F117" t="n">
+        <v>2150</v>
+      </c>
+      <c r="G117" t="n">
+        <v>23336</v>
+      </c>
+      <c r="H117" t="n">
+        <v>3582</v>
+      </c>
+      <c r="I117" t="inlineStr"/>
+      <c r="J117" t="n">
+        <v>38943</v>
+      </c>
+      <c r="K117" t="n">
+        <v>5060</v>
+      </c>
+      <c r="L117" t="n">
+        <v>7120</v>
+      </c>
+      <c r="M117" t="inlineStr">
+        <is>
+          <t>municipale</t>
+        </is>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" s="1" t="n">
+        <v>116</v>
+      </c>
+      <c r="B118" s="2" t="n">
+        <v>41784</v>
+      </c>
+      <c r="C118" t="inlineStr">
+        <is>
+          <t>Paris</t>
+        </is>
+      </c>
+      <c r="D118" t="n">
+        <v>15</v>
+      </c>
+      <c r="E118" t="n">
+        <v>72820</v>
+      </c>
+      <c r="F118" t="n">
+        <v>2471</v>
+      </c>
+      <c r="G118" t="n">
+        <v>12010</v>
+      </c>
+      <c r="H118" t="n">
+        <v>6790</v>
+      </c>
+      <c r="I118" t="n">
+        <v>10882</v>
+      </c>
+      <c r="J118" t="n">
+        <v>21012</v>
+      </c>
+      <c r="K118" t="n">
+        <v>7691</v>
+      </c>
+      <c r="L118" t="n">
+        <v>11964</v>
+      </c>
+      <c r="M118" t="inlineStr">
+        <is>
+          <t>european</t>
+        </is>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" s="1" t="n">
+        <v>117</v>
+      </c>
+      <c r="B119" s="2" t="n">
+        <v>42344</v>
+      </c>
+      <c r="C119" t="inlineStr">
+        <is>
+          <t>Paris</t>
+        </is>
+      </c>
+      <c r="D119" t="n">
+        <v>15</v>
+      </c>
+      <c r="E119" t="n">
+        <v>70736</v>
+      </c>
+      <c r="F119" t="n">
+        <v>2701</v>
+      </c>
+      <c r="G119" t="n">
+        <v>18448</v>
+      </c>
+      <c r="H119" t="n">
+        <v>5398</v>
+      </c>
+      <c r="I119" t="inlineStr"/>
+      <c r="J119" t="n">
+        <v>29965</v>
+      </c>
+      <c r="K119" t="n">
+        <v>7682</v>
+      </c>
+      <c r="L119" t="n">
+        <v>6542</v>
+      </c>
+      <c r="M119" t="inlineStr">
+        <is>
+          <t>regional</t>
+        </is>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" s="1" t="n">
+        <v>118</v>
+      </c>
+      <c r="B120" s="2" t="n">
+        <v>42848</v>
+      </c>
+      <c r="C120" t="inlineStr">
+        <is>
+          <t>Paris</t>
+        </is>
+      </c>
+      <c r="D120" t="n">
+        <v>15</v>
+      </c>
+      <c r="E120" t="n">
+        <v>118947</v>
+      </c>
+      <c r="F120" t="n">
+        <v>15608</v>
+      </c>
+      <c r="G120" t="n">
+        <v>9085</v>
+      </c>
+      <c r="H120" t="inlineStr"/>
+      <c r="I120" t="n">
+        <v>42790</v>
+      </c>
+      <c r="J120" t="n">
+        <v>40235</v>
+      </c>
+      <c r="K120" t="n">
+        <v>6257</v>
+      </c>
+      <c r="L120" t="n">
+        <v>4972</v>
+      </c>
+      <c r="M120" t="inlineStr">
+        <is>
+          <t>president</t>
+        </is>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" s="1" t="n">
+        <v>119</v>
+      </c>
+      <c r="B121" s="2" t="n">
+        <v>42897</v>
+      </c>
+      <c r="C121" t="inlineStr">
+        <is>
+          <t>Paris</t>
+        </is>
+      </c>
+      <c r="D121" t="n">
+        <v>15</v>
+      </c>
+      <c r="E121" t="n">
+        <v>85143</v>
+      </c>
+      <c r="F121" t="n">
+        <v>5707</v>
+      </c>
+      <c r="G121" t="n">
+        <v>5669</v>
+      </c>
+      <c r="H121" t="n">
+        <v>3226</v>
+      </c>
+      <c r="I121" t="n">
+        <v>38346</v>
+      </c>
+      <c r="J121" t="n">
+        <v>24396</v>
+      </c>
+      <c r="K121" t="n">
+        <v>2678</v>
+      </c>
+      <c r="L121" t="n">
+        <v>5121</v>
+      </c>
+      <c r="M121" t="inlineStr">
+        <is>
+          <t>legislative</t>
+        </is>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" s="1" t="n">
+        <v>120</v>
+      </c>
+      <c r="B122" s="2" t="n">
+        <v>39591</v>
+      </c>
+      <c r="C122" t="inlineStr">
+        <is>
+          <t>Paris</t>
+        </is>
+      </c>
+      <c r="D122" t="n">
+        <v>16</v>
+      </c>
+      <c r="E122" t="n">
+        <v>45968</v>
+      </c>
+      <c r="F122" t="inlineStr"/>
+      <c r="G122" t="n">
+        <v>7851</v>
+      </c>
+      <c r="H122" t="n">
+        <v>1114</v>
+      </c>
+      <c r="I122" t="n">
+        <v>3972</v>
+      </c>
+      <c r="J122" t="n">
+        <v>23768</v>
+      </c>
+      <c r="K122" t="n">
+        <v>1678</v>
+      </c>
+      <c r="L122" t="n">
+        <v>7585</v>
+      </c>
+      <c r="M122" t="inlineStr">
+        <is>
+          <t>municipale</t>
+        </is>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" s="1" t="n">
+        <v>121</v>
+      </c>
+      <c r="B123" s="2" t="n">
+        <v>40251</v>
+      </c>
+      <c r="C123" t="inlineStr">
+        <is>
+          <t>Paris</t>
+        </is>
+      </c>
+      <c r="D123" t="n">
+        <v>16</v>
+      </c>
+      <c r="E123" t="n">
+        <v>40269</v>
+      </c>
+      <c r="F123" t="n">
+        <v>820</v>
+      </c>
+      <c r="G123" t="n">
+        <v>4555</v>
+      </c>
+      <c r="H123" t="n">
+        <v>3750</v>
+      </c>
+      <c r="I123" t="n">
+        <v>1237</v>
+      </c>
+      <c r="J123" t="n">
+        <v>24375</v>
+      </c>
+      <c r="K123" t="n">
+        <v>2842</v>
+      </c>
+      <c r="L123" t="n">
+        <v>2690</v>
+      </c>
+      <c r="M123" t="inlineStr">
+        <is>
+          <t>regional</t>
+        </is>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" s="1" t="n">
+        <v>122</v>
+      </c>
+      <c r="B124" s="2" t="n">
+        <v>41070</v>
+      </c>
+      <c r="C124" t="inlineStr">
+        <is>
+          <t>Paris</t>
+        </is>
+      </c>
+      <c r="D124" t="n">
+        <v>16</v>
+      </c>
+      <c r="E124" t="n">
+        <v>51106</v>
+      </c>
+      <c r="F124" t="n">
+        <v>599</v>
+      </c>
+      <c r="G124" t="n">
+        <v>7674</v>
+      </c>
+      <c r="H124" t="n">
+        <v>1056</v>
+      </c>
+      <c r="I124" t="n">
+        <v>1710</v>
+      </c>
+      <c r="J124" t="n">
+        <v>30445</v>
+      </c>
+      <c r="K124" t="n">
+        <v>2770</v>
+      </c>
+      <c r="L124" t="n">
+        <v>6852</v>
+      </c>
+      <c r="M124" t="inlineStr">
+        <is>
+          <t>legislative</t>
+        </is>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" s="1" t="n">
+        <v>123</v>
+      </c>
+      <c r="B125" s="2" t="n">
+        <v>41723</v>
+      </c>
+      <c r="C125" t="inlineStr">
+        <is>
+          <t>Paris</t>
+        </is>
+      </c>
+      <c r="D125" t="n">
+        <v>16</v>
+      </c>
+      <c r="E125" t="n">
+        <v>47741</v>
+      </c>
+      <c r="F125" t="n">
+        <v>497</v>
+      </c>
+      <c r="G125" t="n">
+        <v>6197</v>
+      </c>
+      <c r="H125" t="n">
+        <v>1103</v>
+      </c>
+      <c r="I125" t="inlineStr"/>
+      <c r="J125" t="n">
+        <v>30100</v>
+      </c>
+      <c r="K125" t="n">
+        <v>2865</v>
+      </c>
+      <c r="L125" t="n">
+        <v>6979</v>
+      </c>
+      <c r="M125" t="inlineStr">
+        <is>
+          <t>municipale</t>
+        </is>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" s="1" t="n">
+        <v>124</v>
+      </c>
+      <c r="B126" s="2" t="n">
+        <v>41784</v>
+      </c>
+      <c r="C126" t="inlineStr">
+        <is>
+          <t>Paris</t>
+        </is>
+      </c>
+      <c r="D126" t="n">
+        <v>16</v>
+      </c>
+      <c r="E126" t="n">
+        <v>45436</v>
+      </c>
+      <c r="F126" t="n">
+        <v>572</v>
+      </c>
+      <c r="G126" t="n">
+        <v>3734</v>
+      </c>
+      <c r="H126" t="n">
+        <v>1768</v>
+      </c>
+      <c r="I126" t="n">
+        <v>6382</v>
+      </c>
+      <c r="J126" t="n">
+        <v>20935</v>
+      </c>
+      <c r="K126" t="n">
+        <v>4933</v>
+      </c>
+      <c r="L126" t="n">
+        <v>7112</v>
+      </c>
+      <c r="M126" t="inlineStr">
+        <is>
+          <t>european</t>
+        </is>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" s="1" t="n">
+        <v>125</v>
+      </c>
+      <c r="B127" s="2" t="n">
+        <v>42344</v>
+      </c>
+      <c r="C127" t="inlineStr">
+        <is>
+          <t>Paris</t>
+        </is>
+      </c>
+      <c r="D127" t="n">
+        <v>16</v>
+      </c>
+      <c r="E127" t="n">
+        <v>45573</v>
+      </c>
+      <c r="F127" t="n">
+        <v>599</v>
+      </c>
+      <c r="G127" t="n">
+        <v>5788</v>
+      </c>
+      <c r="H127" t="n">
+        <v>1628</v>
+      </c>
+      <c r="I127" t="inlineStr"/>
+      <c r="J127" t="n">
+        <v>29192</v>
+      </c>
+      <c r="K127" t="n">
+        <v>4843</v>
+      </c>
+      <c r="L127" t="n">
+        <v>3523</v>
+      </c>
+      <c r="M127" t="inlineStr">
+        <is>
+          <t>regional</t>
+        </is>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" s="1" t="n">
+        <v>126</v>
+      </c>
+      <c r="B128" s="2" t="n">
+        <v>42848</v>
+      </c>
+      <c r="C128" t="inlineStr">
+        <is>
+          <t>Paris</t>
+        </is>
+      </c>
+      <c r="D128" t="n">
+        <v>16</v>
+      </c>
+      <c r="E128" t="n">
+        <v>79954</v>
+      </c>
+      <c r="F128" t="n">
+        <v>4315</v>
+      </c>
+      <c r="G128" t="n">
+        <v>2353</v>
+      </c>
+      <c r="H128" t="inlineStr"/>
+      <c r="I128" t="n">
+        <v>21304</v>
+      </c>
+      <c r="J128" t="n">
+        <v>46734</v>
+      </c>
+      <c r="K128" t="n">
+        <v>3273</v>
+      </c>
+      <c r="L128" t="n">
+        <v>1975</v>
+      </c>
+      <c r="M128" t="inlineStr">
+        <is>
+          <t>president</t>
+        </is>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" s="1" t="n">
+        <v>127</v>
+      </c>
+      <c r="B129" s="2" t="n">
+        <v>42897</v>
+      </c>
+      <c r="C129" t="inlineStr">
+        <is>
+          <t>Paris</t>
+        </is>
+      </c>
+      <c r="D129" t="n">
+        <v>16</v>
+      </c>
+      <c r="E129" t="n">
+        <v>51079</v>
+      </c>
+      <c r="F129" t="n">
+        <v>1161</v>
+      </c>
+      <c r="G129" t="n">
+        <v>1157</v>
+      </c>
+      <c r="H129" t="n">
+        <v>803</v>
+      </c>
+      <c r="I129" t="n">
+        <v>22759</v>
+      </c>
+      <c r="J129" t="n">
+        <v>19453</v>
+      </c>
+      <c r="K129" t="n">
+        <v>1675</v>
+      </c>
+      <c r="L129" t="n">
+        <v>4071</v>
+      </c>
+      <c r="M129" t="inlineStr">
+        <is>
+          <t>legislative</t>
+        </is>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" s="1" t="n">
+        <v>128</v>
+      </c>
+      <c r="B130" s="2" t="n">
+        <v>39591</v>
+      </c>
+      <c r="C130" t="inlineStr">
+        <is>
+          <t>Paris</t>
+        </is>
+      </c>
+      <c r="D130" t="n">
+        <v>17</v>
+      </c>
+      <c r="E130" t="n">
+        <v>49965</v>
+      </c>
+      <c r="F130" t="n">
+        <v>568</v>
+      </c>
+      <c r="G130" t="n">
+        <v>18089</v>
+      </c>
+      <c r="H130" t="n">
+        <v>2279</v>
+      </c>
+      <c r="I130" t="n">
+        <v>4935</v>
+      </c>
+      <c r="J130" t="n">
+        <v>22002</v>
+      </c>
+      <c r="K130" t="n">
+        <v>2092</v>
+      </c>
+      <c r="L130" t="n">
+        <v>0</v>
+      </c>
+      <c r="M130" t="inlineStr">
+        <is>
+          <t>municipale</t>
+        </is>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" s="1" t="n">
+        <v>129</v>
+      </c>
+      <c r="B131" s="2" t="n">
+        <v>40251</v>
+      </c>
+      <c r="C131" t="inlineStr">
+        <is>
+          <t>Paris</t>
+        </is>
+      </c>
+      <c r="D131" t="n">
+        <v>17</v>
+      </c>
+      <c r="E131" t="n">
+        <v>40672</v>
+      </c>
+      <c r="F131" t="n">
+        <v>2242</v>
+      </c>
+      <c r="G131" t="n">
+        <v>7883</v>
+      </c>
+      <c r="H131" t="n">
+        <v>6812</v>
+      </c>
+      <c r="I131" t="n">
+        <v>1579</v>
+      </c>
+      <c r="J131" t="n">
+        <v>16895</v>
+      </c>
+      <c r="K131" t="n">
+        <v>2777</v>
+      </c>
+      <c r="L131" t="n">
+        <v>2484</v>
+      </c>
+      <c r="M131" t="inlineStr">
+        <is>
+          <t>regional</t>
+        </is>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" s="1" t="n">
+        <v>130</v>
+      </c>
+      <c r="B132" s="2" t="n">
+        <v>41070</v>
+      </c>
+      <c r="C132" t="inlineStr">
+        <is>
+          <t>Paris</t>
+        </is>
+      </c>
+      <c r="D132" t="n">
+        <v>17</v>
+      </c>
+      <c r="E132" t="n">
+        <v>55075</v>
+      </c>
+      <c r="F132" t="n">
+        <v>1624</v>
+      </c>
+      <c r="G132" t="n">
+        <v>17471</v>
+      </c>
+      <c r="H132" t="n">
+        <v>2357</v>
+      </c>
+      <c r="I132" t="n">
+        <v>1874</v>
+      </c>
+      <c r="J132" t="n">
+        <v>19358</v>
+      </c>
+      <c r="K132" t="n">
+        <v>3004</v>
+      </c>
+      <c r="L132" t="n">
+        <v>9387</v>
+      </c>
+      <c r="M132" t="inlineStr">
+        <is>
+          <t>legislative</t>
+        </is>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" s="1" t="n">
+        <v>131</v>
+      </c>
+      <c r="B133" s="2" t="n">
+        <v>41723</v>
+      </c>
+      <c r="C133" t="inlineStr">
+        <is>
+          <t>Paris</t>
+        </is>
+      </c>
+      <c r="D133" t="n">
+        <v>17</v>
+      </c>
+      <c r="E133" t="n">
+        <v>50128</v>
+      </c>
+      <c r="F133" t="n">
+        <v>1544</v>
+      </c>
+      <c r="G133" t="n">
+        <v>12727</v>
+      </c>
+      <c r="H133" t="n">
+        <v>3302</v>
+      </c>
+      <c r="I133" t="inlineStr"/>
+      <c r="J133" t="n">
+        <v>26836</v>
+      </c>
+      <c r="K133" t="n">
+        <v>3234</v>
+      </c>
+      <c r="L133" t="n">
+        <v>2485</v>
+      </c>
+      <c r="M133" t="inlineStr">
+        <is>
+          <t>municipale</t>
+        </is>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" s="1" t="n">
+        <v>132</v>
+      </c>
+      <c r="B134" s="2" t="n">
+        <v>41784</v>
+      </c>
+      <c r="C134" t="inlineStr">
+        <is>
+          <t>Paris</t>
+        </is>
+      </c>
+      <c r="D134" t="n">
+        <v>17</v>
+      </c>
+      <c r="E134" t="n">
+        <v>45869</v>
+      </c>
+      <c r="F134" t="n">
+        <v>1596</v>
+      </c>
+      <c r="G134" t="n">
+        <v>6426</v>
+      </c>
+      <c r="H134" t="n">
+        <v>4204</v>
+      </c>
+      <c r="I134" t="n">
+        <v>6801</v>
+      </c>
+      <c r="J134" t="n">
+        <v>14664</v>
+      </c>
+      <c r="K134" t="n">
+        <v>4704</v>
+      </c>
+      <c r="L134" t="n">
+        <v>7474</v>
+      </c>
+      <c r="M134" t="inlineStr">
+        <is>
+          <t>european</t>
+        </is>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" s="1" t="n">
+        <v>133</v>
+      </c>
+      <c r="B135" s="2" t="n">
+        <v>42344</v>
+      </c>
+      <c r="C135" t="inlineStr">
+        <is>
+          <t>Paris</t>
+        </is>
+      </c>
+      <c r="D135" t="n">
+        <v>17</v>
+      </c>
+      <c r="E135" t="n">
+        <v>45565</v>
+      </c>
+      <c r="F135" t="n">
+        <v>1690</v>
+      </c>
+      <c r="G135" t="n">
+        <v>10936</v>
+      </c>
+      <c r="H135" t="n">
+        <v>3447</v>
+      </c>
+      <c r="I135" t="inlineStr"/>
+      <c r="J135" t="n">
+        <v>21256</v>
+      </c>
+      <c r="K135" t="n">
+        <v>4597</v>
+      </c>
+      <c r="L135" t="n">
+        <v>3639</v>
+      </c>
+      <c r="M135" t="inlineStr">
+        <is>
+          <t>regional</t>
+        </is>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" s="1" t="n">
+        <v>134</v>
+      </c>
+      <c r="B136" s="2" t="n">
+        <v>42848</v>
+      </c>
+      <c r="C136" t="inlineStr">
+        <is>
+          <t>Paris</t>
+        </is>
+      </c>
+      <c r="D136" t="n">
+        <v>17</v>
+      </c>
+      <c r="E136" t="n">
+        <v>82482</v>
+      </c>
+      <c r="F136" t="n">
+        <v>10677</v>
+      </c>
+      <c r="G136" t="n">
+        <v>5669</v>
+      </c>
+      <c r="H136" t="inlineStr"/>
+      <c r="I136" t="n">
+        <v>28423</v>
+      </c>
+      <c r="J136" t="n">
+        <v>31103</v>
+      </c>
+      <c r="K136" t="n">
+        <v>3786</v>
+      </c>
+      <c r="L136" t="n">
+        <v>2824</v>
+      </c>
+      <c r="M136" t="inlineStr">
+        <is>
+          <t>president</t>
+        </is>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" s="1" t="n">
+        <v>135</v>
+      </c>
+      <c r="B137" s="2" t="n">
+        <v>42897</v>
+      </c>
+      <c r="C137" t="inlineStr">
+        <is>
+          <t>Paris</t>
+        </is>
+      </c>
+      <c r="D137" t="n">
+        <v>17</v>
+      </c>
+      <c r="E137" t="n">
+        <v>56199</v>
+      </c>
+      <c r="F137" t="n">
+        <v>4142</v>
+      </c>
+      <c r="G137" t="n">
+        <v>4227</v>
+      </c>
+      <c r="H137" t="n">
+        <v>2040</v>
+      </c>
+      <c r="I137" t="n">
+        <v>26291</v>
+      </c>
+      <c r="J137" t="n">
+        <v>14701</v>
+      </c>
+      <c r="K137" t="n">
+        <v>1655</v>
+      </c>
+      <c r="L137" t="n">
+        <v>3143</v>
+      </c>
+      <c r="M137" t="inlineStr">
+        <is>
+          <t>legislative</t>
+        </is>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" s="1" t="n">
+        <v>136</v>
+      </c>
+      <c r="B138" s="2" t="n">
+        <v>39591</v>
+      </c>
+      <c r="C138" t="inlineStr">
+        <is>
+          <t>Paris</t>
+        </is>
+      </c>
+      <c r="D138" t="n">
+        <v>18</v>
+      </c>
+      <c r="E138" t="n">
+        <v>52044</v>
+      </c>
+      <c r="F138" t="n">
+        <v>3302</v>
+      </c>
+      <c r="G138" t="n">
+        <v>25791</v>
+      </c>
+      <c r="H138" t="n">
+        <v>5392</v>
+      </c>
+      <c r="I138" t="n">
+        <v>3482</v>
+      </c>
+      <c r="J138" t="n">
+        <v>10018</v>
+      </c>
+      <c r="K138" t="n">
+        <v>1823</v>
+      </c>
+      <c r="L138" t="n">
+        <v>2236</v>
+      </c>
+      <c r="M138" t="inlineStr">
+        <is>
+          <t>municipale</t>
+        </is>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" s="1" t="n">
+        <v>137</v>
+      </c>
+      <c r="B139" s="2" t="n">
+        <v>40251</v>
+      </c>
+      <c r="C139" t="inlineStr">
+        <is>
+          <t>Paris</t>
+        </is>
+      </c>
+      <c r="D139" t="n">
+        <v>18</v>
+      </c>
+      <c r="E139" t="n">
+        <v>41900</v>
+      </c>
+      <c r="F139" t="n">
+        <v>5457</v>
+      </c>
+      <c r="G139" t="n">
+        <v>12401</v>
+      </c>
+      <c r="H139" t="n">
+        <v>10695</v>
+      </c>
+      <c r="I139" t="n">
+        <v>1418</v>
+      </c>
+      <c r="J139" t="n">
+        <v>7316</v>
+      </c>
+      <c r="K139" t="n">
+        <v>2821</v>
+      </c>
+      <c r="L139" t="n">
+        <v>1792</v>
+      </c>
+      <c r="M139" t="inlineStr">
+        <is>
+          <t>regional</t>
+        </is>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" s="1" t="n">
+        <v>138</v>
+      </c>
+      <c r="B140" s="2" t="n">
+        <v>41070</v>
+      </c>
+      <c r="C140" t="inlineStr">
+        <is>
+          <t>Paris</t>
+        </is>
+      </c>
+      <c r="D140" t="n">
+        <v>18</v>
+      </c>
+      <c r="E140" t="n">
+        <v>57204</v>
+      </c>
+      <c r="F140" t="n">
+        <v>6195</v>
+      </c>
+      <c r="G140" t="n">
+        <v>26616</v>
+      </c>
+      <c r="H140" t="n">
+        <v>5411</v>
+      </c>
+      <c r="I140" t="n">
+        <v>1644</v>
+      </c>
+      <c r="J140" t="n">
+        <v>11802</v>
+      </c>
+      <c r="K140" t="n">
+        <v>3291</v>
+      </c>
+      <c r="L140" t="n">
+        <v>2245</v>
+      </c>
+      <c r="M140" t="inlineStr">
+        <is>
+          <t>legislative</t>
+        </is>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" s="1" t="n">
+        <v>139</v>
+      </c>
+      <c r="B141" s="2" t="n">
+        <v>41723</v>
+      </c>
+      <c r="C141" t="inlineStr">
+        <is>
+          <t>Paris</t>
+        </is>
+      </c>
+      <c r="D141" t="n">
+        <v>18</v>
+      </c>
+      <c r="E141" t="n">
+        <v>51029</v>
+      </c>
+      <c r="F141" t="n">
+        <v>3668</v>
+      </c>
+      <c r="G141" t="n">
+        <v>20338</v>
+      </c>
+      <c r="H141" t="n">
+        <v>6457</v>
+      </c>
+      <c r="I141" t="inlineStr"/>
+      <c r="J141" t="n">
+        <v>12879</v>
+      </c>
+      <c r="K141" t="n">
+        <v>3460</v>
+      </c>
+      <c r="L141" t="n">
+        <v>4227</v>
+      </c>
+      <c r="M141" t="inlineStr">
+        <is>
+          <t>municipale</t>
+        </is>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" s="1" t="n">
+        <v>140</v>
+      </c>
+      <c r="B142" s="2" t="n">
+        <v>41784</v>
+      </c>
+      <c r="C142" t="inlineStr">
+        <is>
+          <t>Paris</t>
+        </is>
+      </c>
+      <c r="D142" t="n">
+        <v>18</v>
+      </c>
+      <c r="E142" t="n">
+        <v>45808</v>
+      </c>
+      <c r="F142" t="n">
+        <v>3799</v>
+      </c>
+      <c r="G142" t="n">
+        <v>10082</v>
+      </c>
+      <c r="H142" t="n">
+        <v>8847</v>
+      </c>
+      <c r="I142" t="n">
+        <v>4431</v>
+      </c>
+      <c r="J142" t="n">
+        <v>6269</v>
+      </c>
+      <c r="K142" t="n">
+        <v>4254</v>
+      </c>
+      <c r="L142" t="n">
+        <v>8126</v>
+      </c>
+      <c r="M142" t="inlineStr">
+        <is>
+          <t>european</t>
+        </is>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" s="1" t="n">
+        <v>141</v>
+      </c>
+      <c r="B143" s="2" t="n">
+        <v>42344</v>
+      </c>
+      <c r="C143" t="inlineStr">
+        <is>
+          <t>Paris</t>
+        </is>
+      </c>
+      <c r="D143" t="n">
+        <v>18</v>
+      </c>
+      <c r="E143" t="n">
+        <v>44671</v>
+      </c>
+      <c r="F143" t="n">
+        <v>4461</v>
+      </c>
+      <c r="G143" t="n">
+        <v>16616</v>
+      </c>
+      <c r="H143" t="n">
+        <v>6366</v>
+      </c>
+      <c r="I143" t="inlineStr"/>
+      <c r="J143" t="n">
+        <v>9180</v>
+      </c>
+      <c r="K143" t="n">
+        <v>4390</v>
+      </c>
+      <c r="L143" t="n">
+        <v>3658</v>
+      </c>
+      <c r="M143" t="inlineStr">
+        <is>
+          <t>regional</t>
+        </is>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" s="1" t="n">
+        <v>142</v>
+      </c>
+      <c r="B144" s="2" t="n">
+        <v>42848</v>
+      </c>
+      <c r="C144" t="inlineStr">
+        <is>
+          <t>Paris</t>
+        </is>
+      </c>
+      <c r="D144" t="n">
+        <v>18</v>
+      </c>
+      <c r="E144" t="n">
+        <v>84099</v>
+      </c>
+      <c r="F144" t="n">
+        <v>23867</v>
+      </c>
+      <c r="G144" t="n">
+        <v>11211</v>
+      </c>
+      <c r="H144" t="inlineStr"/>
+      <c r="I144" t="n">
+        <v>28437</v>
+      </c>
+      <c r="J144" t="n">
+        <v>12222</v>
+      </c>
+      <c r="K144" t="n">
+        <v>4595</v>
+      </c>
+      <c r="L144" t="n">
+        <v>3767</v>
+      </c>
+      <c r="M144" t="inlineStr">
+        <is>
+          <t>president</t>
+        </is>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" s="1" t="n">
+        <v>143</v>
+      </c>
+      <c r="B145" s="2" t="n">
+        <v>42897</v>
+      </c>
+      <c r="C145" t="inlineStr">
+        <is>
+          <t>Paris</t>
+        </is>
+      </c>
+      <c r="D145" t="n">
+        <v>18</v>
+      </c>
+      <c r="E145" t="n">
+        <v>54371</v>
+      </c>
+      <c r="F145" t="n">
+        <v>9339</v>
+      </c>
+      <c r="G145" t="n">
+        <v>8969</v>
+      </c>
+      <c r="H145" t="n">
+        <v>6474</v>
+      </c>
+      <c r="I145" t="n">
+        <v>6828</v>
+      </c>
+      <c r="J145" t="n">
+        <v>12097</v>
+      </c>
+      <c r="K145" t="n">
+        <v>2039</v>
+      </c>
+      <c r="L145" t="n">
+        <v>8625</v>
+      </c>
+      <c r="M145" t="inlineStr">
+        <is>
+          <t>legislative</t>
+        </is>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" s="1" t="n">
+        <v>144</v>
+      </c>
+      <c r="B146" s="2" t="n">
+        <v>39591</v>
+      </c>
+      <c r="C146" t="inlineStr">
+        <is>
+          <t>Paris</t>
+        </is>
+      </c>
+      <c r="D146" t="n">
+        <v>19</v>
+      </c>
+      <c r="E146" t="n">
+        <v>47460</v>
+      </c>
+      <c r="F146" t="n">
+        <v>2710</v>
+      </c>
+      <c r="G146" t="n">
+        <v>24744</v>
+      </c>
+      <c r="H146" t="n">
+        <v>3963</v>
+      </c>
+      <c r="I146" t="n">
+        <v>3238</v>
+      </c>
+      <c r="J146" t="n">
+        <v>10130</v>
+      </c>
+      <c r="K146" t="n">
+        <v>1725</v>
+      </c>
+      <c r="L146" t="n">
+        <v>950</v>
+      </c>
+      <c r="M146" t="inlineStr">
+        <is>
+          <t>municipale</t>
+        </is>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" s="1" t="n">
+        <v>145</v>
+      </c>
+      <c r="B147" s="2" t="n">
+        <v>40251</v>
+      </c>
+      <c r="C147" t="inlineStr">
+        <is>
+          <t>Paris</t>
+        </is>
+      </c>
+      <c r="D147" t="n">
+        <v>19</v>
+      </c>
+      <c r="E147" t="n">
+        <v>37846</v>
+      </c>
+      <c r="F147" t="n">
+        <v>5355</v>
+      </c>
+      <c r="G147" t="n">
+        <v>11666</v>
+      </c>
+      <c r="H147" t="n">
+        <v>8677</v>
+      </c>
+      <c r="I147" t="n">
+        <v>1350</v>
+      </c>
+      <c r="J147" t="n">
+        <v>6578</v>
+      </c>
+      <c r="K147" t="n">
+        <v>2493</v>
+      </c>
+      <c r="L147" t="n">
+        <v>1727</v>
+      </c>
+      <c r="M147" t="inlineStr">
+        <is>
+          <t>regional</t>
+        </is>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" s="1" t="n">
+        <v>146</v>
+      </c>
+      <c r="B148" s="2" t="n">
+        <v>41070</v>
+      </c>
+      <c r="C148" t="inlineStr">
+        <is>
+          <t>Paris</t>
+        </is>
+      </c>
+      <c r="D148" t="n">
+        <v>19</v>
+      </c>
+      <c r="E148" t="n">
+        <v>51995</v>
+      </c>
+      <c r="F148" t="n">
+        <v>6441</v>
+      </c>
+      <c r="G148" t="n">
+        <v>22057</v>
+      </c>
+      <c r="H148" t="n">
+        <v>5330</v>
+      </c>
+      <c r="I148" t="n">
+        <v>1587</v>
+      </c>
+      <c r="J148" t="n">
+        <v>10821</v>
+      </c>
+      <c r="K148" t="n">
+        <v>3128</v>
+      </c>
+      <c r="L148" t="n">
+        <v>2631</v>
+      </c>
+      <c r="M148" t="inlineStr">
+        <is>
+          <t>legislative</t>
+        </is>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" s="1" t="n">
+        <v>147</v>
+      </c>
+      <c r="B149" s="2" t="n">
+        <v>41723</v>
+      </c>
+      <c r="C149" t="inlineStr">
+        <is>
+          <t>Paris</t>
+        </is>
+      </c>
+      <c r="D149" t="n">
+        <v>19</v>
+      </c>
+      <c r="E149" t="n">
+        <v>46307</v>
+      </c>
+      <c r="F149" t="n">
+        <v>3295</v>
+      </c>
+      <c r="G149" t="n">
+        <v>19533</v>
+      </c>
+      <c r="H149" t="n">
+        <v>5956</v>
+      </c>
+      <c r="I149" t="inlineStr"/>
+      <c r="J149" t="n">
+        <v>11932</v>
+      </c>
+      <c r="K149" t="n">
+        <v>3678</v>
+      </c>
+      <c r="L149" t="n">
+        <v>1913</v>
+      </c>
+      <c r="M149" t="inlineStr">
+        <is>
+          <t>municipale</t>
+        </is>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" s="1" t="n">
+        <v>148</v>
+      </c>
+      <c r="B150" s="2" t="n">
+        <v>41784</v>
+      </c>
+      <c r="C150" t="inlineStr">
+        <is>
+          <t>Paris</t>
+        </is>
+      </c>
+      <c r="D150" t="n">
+        <v>19</v>
+      </c>
+      <c r="E150" t="n">
+        <v>40066</v>
+      </c>
+      <c r="F150" t="n">
+        <v>3740</v>
+      </c>
+      <c r="G150" t="n">
+        <v>8721</v>
+      </c>
+      <c r="H150" t="n">
+        <v>7688</v>
+      </c>
+      <c r="I150" t="n">
+        <v>3301</v>
+      </c>
+      <c r="J150" t="n">
+        <v>5962</v>
+      </c>
+      <c r="K150" t="n">
+        <v>3894</v>
+      </c>
+      <c r="L150" t="n">
+        <v>6760</v>
+      </c>
+      <c r="M150" t="inlineStr">
+        <is>
+          <t>european</t>
+        </is>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" s="1" t="n">
+        <v>149</v>
+      </c>
+      <c r="B151" s="2" t="n">
+        <v>42344</v>
+      </c>
+      <c r="C151" t="inlineStr">
+        <is>
+          <t>Paris</t>
+        </is>
+      </c>
+      <c r="D151" t="n">
+        <v>19</v>
+      </c>
+      <c r="E151" t="n">
+        <v>40632</v>
+      </c>
+      <c r="F151" t="n">
+        <v>4433</v>
+      </c>
+      <c r="G151" t="n">
+        <v>14642</v>
+      </c>
+      <c r="H151" t="n">
+        <v>5991</v>
+      </c>
+      <c r="I151" t="inlineStr"/>
+      <c r="J151" t="n">
+        <v>7649</v>
+      </c>
+      <c r="K151" t="n">
+        <v>4217</v>
+      </c>
+      <c r="L151" t="n">
+        <v>3700</v>
+      </c>
+      <c r="M151" t="inlineStr">
+        <is>
+          <t>regional</t>
+        </is>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" s="1" t="n">
+        <v>150</v>
+      </c>
+      <c r="B152" s="2" t="n">
+        <v>42848</v>
+      </c>
+      <c r="C152" t="inlineStr">
+        <is>
+          <t>Paris</t>
+        </is>
+      </c>
+      <c r="D152" t="n">
+        <v>19</v>
+      </c>
+      <c r="E152" t="n">
+        <v>79665</v>
+      </c>
+      <c r="F152" t="n">
+        <v>24455</v>
+      </c>
+      <c r="G152" t="n">
+        <v>10352</v>
+      </c>
+      <c r="H152" t="inlineStr"/>
+      <c r="I152" t="n">
+        <v>23578</v>
+      </c>
+      <c r="J152" t="n">
+        <v>12977</v>
+      </c>
+      <c r="K152" t="n">
+        <v>4602</v>
+      </c>
+      <c r="L152" t="n">
+        <v>3701</v>
+      </c>
+      <c r="M152" t="inlineStr">
+        <is>
+          <t>president</t>
+        </is>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" s="1" t="n">
+        <v>151</v>
+      </c>
+      <c r="B153" s="2" t="n">
+        <v>42897</v>
+      </c>
+      <c r="C153" t="inlineStr">
+        <is>
+          <t>Paris</t>
+        </is>
+      </c>
+      <c r="D153" t="n">
+        <v>19</v>
+      </c>
+      <c r="E153" t="n">
+        <v>50024</v>
+      </c>
+      <c r="F153" t="n">
+        <v>9798</v>
+      </c>
+      <c r="G153" t="n">
+        <v>4488</v>
+      </c>
+      <c r="H153" t="n">
+        <v>5463</v>
+      </c>
+      <c r="I153" t="n">
+        <v>18429</v>
+      </c>
+      <c r="J153" t="n">
+        <v>3790</v>
+      </c>
+      <c r="K153" t="n">
+        <v>2129</v>
+      </c>
+      <c r="L153" t="n">
+        <v>5927</v>
+      </c>
+      <c r="M153" t="inlineStr">
+        <is>
+          <t>legislative</t>
+        </is>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" s="1" t="n">
+        <v>152</v>
+      </c>
+      <c r="B154" s="2" t="n">
+        <v>39591</v>
+      </c>
+      <c r="C154" t="inlineStr">
+        <is>
+          <t>Paris</t>
+        </is>
+      </c>
+      <c r="D154" t="n">
         <v>20</v>
       </c>
-      <c r="E81" t="n">
+      <c r="E154" t="n">
+        <v>56285</v>
+      </c>
+      <c r="F154" t="n">
+        <v>4776</v>
+      </c>
+      <c r="G154" t="n">
+        <v>21568</v>
+      </c>
+      <c r="H154" t="n">
+        <v>5329</v>
+      </c>
+      <c r="I154" t="n">
+        <v>4114</v>
+      </c>
+      <c r="J154" t="n">
+        <v>4076</v>
+      </c>
+      <c r="K154" t="n">
+        <v>2033</v>
+      </c>
+      <c r="L154" t="n">
+        <v>14389</v>
+      </c>
+      <c r="M154" t="inlineStr">
+        <is>
+          <t>municipale</t>
+        </is>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" s="1" t="n">
+        <v>153</v>
+      </c>
+      <c r="B155" s="2" t="n">
+        <v>40251</v>
+      </c>
+      <c r="C155" t="inlineStr">
+        <is>
+          <t>Paris</t>
+        </is>
+      </c>
+      <c r="D155" t="n">
+        <v>20</v>
+      </c>
+      <c r="E155" t="n">
+        <v>46626</v>
+      </c>
+      <c r="F155" t="n">
+        <v>7065</v>
+      </c>
+      <c r="G155" t="n">
+        <v>14310</v>
+      </c>
+      <c r="H155" t="n">
+        <v>11481</v>
+      </c>
+      <c r="I155" t="n">
+        <v>1721</v>
+      </c>
+      <c r="J155" t="n">
+        <v>6930</v>
+      </c>
+      <c r="K155" t="n">
+        <v>3030</v>
+      </c>
+      <c r="L155" t="n">
+        <v>2089</v>
+      </c>
+      <c r="M155" t="inlineStr">
+        <is>
+          <t>regional</t>
+        </is>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" s="1" t="n">
+        <v>154</v>
+      </c>
+      <c r="B156" s="2" t="n">
+        <v>41070</v>
+      </c>
+      <c r="C156" t="inlineStr">
+        <is>
+          <t>Paris</t>
+        </is>
+      </c>
+      <c r="D156" t="n">
+        <v>20</v>
+      </c>
+      <c r="E156" t="n">
+        <v>62422</v>
+      </c>
+      <c r="F156" t="n">
+        <v>9055</v>
+      </c>
+      <c r="G156" t="n">
+        <v>21881</v>
+      </c>
+      <c r="H156" t="n">
+        <v>11676</v>
+      </c>
+      <c r="I156" t="n">
+        <v>1800</v>
+      </c>
+      <c r="J156" t="n">
+        <v>10472</v>
+      </c>
+      <c r="K156" t="n">
+        <v>3940</v>
+      </c>
+      <c r="L156" t="n">
+        <v>3598</v>
+      </c>
+      <c r="M156" t="inlineStr">
+        <is>
+          <t>legislative</t>
+        </is>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" s="1" t="n">
+        <v>155</v>
+      </c>
+      <c r="B157" s="2" t="n">
+        <v>41723</v>
+      </c>
+      <c r="C157" t="inlineStr">
+        <is>
+          <t>Paris</t>
+        </is>
+      </c>
+      <c r="D157" t="n">
+        <v>20</v>
+      </c>
+      <c r="E157" t="n">
+        <v>54966</v>
+      </c>
+      <c r="F157" t="n">
+        <v>5692</v>
+      </c>
+      <c r="G157" t="n">
+        <v>20502</v>
+      </c>
+      <c r="H157" t="n">
+        <v>5990</v>
+      </c>
+      <c r="I157" t="inlineStr"/>
+      <c r="J157" t="n">
+        <v>11467</v>
+      </c>
+      <c r="K157" t="n">
+        <v>4112</v>
+      </c>
+      <c r="L157" t="n">
+        <v>7203</v>
+      </c>
+      <c r="M157" t="inlineStr">
+        <is>
+          <t>municipale</t>
+        </is>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" s="1" t="n">
+        <v>156</v>
+      </c>
+      <c r="B158" s="2" t="n">
+        <v>41784</v>
+      </c>
+      <c r="C158" t="inlineStr">
+        <is>
+          <t>Paris</t>
+        </is>
+      </c>
+      <c r="D158" t="n">
+        <v>20</v>
+      </c>
+      <c r="E158" t="n">
+        <v>49075</v>
+      </c>
+      <c r="F158" t="n">
+        <v>4974</v>
+      </c>
+      <c r="G158" t="n">
+        <v>10575</v>
+      </c>
+      <c r="H158" t="n">
+        <v>9498</v>
+      </c>
+      <c r="I158" t="n">
+        <v>4218</v>
+      </c>
+      <c r="J158" t="n">
+        <v>5994</v>
+      </c>
+      <c r="K158" t="n">
+        <v>4584</v>
+      </c>
+      <c r="L158" t="n">
+        <v>9232</v>
+      </c>
+      <c r="M158" t="inlineStr">
+        <is>
+          <t>european</t>
+        </is>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" s="1" t="n">
+        <v>157</v>
+      </c>
+      <c r="B159" s="2" t="n">
+        <v>42344</v>
+      </c>
+      <c r="C159" t="inlineStr">
+        <is>
+          <t>Paris</t>
+        </is>
+      </c>
+      <c r="D159" t="n">
+        <v>20</v>
+      </c>
+      <c r="E159" t="n">
+        <v>49130</v>
+      </c>
+      <c r="F159" t="n">
+        <v>6100</v>
+      </c>
+      <c r="G159" t="n">
+        <v>18315</v>
+      </c>
+      <c r="H159" t="n">
+        <v>7348</v>
+      </c>
+      <c r="I159" t="inlineStr"/>
+      <c r="J159" t="n">
+        <v>8340</v>
+      </c>
+      <c r="K159" t="n">
+        <v>4977</v>
+      </c>
+      <c r="L159" t="n">
+        <v>4050</v>
+      </c>
+      <c r="M159" t="inlineStr">
+        <is>
+          <t>regional</t>
+        </is>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" s="1" t="n">
+        <v>158</v>
+      </c>
+      <c r="B160" s="2" t="n">
+        <v>42848</v>
+      </c>
+      <c r="C160" t="inlineStr">
+        <is>
+          <t>Paris</t>
+        </is>
+      </c>
+      <c r="D160" t="n">
+        <v>20</v>
+      </c>
+      <c r="E160" t="n">
+        <v>89574</v>
+      </c>
+      <c r="F160" t="n">
+        <v>28512</v>
+      </c>
+      <c r="G160" t="n">
+        <v>12469</v>
+      </c>
+      <c r="H160" t="inlineStr"/>
+      <c r="I160" t="n">
+        <v>27399</v>
+      </c>
+      <c r="J160" t="n">
+        <v>11451</v>
+      </c>
+      <c r="K160" t="n">
+        <v>5305</v>
+      </c>
+      <c r="L160" t="n">
+        <v>4438</v>
+      </c>
+      <c r="M160" t="inlineStr">
+        <is>
+          <t>president</t>
+        </is>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" s="1" t="n">
+        <v>159</v>
+      </c>
+      <c r="B161" s="2" t="n">
+        <v>42897</v>
+      </c>
+      <c r="C161" t="inlineStr">
+        <is>
+          <t>Paris</t>
+        </is>
+      </c>
+      <c r="D161" t="n">
+        <v>20</v>
+      </c>
+      <c r="E161" t="n">
         <v>57413</v>
       </c>
-      <c r="F81" t="n">
+      <c r="F161" t="n">
         <v>11546</v>
       </c>
-      <c r="G81" t="n">
+      <c r="G161" t="n">
         <v>10700</v>
       </c>
-      <c r="H81" t="n">
+      <c r="H161" t="n">
         <v>7766</v>
       </c>
-      <c r="I81" t="n">
+      <c r="I161" t="n">
         <v>6505</v>
       </c>
-      <c r="J81" t="n">
+      <c r="J161" t="n">
         <v>4300</v>
       </c>
-      <c r="K81" t="n">
+      <c r="K161" t="n">
         <v>2446</v>
       </c>
-      <c r="L81" t="n">
+      <c r="L161" t="n">
         <v>14150</v>
       </c>
-      <c r="M81" t="inlineStr">
+      <c r="M161" t="inlineStr">
         <is>
           <t>legislative</t>
         </is>
